--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/simulering i python helt ny/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="112" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B616AABF-B7B2-4358-9B8D-4713F000B6FD}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2970" windowWidth="9300" windowHeight="9970" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="B1:V136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5345,11 +5345,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>7.145021064002538E-2</v>
+        <v>9.0873355729177846E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.87113876703532223</v>
+        <v>0.89677539071007861</v>
       </c>
     </row>
   </sheetData>

--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B616AABF-B7B2-4358-9B8D-4713F000B6FD}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C79A5C8-7D82-4CCD-942B-82F63E16FC91}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
   <si>
     <t>specifications</t>
   </si>
@@ -376,12 +376,6 @@
     <t>UK-SMR (RR)</t>
   </si>
   <si>
-    <t>146,645 (tech avg)</t>
-  </si>
-  <si>
-    <t>170,980 (set = KLT-40S)</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t>Delay</t>
   </si>
   <si>
-    <t>Large medium micro</t>
-  </si>
-  <si>
     <t>Superphenix</t>
   </si>
   <si>
@@ -503,6 +494,36 @@
   </si>
   <si>
     <t>occ</t>
+  </si>
+  <si>
+    <t>Olkiluoto-3-wealer</t>
+  </si>
+  <si>
+    <t>Olkiluoto-3-oecd</t>
+  </si>
+  <si>
+    <t>Flamanville-3-wealer</t>
+  </si>
+  <si>
+    <t>Flamanville-3-oecd</t>
+  </si>
+  <si>
+    <t>Vogtle-3-wealer</t>
+  </si>
+  <si>
+    <t>Vogtle-4-wealer</t>
+  </si>
+  <si>
+    <t>Vogtle-3-oecd</t>
+  </si>
+  <si>
+    <t>Vogtle-4-oecd</t>
+  </si>
+  <si>
+    <t>Fort St. Vrain-doe/eia</t>
+  </si>
+  <si>
+    <t>Scale</t>
   </si>
 </sst>
 </file>
@@ -843,7 +864,7 @@
     <tableColumn id="2" xr3:uid="{BE5F5CB4-0A57-4202-B592-12545CA65EB2}" name="Project"/>
     <tableColumn id="3" xr3:uid="{60046BCD-9F9A-48AA-89B5-AE316615AA65}" name="Type"/>
     <tableColumn id="16" xr3:uid="{46D5B3A7-82B4-4B9A-BAC8-0B6CA580863A}" name="FOAK/NOAK*"/>
-    <tableColumn id="20" xr3:uid="{B0E19595-FC54-4C41-8AD5-FC590E2E0867}" name="Large medium micro" dataDxfId="5">
+    <tableColumn id="20" xr3:uid="{B0E19595-FC54-4C41-8AD5-FC590E2E0867}" name="Scale" dataDxfId="5">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F673ACE9-17A3-418F-95E2-3D57C80635AE}" name="Capacity (gross)"/>
@@ -1215,44 +1236,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1266,10 +1287,10 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -1278,10 +1299,10 @@
         <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -1314,7 +1335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F4" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1344,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L4">
         <v>60</v>
@@ -1377,7 +1398,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1388,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1407,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L5">
         <v>60</v>
@@ -1440,7 +1461,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -1451,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F6" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1470,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L6">
         <v>80</v>
@@ -1481,8 +1502,8 @@
       <c r="N6" t="s">
         <v>109</v>
       </c>
-      <c r="O6" t="s">
-        <v>112</v>
+      <c r="O6" s="11">
+        <v>146645</v>
       </c>
       <c r="P6">
         <v>2.33</v>
@@ -1503,7 +1524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>86</v>
       </c>
@@ -1514,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F7" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1533,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L7">
         <v>60</v>
@@ -1566,7 +1587,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F8" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1596,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8">
         <v>60</v>
@@ -1629,7 +1650,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1659,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -1670,8 +1691,8 @@
       <c r="N9" t="s">
         <v>109</v>
       </c>
-      <c r="O9" t="s">
-        <v>113</v>
+      <c r="O9" s="11">
+        <v>170980</v>
       </c>
       <c r="P9">
         <v>2.33</v>
@@ -1692,7 +1713,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>85</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1722,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1733,8 +1754,8 @@
       <c r="N10" t="s">
         <v>109</v>
       </c>
-      <c r="O10" t="s">
-        <v>112</v>
+      <c r="O10" s="11">
+        <v>146645</v>
       </c>
       <c r="P10">
         <v>2.33</v>
@@ -1755,7 +1776,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -1766,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F11" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1818,7 +1839,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1856,8 +1877,8 @@
       <c r="N12" t="s">
         <v>109</v>
       </c>
-      <c r="O12" t="s">
-        <v>112</v>
+      <c r="O12" s="11">
+        <v>146645</v>
       </c>
       <c r="P12">
         <v>2.33</v>
@@ -1878,7 +1899,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F13" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1939,7 +1960,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>85</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F14" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2003,7 +2024,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +2035,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F15" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2063,7 +2084,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F16" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2126,7 +2147,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>88</v>
       </c>
@@ -2137,7 +2158,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F17" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2186,7 +2207,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -2197,7 +2218,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F18" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2246,7 +2267,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -2257,7 +2278,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2306,7 +2327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2366,7 +2387,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>92</v>
       </c>
@@ -2377,7 +2398,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2426,7 +2447,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
@@ -2437,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2481,24 +2502,24 @@
         <v>15</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U22" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2542,13 +2563,13 @@
         <v>15</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U23" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>45</v>
       </c>
@@ -2559,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2603,24 +2624,24 @@
         <v>15</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U24" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2665,24 +2686,24 @@
         <v>15</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U25" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2727,24 +2748,24 @@
         <v>15</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U26" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2788,24 +2809,24 @@
         <v>15</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U27" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2849,13 +2870,13 @@
         <v>15</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U28" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>54</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F29" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2908,13 +2929,13 @@
         <v>15</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U29" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>54</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2967,24 +2988,24 @@
         <v>15</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U30" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F31" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3028,24 +3049,24 @@
         <v>15</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U31" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F32" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3089,24 +3110,24 @@
         <v>15</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U32" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F33" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3150,24 +3171,24 @@
         <v>15</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U33" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3211,24 +3232,24 @@
         <v>15</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U34" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3272,24 +3293,24 @@
         <v>15</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U35" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3333,15 +3354,15 @@
         <v>15</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U36" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>66</v>
@@ -3350,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3394,15 +3415,15 @@
         <v>15</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U37" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>67</v>
@@ -3411,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3455,18 +3476,18 @@
         <v>15</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U38" s="12">
         <v>2020</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>68</v>
@@ -3475,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3520,18 +3541,18 @@
         <v>15</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U39" s="12">
         <v>2020</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>69</v>
@@ -3540,7 +3561,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3585,13 +3606,13 @@
         <v>15</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U40" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>70</v>
       </c>
@@ -3602,7 +3623,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3646,13 +3667,13 @@
         <v>15</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U41" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>70</v>
       </c>
@@ -3663,7 +3684,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3707,24 +3728,24 @@
         <v>15</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U42" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3768,13 +3789,13 @@
         <v>15</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U43" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
@@ -3785,7 +3806,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3829,13 +3850,13 @@
         <v>15</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U44" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
@@ -3846,7 +3867,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3890,13 +3911,13 @@
         <v>15</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U45" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>70</v>
       </c>
@@ -3907,7 +3928,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3949,24 +3970,24 @@
         <v>15</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U46" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -4008,23 +4029,23 @@
         <v>15</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U47" s="12">
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I49" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +4056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>4</v>
       </c>
@@ -4055,13 +4076,13 @@
         <v>41</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>12</v>
       </c>
@@ -4085,7 +4106,7 @@
         <v>2587500</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -4109,7 +4130,7 @@
         <v>6363914.1049661394</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>45</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>7259374.9999999991</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>86</v>
       </c>
@@ -4157,7 +4178,7 @@
         <v>10948554.579439251</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>45</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>3985899.9999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>70</v>
       </c>
@@ -4205,7 +4226,7 @@
         <v>4403454.5454545449</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>85</v>
       </c>
@@ -4229,7 +4250,7 @@
         <v>12264749.999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>70</v>
       </c>
@@ -4253,7 +4274,7 @@
         <v>17020000.5390625</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>87</v>
       </c>
@@ -4277,7 +4298,7 @@
         <v>30932124.999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>45</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>5408864.4339622641</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>85</v>
       </c>
@@ -4325,7 +4346,7 @@
         <v>6520499.9999999991</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>89</v>
       </c>
@@ -4349,7 +4370,7 @@
         <v>2160606.0606060605</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>90</v>
       </c>
@@ -4373,7 +4394,7 @@
         <v>5807500</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>93</v>
       </c>
@@ -4397,7 +4418,7 @@
         <v>26489716.399999999</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>88</v>
       </c>
@@ -4421,7 +4442,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>91</v>
       </c>
@@ -4445,7 +4466,7 @@
         <v>4662405.8999999994</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>54</v>
       </c>
@@ -4469,7 +4490,7 @@
         <v>2242500</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>45</v>
       </c>
@@ -4493,7 +4514,7 @@
         <v>6637143.3499999996</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>92</v>
       </c>
@@ -4517,13 +4538,13 @@
         <v>4784000</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>30</v>
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>45</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>45</v>
       </c>
@@ -4586,7 +4607,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>45</v>
       </c>
@@ -4606,7 +4627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>49</v>
       </c>
@@ -4626,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>49</v>
       </c>
@@ -4646,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>52</v>
       </c>
@@ -4666,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>52</v>
       </c>
@@ -4686,7 +4707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -4703,7 +4724,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -4723,7 +4744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>45</v>
       </c>
@@ -4743,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>45</v>
       </c>
@@ -4763,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>45</v>
       </c>
@@ -4783,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>45</v>
       </c>
@@ -4803,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>61</v>
       </c>
@@ -4820,7 +4841,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>61</v>
       </c>
@@ -4837,7 +4858,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>65</v>
       </c>
@@ -4854,7 +4875,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>65</v>
       </c>
@@ -4871,7 +4892,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>65</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>65</v>
       </c>
@@ -4905,7 +4926,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>70</v>
       </c>
@@ -4922,7 +4943,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>70</v>
       </c>
@@ -4939,7 +4960,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>45</v>
       </c>
@@ -4959,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>45</v>
       </c>
@@ -4979,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>45</v>
       </c>
@@ -4996,7 +5017,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>70</v>
       </c>
@@ -5013,7 +5034,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>52</v>
       </c>
@@ -5030,12 +5051,12 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119">
         <v>2250</v>
       </c>
@@ -5044,7 +5065,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120">
         <v>5215.9369999999999</v>
       </c>
@@ -5053,7 +5074,7 @@
         <v>5215937</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F121">
         <v>6312.5</v>
       </c>
@@ -5062,7 +5083,7 @@
         <v>6312500</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F122">
         <v>8000</v>
       </c>
@@ -5071,7 +5092,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F123">
         <v>3600</v>
       </c>
@@ -5080,7 +5101,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F124">
         <v>4212</v>
       </c>
@@ -5089,7 +5110,7 @@
         <v>4212000</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F125">
         <v>8532</v>
       </c>
@@ -5098,7 +5119,7 @@
         <v>8532000</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F126">
         <v>13531.429</v>
       </c>
@@ -5107,7 +5128,7 @@
         <v>13531429</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F127">
         <v>23187.5</v>
       </c>
@@ -5116,7 +5137,7 @@
         <v>23187500</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F128">
         <v>4373.3</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>4373300</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129">
         <v>3270</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>3270000</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F130">
         <v>5050</v>
       </c>
@@ -5143,7 +5164,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131">
         <v>19350</v>
       </c>
@@ -5152,7 +5173,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F132">
         <v>6900</v>
       </c>
@@ -5161,7 +5182,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F133">
         <v>4054.2660000000001</v>
       </c>
@@ -5170,7 +5191,7 @@
         <v>4054266</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F134">
         <v>1950</v>
       </c>
@@ -5179,7 +5200,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F135">
         <v>5771.4290000000001</v>
       </c>
@@ -5188,7 +5209,7 @@
         <v>5771429</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F136">
         <v>4160</v>
       </c>
@@ -5222,13 +5243,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5236,70 +5257,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>128</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5318,38 +5339,38 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>9.0873355729177846E-2</v>
+        <v>8.5739617521807893E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.89677539071007861</v>
+        <v>0.91363404017530947</v>
       </c>
     </row>
   </sheetData>
@@ -5358,11 +5379,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5575,27 +5597,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5620,9 +5632,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C79A5C8-7D82-4CCD-942B-82F63E16FC91}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC97364-AF44-4CDF-9DDE-DD6C8D2B6701}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
         <v>2.33</v>
       </c>
       <c r="Q4" s="16">
-        <v>6</v>
+        <v>29.55</v>
       </c>
       <c r="R4" s="16">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>2.33</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>2.33</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>2.33</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>5.31</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>2.33</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7.15</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>2.33</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>2.33</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>2.33</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>2.33</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>6.23</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>2.33</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>19.29</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>2.33</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>13.96</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>2.33</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>2.33</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>113.05</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>2.33</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>23.86</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>2.33</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>8.94</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>2.33</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>29.55</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2372,7 +2372,7 @@
         <v>2.33</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>29.55</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>2.33</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>29.55</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>2.33</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>2.33</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>2.33</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -2677,7 +2677,7 @@
         <v>2.33</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -2739,7 +2739,7 @@
         <v>2.33</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>2.33</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>2.33</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>2.33</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>2.33</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R30">
         <v>1</v>
@@ -3040,7 +3040,7 @@
         <v>2.33</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R31">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         <v>2.33</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -3162,7 +3162,7 @@
         <v>2.33</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R33">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>2.33</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -3284,7 +3284,7 @@
         <v>2.33</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -3345,7 +3345,7 @@
         <v>2.33</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R36">
         <v>1</v>
@@ -3406,7 +3406,7 @@
         <v>2.33</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R37">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>2.33</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R38">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>2.33</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R39">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>2.33</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -3658,7 +3658,7 @@
         <v>2.33</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -3719,7 +3719,7 @@
         <v>2.33</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -3780,7 +3780,7 @@
         <v>2.33</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>2.33</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3902,7 +3902,7 @@
         <v>2.33</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>2.33</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>2.33</v>
       </c>
       <c r="Q47">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>1</v>
@@ -5366,11 +5366,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>8.5739617521807893E-2</v>
+        <v>0.12488966447741146</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.91363404017530947</v>
+        <v>0.91259025292730134</v>
       </c>
     </row>
   </sheetData>
@@ -5379,12 +5379,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5597,17 +5596,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5632,18 +5641,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC97364-AF44-4CDF-9DDE-DD6C8D2B6701}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C58E49-58C1-4E65-BE8A-3F5955525D5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="166">
   <si>
     <t>specifications</t>
   </si>
@@ -442,15 +442,9 @@
     <t>Weibezahn</t>
   </si>
   <si>
-    <t>FRA</t>
-  </si>
-  <si>
     <t>NOAK</t>
   </si>
   <si>
-    <t>CHN</t>
-  </si>
-  <si>
     <t>Actual / total build time (y)</t>
   </si>
   <si>
@@ -524,6 +518,24 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:V136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1299,10 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -1299,10 +1311,10 @@
         <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -1337,7 +1349,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1346,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F4" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1383,7 +1395,7 @@
         <v>2.33</v>
       </c>
       <c r="Q4" s="16">
-        <v>29.55</v>
+        <v>6.23</v>
       </c>
       <c r="R4" s="16">
         <v>1</v>
@@ -1409,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F5" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1472,7 +1484,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1535,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1598,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1661,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1715,7 +1727,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1724,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1778,7 +1790,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1787,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1841,7 +1853,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1850,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1901,7 +1913,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1910,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F13" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1971,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2035,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2095,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F16" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2149,7 +2161,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2158,7 +2170,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F17" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2218,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2269,7 +2281,7 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -2278,7 +2290,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2338,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2398,7 +2410,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2632,10 +2644,10 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>13</v>
@@ -2694,10 +2706,10 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>13</v>
@@ -2756,10 +2768,10 @@
     </row>
     <row r="27" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>13</v>
@@ -2817,10 +2829,10 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>13</v>
@@ -2999,7 +3011,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
@@ -3060,7 +3072,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
@@ -3121,7 +3133,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>13</v>
@@ -3182,7 +3194,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>13</v>
@@ -3240,16 +3252,16 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3301,16 +3313,16 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3362,7 +3374,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>66</v>
@@ -3423,7 +3435,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>67</v>
@@ -3482,12 +3494,12 @@
         <v>2020</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>68</v>
@@ -3547,12 +3559,12 @@
         <v>2020</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>69</v>
@@ -3614,7 +3626,7 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>71</v>
@@ -3623,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3675,7 +3687,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>73</v>
@@ -3684,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3739,7 +3751,7 @@
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>35</v>
@@ -3919,7 +3931,7 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>76</v>
@@ -3928,7 +3940,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3978,10 +3990,10 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>37</v>
@@ -3998,7 +4010,7 @@
         <v>1250</v>
       </c>
       <c r="I47" s="12">
-        <v>27747</v>
+        <v>6145</v>
       </c>
       <c r="J47" s="13">
         <v>12</v>
@@ -5053,7 +5065,7 @@
     </row>
     <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="6:7" x14ac:dyDescent="0.25">
@@ -5348,16 +5360,16 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,11 +5378,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>0.12488966447741146</v>
+        <v>7.0334990891832302E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.91259025292730134</v>
+        <v>0.85094567558990919</v>
       </c>
     </row>
   </sheetData>

--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84C58E49-58C1-4E65-BE8A-3F5955525D5A}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC149B26-2CF5-49C8-9A5E-29BA3C30A499}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15720" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="201">
   <si>
     <t>specifications</t>
   </si>
@@ -352,9 +352,6 @@
     <t>OPEX fixed (USD2020/MW-yr)</t>
   </si>
   <si>
-    <t>OPEX variable (USD2020/MWh)</t>
-  </si>
-  <si>
     <t>Fuel (USD2020/MWh)</t>
   </si>
   <si>
@@ -536,6 +533,114 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>OPEX variable (USD2025/MWh)</t>
+  </si>
+  <si>
+    <t>leningrad II 1</t>
+  </si>
+  <si>
+    <t>leningrad II 2</t>
+  </si>
+  <si>
+    <t>Shin Hanul 1</t>
+  </si>
+  <si>
+    <t>Shin hanul 2</t>
+  </si>
+  <si>
+    <t>Beloyarsk-4</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Share (%)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>By Scale</t>
+  </si>
+  <si>
+    <t>Large reactors (&gt;300 MWe)</t>
+  </si>
+  <si>
+    <t>Conventional Generation III/III+ units (EPR, APR, AP1000, etc.)</t>
+  </si>
+  <si>
+    <t>Small Modular Reactors (SMRs, 50–300 MWe)</t>
+  </si>
+  <si>
+    <t>Modular LWR, SFR, MSR, and HTR designs under development or deployment</t>
+  </si>
+  <si>
+    <t>Microreactors (&lt;50 MWe)</t>
+  </si>
+  <si>
+    <t>Experimental or conceptual small-scale designs for remote/off-grid use</t>
+  </si>
+  <si>
+    <t>By Reactor Type</t>
+  </si>
+  <si>
+    <t>Pressurized Water Reactor (PWR)</t>
+  </si>
+  <si>
+    <t>Dominant reactor type in both SMR and large categories</t>
+  </si>
+  <si>
+    <t>Sodium-cooled Fast Reactor (SFR)</t>
+  </si>
+  <si>
+    <t>Includes BN, CEFR, and ARC designs</t>
+  </si>
+  <si>
+    <t>High-Temperature Gas-cooled Reactor (HTR)</t>
+  </si>
+  <si>
+    <t>Includes Fort St. Vrain, HTR-PM, and EM2</t>
+  </si>
+  <si>
+    <t>Molten Salt Reactor (MSR)</t>
+  </si>
+  <si>
+    <t>Includes IMSR (300) and SSR-W concepts</t>
+  </si>
+  <si>
+    <t>Lead-cooled Fast Reactor (LFR)</t>
+  </si>
+  <si>
+    <t>BREST-OD-300 (Russia)</t>
+  </si>
+  <si>
+    <t>Microreactor (MR)</t>
+  </si>
+  <si>
+    <t>e-Vinci microreactor concept (Westinghouse)</t>
+  </si>
+  <si>
+    <t>By Geographic Region</t>
+  </si>
+  <si>
+    <t>Western (USA, UK, France, Finland, Canada, Argentina)</t>
+  </si>
+  <si>
+    <t>OECD-based projects emphasizing vendor-led modularization</t>
+  </si>
+  <si>
+    <t>Asian (China, South Korea, Russia, Japan)</t>
+  </si>
+  <si>
+    <t>State-driven programs focusing on standardized reactor fleets</t>
   </si>
 </sst>
 </file>
@@ -549,7 +654,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +691,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +742,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -632,15 +757,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -656,22 +782,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -737,13 +918,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1255880</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>847763</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:colOff>713292</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>3918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -781,13 +962,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>531004</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>1274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209150</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:colOff>74680</xdr:colOff>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>123200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,13 +1006,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>36541</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1448822</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>7913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -869,26 +1050,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U47" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:U47" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U53" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B3:U53" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{F92BB8DD-D241-4839-9FAF-66032DFBA1DF}" name="Country"/>
     <tableColumn id="2" xr3:uid="{BE5F5CB4-0A57-4202-B592-12545CA65EB2}" name="Project"/>
     <tableColumn id="3" xr3:uid="{60046BCD-9F9A-48AA-89B5-AE316615AA65}" name="Type"/>
     <tableColumn id="16" xr3:uid="{46D5B3A7-82B4-4B9A-BAC8-0B6CA580863A}" name="FOAK/NOAK*"/>
-    <tableColumn id="20" xr3:uid="{B0E19595-FC54-4C41-8AD5-FC590E2E0867}" name="Scale" dataDxfId="5">
+    <tableColumn id="20" xr3:uid="{B0E19595-FC54-4C41-8AD5-FC590E2E0867}" name="Scale" dataDxfId="12">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F673ACE9-17A3-418F-95E2-3D57C80635AE}" name="Capacity (gross)"/>
     <tableColumn id="5" xr3:uid="{EBD7A4AB-217C-4F30-9C8C-10D3DCBB1CF8}" name="Capacity (net MWe)"/>
     <tableColumn id="6" xr3:uid="{C68D4286-8002-4927-A37D-913C16FDDCDC}" name="OCC (USD2020/kW)"/>
-    <tableColumn id="7" xr3:uid="{0DDB8280-26C2-414A-97C9-B5E58B05F984}" name="planned Construction time (y)" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{030A9AEC-2CE4-495A-81CC-E66C49708DCD}" name="Actual / total build time (y)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0DDB8280-26C2-414A-97C9-B5E58B05F984}" name="planned Construction time (y)" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{030A9AEC-2CE4-495A-81CC-E66C49708DCD}" name="Actual / total build time (y)" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{10CB5761-79C5-4883-879F-E339F0096B08}" name="Lifetime (y)"/>
     <tableColumn id="9" xr3:uid="{D368D5D8-E16F-4F9A-8EE2-94A2BB4AFD90}" name="Capacity factor (%)"/>
     <tableColumn id="10" xr3:uid="{6096C3E3-4466-42E9-B93D-DB781D029E1B}" name="WACC (real %)"/>
     <tableColumn id="11" xr3:uid="{AF94017F-19BA-4C85-989F-C4991FC8DB92}" name="OPEX fixed (USD2020/MW-yr)"/>
-    <tableColumn id="12" xr3:uid="{9FBD497D-93AE-4DA6-BB28-62105E15001C}" name="OPEX variable (USD2020/MWh)"/>
+    <tableColumn id="12" xr3:uid="{9FBD497D-93AE-4DA6-BB28-62105E15001C}" name="OPEX variable (USD2025/MWh)"/>
     <tableColumn id="13" xr3:uid="{DF71A38F-C60A-4154-8DF3-56D7A37367E5}" name="Fuel (USD2020/MWh)"/>
     <tableColumn id="14" xr3:uid="{F25DEC50-AF34-45F1-BDFF-4448D82043E2}" name="Waste (USD2020/MWh)"/>
     <tableColumn id="15" xr3:uid="{9583958C-805F-498D-87D6-E8CACED18DF2}" name="Decom (% of CAPEX)"/>
@@ -900,16 +1081,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}" name="Table1" displayName="Table1" ref="B51:H70" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B51:H70" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}" name="Table1" displayName="Table1" ref="B73:H92" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B73:H92" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C1725586-8E23-41DA-9DA0-5A6034105DE8}" name="Country"/>
     <tableColumn id="2" xr3:uid="{0BDDD1E8-3933-4B65-AC82-131AA91A4D50}" name="Project"/>
     <tableColumn id="3" xr3:uid="{3118C878-52F9-44DA-9A27-703337D1E664}" name="Type"/>
     <tableColumn id="4" xr3:uid="{35ED2164-548C-43CE-A4A8-B43380ACE736}" name="Gross Capacity (MWe)"/>
     <tableColumn id="5" xr3:uid="{06D3B4B1-2470-44FD-8FD5-865DD3C8AAD5}" name="Net Capacity (Mwe)"/>
-    <tableColumn id="6" xr3:uid="{955673E6-8628-4844-80CA-AABAC6573A12}" name="Investment cost [USD2020/MWe]" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{9C2F9C61-4F41-4636-B001-2259C0EFEF1D}" name="Investment cost adjusted [USD2025/MWe] (occ)" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{955673E6-8628-4844-80CA-AABAC6573A12}" name="Investment cost [USD2020/MWe]" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{9C2F9C61-4F41-4636-B001-2259C0EFEF1D}" name="Investment cost adjusted [USD2025/MWe] (occ)" dataDxfId="7">
       <calculatedColumnFormula>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -918,6 +1099,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}" name="Table4" displayName="Table4" ref="J151:N162" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="J151:N162" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7FD37CAB-D325-41C8-8547-2D6E1FE331AC}" name="Category" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{564CDED8-CE65-4596-AC3A-4CC44355AB8B}" name="Subcategory" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AC788AA3-8DFF-4AE6-9E50-6D860ABDE5C1}" name="Count" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{166E4572-6834-491B-BAB2-932D8DA21314}" name="Share (%)" dataDxfId="3">
+      <calculatedColumnFormula>L152/44</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F00376DE-51F3-4906-9D14-2C9228385478}" name="Description" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED54ACF0-3158-43DE-8952-BEC2A35222D0}" name="Table3" displayName="Table3" ref="B5:D13" totalsRowShown="0">
   <autoFilter ref="B5:D13" xr:uid="{ED54ACF0-3158-43DE-8952-BEC2A35222D0}"/>
   <tableColumns count="3">
@@ -1246,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
-  <dimension ref="B1:V136"/>
+  <dimension ref="B1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1465,7 @@
     <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1299,10 +1496,10 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -1311,10 +1508,10 @@
         <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
         <v>102</v>
@@ -1329,22 +1526,22 @@
         <v>103</v>
       </c>
       <c r="P3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q3" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>105</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>106</v>
-      </c>
-      <c r="S3" t="s">
-        <v>107</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -1358,7 +1555,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F4" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1373,11 +1570,11 @@
       <c r="I4" s="11">
         <v>2250</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L4">
         <v>60</v>
@@ -1386,25 +1583,25 @@
         <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="15">
+        <v>108</v>
+      </c>
+      <c r="O4" s="14">
         <v>144365</v>
       </c>
-      <c r="P4" s="16">
-        <v>2.33</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="P4" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" s="15">
         <v>6.23</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>1</v>
       </c>
       <c r="S4">
         <v>15</v>
       </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U4">
         <v>2020</v>
@@ -1415,13 +1612,13 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1436,11 +1633,11 @@
       <c r="I5" s="11">
         <v>5215.9369999999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5">
         <v>60</v>
@@ -1449,13 +1646,13 @@
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="11">
         <v>518242</v>
       </c>
-      <c r="P5">
-        <v>2.33</v>
+      <c r="P5" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q5">
         <v>6.23</v>
@@ -1467,7 +1664,7 @@
         <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U5">
         <v>2020</v>
@@ -1484,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1499,11 +1696,11 @@
       <c r="I6" s="11">
         <v>6312.5</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6">
         <v>80</v>
@@ -1512,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="11">
         <v>146645</v>
       </c>
-      <c r="P6">
-        <v>2.33</v>
+      <c r="P6" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q6">
         <v>6.23</v>
@@ -1530,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U6">
         <v>2020</v>
@@ -1538,7 +1735,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1547,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1562,11 +1759,11 @@
       <c r="I7" s="11">
         <v>8000</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L7">
         <v>60</v>
@@ -1575,13 +1772,13 @@
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O7" s="11">
         <v>65025</v>
       </c>
-      <c r="P7">
-        <v>2.33</v>
+      <c r="P7" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q7">
         <v>5.31</v>
@@ -1593,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U7">
         <v>2020</v>
@@ -1610,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1625,11 +1822,11 @@
       <c r="I8" s="11">
         <v>3600</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8">
         <v>60</v>
@@ -1638,13 +1835,13 @@
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O8" s="11">
         <v>179595</v>
       </c>
-      <c r="P8">
-        <v>2.33</v>
+      <c r="P8" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q8">
         <v>7.15</v>
@@ -1656,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U8">
         <v>2020</v>
@@ -1673,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1688,11 +1885,11 @@
       <c r="I9" s="11">
         <v>4212</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -1701,13 +1898,13 @@
         <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O9" s="11">
         <v>170980</v>
       </c>
-      <c r="P9">
-        <v>2.33</v>
+      <c r="P9" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q9">
         <v>6.23</v>
@@ -1719,7 +1916,7 @@
         <v>15</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U9">
         <v>2020</v>
@@ -1736,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1751,11 +1948,11 @@
       <c r="I10" s="11">
         <v>8532</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -1764,13 +1961,13 @@
         <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O10" s="11">
         <v>146645</v>
       </c>
-      <c r="P10">
-        <v>2.33</v>
+      <c r="P10" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q10">
         <v>6.23</v>
@@ -1782,7 +1979,7 @@
         <v>15</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U10">
         <v>2020</v>
@@ -1799,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1814,7 +2011,7 @@
       <c r="I11" s="11">
         <v>13531.429</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>3</v>
       </c>
       <c r="K11">
@@ -1827,13 +2024,13 @@
         <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="11">
         <v>170980</v>
       </c>
-      <c r="P11">
-        <v>2.33</v>
+      <c r="P11" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q11">
         <v>6.23</v>
@@ -1845,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U11">
         <v>2020</v>
@@ -1853,7 +2050,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1862,7 +2059,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1877,7 +2074,7 @@
       <c r="I12" s="11">
         <v>23187.5</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>3.5</v>
       </c>
       <c r="L12">
@@ -1887,13 +2084,13 @@
         <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O12" s="11">
         <v>146645</v>
       </c>
-      <c r="P12">
-        <v>2.33</v>
+      <c r="P12" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q12">
         <v>6.23</v>
@@ -1905,7 +2102,7 @@
         <v>15</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U12">
         <v>2020</v>
@@ -1913,7 +2110,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1922,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1937,7 +2134,7 @@
       <c r="I13" s="11">
         <v>4373.3</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f>42/12</f>
         <v>3.5</v>
       </c>
@@ -1948,13 +2145,13 @@
         <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O13" s="11">
         <v>104340</v>
       </c>
-      <c r="P13">
-        <v>2.33</v>
+      <c r="P13" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q13">
         <v>19.29</v>
@@ -1966,7 +2163,7 @@
         <v>15</v>
       </c>
       <c r="T13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U13">
         <v>2020</v>
@@ -1983,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1998,7 +2195,7 @@
       <c r="I14" s="11">
         <v>3270</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <f>59/12</f>
         <v>4.916666666666667</v>
       </c>
@@ -2012,13 +2209,13 @@
         <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O14" s="11">
         <v>168920</v>
       </c>
-      <c r="P14">
-        <v>2.33</v>
+      <c r="P14" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q14">
         <v>13.96</v>
@@ -2030,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="T14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U14">
         <v>2020</v>
@@ -2047,7 +2244,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2062,7 +2259,7 @@
       <c r="I15" s="11">
         <v>5050</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>2.8</v>
       </c>
       <c r="L15">
@@ -2072,13 +2269,13 @@
         <v>90</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O15" s="11">
         <v>130750</v>
       </c>
-      <c r="P15">
-        <v>2.33</v>
+      <c r="P15" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q15">
         <v>78.040000000000006</v>
@@ -2090,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="T15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U15">
         <v>2020</v>
@@ -2107,7 +2304,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2122,7 +2319,7 @@
       <c r="I16" s="11">
         <v>19350</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>3</v>
       </c>
       <c r="K16">
@@ -2135,13 +2332,13 @@
         <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O16" s="11">
         <v>130750</v>
       </c>
-      <c r="P16">
-        <v>2.33</v>
+      <c r="P16" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q16">
         <v>113.05</v>
@@ -2153,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="T16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U16">
         <v>2020</v>
@@ -2161,7 +2358,7 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2170,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2185,7 +2382,7 @@
       <c r="I17" s="11">
         <v>6900</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>3</v>
       </c>
       <c r="L17">
@@ -2195,13 +2392,13 @@
         <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O17" s="11">
         <v>130750</v>
       </c>
-      <c r="P17">
-        <v>2.33</v>
+      <c r="P17" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q17">
         <v>23.86</v>
@@ -2213,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="T17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U17">
         <v>2020</v>
@@ -2230,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F18" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2245,7 +2442,7 @@
       <c r="I18" s="11">
         <v>4054.2660000000001</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>4</v>
       </c>
       <c r="L18">
@@ -2255,13 +2452,13 @@
         <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O18" s="11">
         <v>180512</v>
       </c>
-      <c r="P18">
-        <v>2.33</v>
+      <c r="P18" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q18">
         <v>8.94</v>
@@ -2273,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U18">
         <v>2020</v>
@@ -2290,7 +2487,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2305,7 +2502,7 @@
       <c r="I19" s="11">
         <v>1950</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>3</v>
       </c>
       <c r="L19">
@@ -2315,13 +2512,13 @@
         <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O19" s="11">
         <v>130750</v>
       </c>
-      <c r="P19">
-        <v>2.33</v>
+      <c r="P19" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q19">
         <v>29.55</v>
@@ -2333,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="T19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U19">
         <v>2020</v>
@@ -2350,7 +2547,7 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2365,7 +2562,7 @@
       <c r="I20" s="11">
         <v>5771.4290000000001</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>3</v>
       </c>
       <c r="L20">
@@ -2375,13 +2572,13 @@
         <v>90</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O20" s="11">
         <v>130750</v>
       </c>
-      <c r="P20">
-        <v>2.33</v>
+      <c r="P20" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q20">
         <v>29.55</v>
@@ -2393,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U20">
         <v>2020</v>
@@ -2410,14 +2607,14 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>SMR</v>
       </c>
       <c r="G21">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H21">
         <v>300</v>
@@ -2425,7 +2622,7 @@
       <c r="I21" s="11">
         <v>4160</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>3</v>
       </c>
       <c r="L21">
@@ -2435,13 +2632,13 @@
         <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O21" s="11">
         <v>130750</v>
       </c>
-      <c r="P21">
-        <v>2.33</v>
+      <c r="P21" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q21">
         <v>29.55</v>
@@ -2453,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U21">
         <v>2020</v>
@@ -2470,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2483,7 +2680,7 @@
       <c r="I22" s="12">
         <v>9723</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="18">
         <v>5</v>
       </c>
       <c r="K22" s="12">
@@ -2496,13 +2693,13 @@
         <v>90</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O22" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P22">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>20</v>
@@ -2514,10 +2711,10 @@
         <v>15</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U22" s="12">
-        <v>2020</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -2525,13 +2722,13 @@
         <v>45</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2544,7 +2741,7 @@
       <c r="I23" s="12">
         <v>10608</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="18">
         <v>5</v>
       </c>
       <c r="K23" s="12">
@@ -2557,13 +2754,13 @@
         <v>90</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O23" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P23">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q23">
         <v>20</v>
@@ -2575,10 +2772,10 @@
         <v>15</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U23" s="12">
-        <v>2020</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -2592,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2605,8 +2802,8 @@
       <c r="I24" s="12">
         <v>8974</v>
       </c>
-      <c r="J24" s="13">
-        <v>5</v>
+      <c r="J24" s="18">
+        <v>6.5</v>
       </c>
       <c r="K24" s="12">
         <v>9.3000000000000007</v>
@@ -2618,13 +2815,13 @@
         <v>90</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O24" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P24">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <v>20</v>
@@ -2636,24 +2833,24 @@
         <v>15</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U24" s="12">
-        <v>2020</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2666,9 +2863,8 @@
       <c r="I25" s="12">
         <v>7983</v>
       </c>
-      <c r="J25" s="13">
-        <f>56/12</f>
-        <v>4.666666666666667</v>
+      <c r="J25" s="18">
+        <v>5</v>
       </c>
       <c r="K25" s="12">
         <v>17</v>
@@ -2680,13 +2876,13 @@
         <v>90</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O25" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P25">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q25">
         <v>20</v>
@@ -2698,24 +2894,24 @@
         <v>15</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U25" s="12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2728,9 +2924,8 @@
       <c r="I26" s="12">
         <v>5733</v>
       </c>
-      <c r="J26" s="13">
-        <f>56/12</f>
-        <v>4.666666666666667</v>
+      <c r="J26" s="18">
+        <v>5</v>
       </c>
       <c r="K26" s="12">
         <v>17</v>
@@ -2742,13 +2937,13 @@
         <v>90</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O26" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P26">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q26">
         <v>20</v>
@@ -2760,24 +2955,24 @@
         <v>15</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U26" s="12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2790,8 +2985,8 @@
       <c r="I27" s="12">
         <v>9270</v>
       </c>
-      <c r="J27" s="13">
-        <v>4.5</v>
+      <c r="J27" s="18">
+        <v>5</v>
       </c>
       <c r="K27" s="12">
         <v>17.100000000000001</v>
@@ -2803,13 +2998,13 @@
         <v>90</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P27">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q27">
         <v>20</v>
@@ -2821,24 +3016,24 @@
         <v>15</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U27" s="12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2851,8 +3046,8 @@
       <c r="I28" s="12">
         <v>8620</v>
       </c>
-      <c r="J28" s="13">
-        <v>4.5</v>
+      <c r="J28" s="18">
+        <v>5</v>
       </c>
       <c r="K28" s="12">
         <v>17.100000000000001</v>
@@ -2864,13 +3059,13 @@
         <v>90</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O28" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P28">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q28">
         <v>20</v>
@@ -2882,10 +3077,10 @@
         <v>15</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U28" s="12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -2899,7 +3094,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2912,8 +3107,8 @@
       <c r="I29" s="12">
         <v>8549</v>
       </c>
-      <c r="J29" s="13">
-        <v>9</v>
+      <c r="J29" s="18">
+        <v>7</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12">
@@ -2923,13 +3118,13 @@
         <v>90</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O29" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P29">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q29">
         <v>20</v>
@@ -2941,10 +3136,10 @@
         <v>15</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U29" s="12">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -2958,7 +3153,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2971,8 +3166,8 @@
       <c r="I30" s="12">
         <v>8549</v>
       </c>
-      <c r="J30" s="13">
-        <v>9</v>
+      <c r="J30" s="18">
+        <v>7</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12">
@@ -2982,13 +3177,13 @@
         <v>90</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O30" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P30">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q30">
         <v>20</v>
@@ -3000,10 +3195,10 @@
         <v>15</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U30" s="12">
-        <v>2020</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
@@ -3011,13 +3206,13 @@
         <v>45</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3030,8 +3225,8 @@
       <c r="I31" s="12">
         <v>11330</v>
       </c>
-      <c r="J31" s="13">
-        <v>7</v>
+      <c r="J31" s="18">
+        <v>4</v>
       </c>
       <c r="K31" s="12">
         <v>14</v>
@@ -3043,13 +3238,13 @@
         <v>90</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O31" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P31">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q31">
         <v>20</v>
@@ -3061,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U31" s="12">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -3072,13 +3267,13 @@
         <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3091,8 +3286,8 @@
       <c r="I32" s="12">
         <v>11330</v>
       </c>
-      <c r="J32" s="13">
-        <v>7</v>
+      <c r="J32" s="18">
+        <v>4</v>
       </c>
       <c r="K32" s="12">
         <v>15</v>
@@ -3104,13 +3299,13 @@
         <v>90</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O32" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P32">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q32">
         <v>20</v>
@@ -3122,10 +3317,10 @@
         <v>15</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U32" s="12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -3133,13 +3328,13 @@
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3152,8 +3347,8 @@
       <c r="I33" s="12">
         <v>8600</v>
       </c>
-      <c r="J33" s="13">
-        <v>7</v>
+      <c r="J33" s="18">
+        <v>4</v>
       </c>
       <c r="K33" s="12">
         <v>14</v>
@@ -3165,13 +3360,13 @@
         <v>90</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P33">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q33">
         <v>20</v>
@@ -3183,10 +3378,10 @@
         <v>15</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U33" s="12">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -3194,13 +3389,13 @@
         <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3213,8 +3408,8 @@
       <c r="I34" s="12">
         <v>8600</v>
       </c>
-      <c r="J34" s="13">
-        <v>7</v>
+      <c r="J34" s="18">
+        <v>4</v>
       </c>
       <c r="K34" s="12">
         <v>15</v>
@@ -3226,13 +3421,13 @@
         <v>90</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P34">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q34">
         <v>20</v>
@@ -3244,24 +3439,24 @@
         <v>15</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U34" s="12">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3274,8 +3469,8 @@
       <c r="I35" s="12">
         <v>2410</v>
       </c>
-      <c r="J35" s="13">
-        <v>4.25</v>
+      <c r="J35" s="18">
+        <v>5</v>
       </c>
       <c r="K35" s="12">
         <v>8.18</v>
@@ -3287,13 +3482,13 @@
         <v>90</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P35">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q35">
         <v>20</v>
@@ -3305,24 +3500,24 @@
         <v>15</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U35" s="12">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3335,8 +3530,8 @@
       <c r="I36" s="12">
         <v>2410</v>
       </c>
-      <c r="J36" s="13">
-        <v>4.25</v>
+      <c r="J36" s="18">
+        <v>5</v>
       </c>
       <c r="K36" s="12">
         <v>10.029999999999999</v>
@@ -3348,13 +3543,13 @@
         <v>90</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P36">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>20</v>
@@ -3366,10 +3561,10 @@
         <v>15</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U36" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -3383,7 +3578,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3396,11 +3591,11 @@
       <c r="I37" s="12">
         <v>3154</v>
       </c>
-      <c r="J37" s="13">
-        <v>4.5999999999999996</v>
+      <c r="J37" s="18">
+        <v>5</v>
       </c>
       <c r="K37" s="12">
-        <v>9.43</v>
+        <v>9</v>
       </c>
       <c r="L37" s="12">
         <v>60</v>
@@ -3409,13 +3604,13 @@
         <v>90</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P37">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q37">
         <v>20</v>
@@ -3427,10 +3622,10 @@
         <v>15</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U37" s="12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -3444,7 +3639,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3457,11 +3652,11 @@
       <c r="I38" s="12">
         <v>3154</v>
       </c>
-      <c r="J38" s="13">
-        <v>4.7</v>
+      <c r="J38" s="18">
+        <v>5</v>
       </c>
       <c r="K38" s="12">
-        <v>8.89</v>
+        <v>9</v>
       </c>
       <c r="L38" s="12">
         <v>60</v>
@@ -3470,13 +3665,13 @@
         <v>90</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O38" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P38">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q38">
         <v>20</v>
@@ -3488,13 +3683,13 @@
         <v>15</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U38" s="12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -3508,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3521,9 +3716,8 @@
       <c r="I39" s="12">
         <v>3222</v>
       </c>
-      <c r="J39" s="13">
-        <f>46/12</f>
-        <v>3.8333333333333335</v>
+      <c r="J39" s="18">
+        <v>4.5</v>
       </c>
       <c r="K39" s="12">
         <v>9.1</v>
@@ -3535,13 +3729,13 @@
         <v>90</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O39" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P39">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -3553,13 +3747,13 @@
         <v>15</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U39" s="12">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -3573,7 +3767,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3586,9 +3780,8 @@
       <c r="I40" s="12">
         <v>3222</v>
       </c>
-      <c r="J40" s="13">
-        <f>46/12</f>
-        <v>3.8333333333333335</v>
+      <c r="J40" s="18">
+        <v>4.5</v>
       </c>
       <c r="K40" s="12">
         <v>9.4</v>
@@ -3600,13 +3793,13 @@
         <v>90</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O40" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P40">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -3618,10 +3811,10 @@
         <v>15</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U40" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
@@ -3635,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3648,7 +3841,7 @@
       <c r="I41" s="12">
         <v>2244</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="18">
         <v>6</v>
       </c>
       <c r="K41" s="12">
@@ -3661,13 +3854,13 @@
         <v>90</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O41" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P41">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -3679,10 +3872,10 @@
         <v>15</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U41" s="12">
-        <v>2020</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -3696,7 +3889,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3709,7 +3902,7 @@
       <c r="I42" s="12">
         <v>2244</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="18">
         <v>7</v>
       </c>
       <c r="K42" s="12">
@@ -3722,13 +3915,13 @@
         <v>90</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O42" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P42">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q42">
         <v>20</v>
@@ -3740,10 +3933,10 @@
         <v>15</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U42" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="43" spans="2:22" ht="30" x14ac:dyDescent="0.25">
@@ -3751,13 +3944,13 @@
         <v>45</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3770,8 +3963,8 @@
       <c r="I43" s="12">
         <v>7195</v>
       </c>
-      <c r="J43" s="13">
-        <v>5</v>
+      <c r="J43" s="18">
+        <v>6</v>
       </c>
       <c r="K43" s="12">
         <v>10.83</v>
@@ -3783,13 +3976,13 @@
         <v>90</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O43" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P43">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q43">
         <v>20</v>
@@ -3801,10 +3994,10 @@
         <v>15</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U43" s="12">
-        <v>2020</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
@@ -3818,7 +4011,7 @@
         <v>35</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3831,8 +4024,8 @@
       <c r="I44" s="12">
         <v>8108</v>
       </c>
-      <c r="J44" s="13">
-        <v>5</v>
+      <c r="J44" s="18">
+        <v>6</v>
       </c>
       <c r="K44" s="12">
         <v>10.83</v>
@@ -3844,13 +4037,13 @@
         <v>90</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O44" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P44">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q44">
         <v>20</v>
@@ -3862,10 +4055,10 @@
         <v>15</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U44" s="12">
-        <v>2020</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -3879,7 +4072,7 @@
         <v>35</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3892,8 +4085,8 @@
       <c r="I45" s="12">
         <v>1197</v>
       </c>
-      <c r="J45" s="13">
-        <v>5</v>
+      <c r="J45" s="18">
+        <v>6</v>
       </c>
       <c r="K45" s="12">
         <v>5.33</v>
@@ -3905,13 +4098,13 @@
         <v>90</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O45" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P45">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q45">
         <v>20</v>
@@ -3923,10 +4116,10 @@
         <v>15</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U45" s="12">
-        <v>2020</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
@@ -3934,29 +4127,33 @@
         <v>92</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12">
+        <v>820</v>
+      </c>
       <c r="H46" s="12">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="I46" s="12">
         <v>2501</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="19">
         <v>8</v>
       </c>
-      <c r="K46" s="12"/>
+      <c r="K46" s="12">
+        <v>8</v>
+      </c>
       <c r="L46" s="12">
         <v>60</v>
       </c>
@@ -3964,13 +4161,13 @@
         <v>90</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O46" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P46">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q46">
         <v>20</v>
@@ -3982,24 +4179,24 @@
         <v>15</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U46" s="12">
-        <v>2020</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -4012,10 +4209,12 @@
       <c r="I47" s="12">
         <v>6145</v>
       </c>
-      <c r="J47" s="13">
-        <v>12</v>
-      </c>
-      <c r="K47" s="12"/>
+      <c r="J47" s="19">
+        <v>7</v>
+      </c>
+      <c r="K47" s="12">
+        <v>10</v>
+      </c>
       <c r="L47" s="12">
         <v>40</v>
       </c>
@@ -4023,13 +4222,13 @@
         <v>90</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O47" s="11">
-        <v>130750</v>
+        <v>100000</v>
       </c>
       <c r="P47">
-        <v>2.33</v>
+        <v>5</v>
       </c>
       <c r="Q47">
         <v>20</v>
@@ -4041,1208 +4240,1498 @@
         <v>15</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U47" s="12">
-        <v>2020</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="16" t="str">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>Large</v>
+      </c>
+      <c r="H48">
+        <v>1200</v>
+      </c>
+      <c r="J48" s="17">
+        <v>5</v>
+      </c>
+      <c r="K48" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="16" t="str">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>Large</v>
+      </c>
+      <c r="H49">
+        <v>1200</v>
+      </c>
+      <c r="J49" s="17">
+        <v>6</v>
+      </c>
+      <c r="K49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="16" t="str">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>Large</v>
+      </c>
+      <c r="H50">
+        <v>1400</v>
+      </c>
+      <c r="J50" s="17">
+        <v>5</v>
+      </c>
+      <c r="K50" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>Large</v>
+      </c>
+      <c r="H51">
+        <v>1400</v>
+      </c>
+      <c r="J51" s="17">
+        <v>5</v>
+      </c>
+      <c r="K51" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="16"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="6" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="1" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H73" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C74" t="s">
         <v>10</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D74" t="s">
         <v>11</v>
       </c>
-      <c r="E52">
+      <c r="E74">
         <v>300</v>
       </c>
-      <c r="F52">
+      <c r="F74">
         <v>300</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G74" s="4">
         <v>2250000</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H74" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2587500</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C75" t="s">
         <v>14</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D75" t="s">
         <v>13</v>
       </c>
-      <c r="E53">
+      <c r="E75">
         <v>470</v>
       </c>
-      <c r="F53">
+      <c r="F75">
         <v>443</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G75" s="4">
         <v>5215937</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H75" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6363914.1049661394</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C76" t="s">
         <v>15</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D76" t="s">
         <v>13</v>
       </c>
-      <c r="E54">
+      <c r="E76">
         <v>160</v>
       </c>
-      <c r="F54">
+      <c r="F76">
         <v>160</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G76" s="4">
         <v>6312500</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H76" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>7259374.9999999991</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D77" t="s">
         <v>13</v>
       </c>
-      <c r="E55">
+      <c r="E77">
         <v>100</v>
       </c>
-      <c r="F55">
+      <c r="F77">
         <v>107</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G77" s="4">
         <v>10186916</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H77" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>10948554.579439251</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>45</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C78" t="s">
         <v>17</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D78" t="s">
         <v>13</v>
       </c>
-      <c r="E56">
+      <c r="E78">
         <v>77</v>
       </c>
-      <c r="F56">
+      <c r="F78">
         <v>77</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G78" s="4">
         <v>3466000</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H78" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>3985899.9999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>70</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D79" t="s">
         <v>13</v>
       </c>
-      <c r="E57">
+      <c r="E79">
         <v>50</v>
       </c>
-      <c r="F57">
+      <c r="F79">
         <v>55</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G79" s="4">
         <v>4212000</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H79" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4403454.5454545449</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C80" t="s">
         <v>33</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D80" t="s">
         <v>13</v>
       </c>
-      <c r="E58">
+      <c r="E80">
         <v>50</v>
       </c>
-      <c r="F58">
+      <c r="F80">
         <v>40</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G80" s="4">
         <v>8532000</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H80" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>12264749.999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>70</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C81" t="s">
         <v>18</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D81" t="s">
         <v>13</v>
       </c>
-      <c r="E59">
+      <c r="E81">
         <v>35</v>
       </c>
-      <c r="F59">
+      <c r="F81">
         <v>32</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G81" s="4">
         <v>13531429</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H81" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>17020000.5390625</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C82" t="s">
         <v>19</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D82" t="s">
         <v>13</v>
       </c>
-      <c r="E60">
+      <c r="E82">
         <v>29</v>
       </c>
-      <c r="F60">
+      <c r="F82">
         <v>25</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G82" s="4">
         <v>23187500</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H82" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>30932124.999999996</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>45</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C83" t="s">
         <v>20</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D83" t="s">
         <v>34</v>
       </c>
-      <c r="E61">
+      <c r="E83">
         <v>285</v>
       </c>
-      <c r="F61">
+      <c r="F83">
         <v>265</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G83" s="4">
         <v>4373300</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H83" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5408864.4339622641</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D84" t="s">
         <v>35</v>
       </c>
-      <c r="E62">
+      <c r="E84">
         <v>210</v>
       </c>
-      <c r="F62">
+      <c r="F84">
         <v>200</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G84" s="4">
         <v>5400000</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H84" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6520499.9999999991</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>89</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C85" t="s">
         <v>22</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D85" t="s">
         <v>36</v>
       </c>
-      <c r="E63">
+      <c r="E85">
         <v>200</v>
       </c>
-      <c r="F63">
+      <c r="F85">
         <v>165</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G85" s="4">
         <v>1550000</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H85" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2160606.0606060605</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C86" t="s">
         <v>23</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D86" t="s">
         <v>37</v>
       </c>
-      <c r="E64">
+      <c r="E86">
         <v>100</v>
       </c>
-      <c r="F64">
+      <c r="F86">
         <v>100</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G86" s="4">
         <v>5050000</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H86" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5807500</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C87" t="s">
         <v>24</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D87" t="s">
         <v>37</v>
       </c>
-      <c r="E65">
+      <c r="E87">
         <v>20</v>
       </c>
-      <c r="F65">
+      <c r="F87">
         <v>20</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G87" s="4">
         <v>23034536</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H87" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>26489716.399999999</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D88" t="s">
         <v>37</v>
       </c>
-      <c r="E66">
+      <c r="E88">
         <v>10</v>
       </c>
-      <c r="F66">
+      <c r="F88">
         <v>10</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G88" s="4">
         <v>2500000</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H88" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2875000</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C89" t="s">
         <v>26</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D89" t="s">
         <v>38</v>
       </c>
-      <c r="E67">
+      <c r="E89">
         <v>195</v>
       </c>
-      <c r="F67">
+      <c r="F89">
         <v>195</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G89" s="4">
         <v>4054266</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H89" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4662405.8999999994</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>54</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C90" t="s">
         <v>27</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E68">
+      <c r="E90">
         <v>30</v>
       </c>
-      <c r="F68">
+      <c r="F90">
         <v>30</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G90" s="4">
         <v>1950000</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H90" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2242500</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>45</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C91" t="s">
         <v>28</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D91" t="s">
         <v>40</v>
       </c>
-      <c r="E69">
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="F69">
+      <c r="F91">
         <v>5</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G91" s="4">
         <v>5771429</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H91" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6637143.3499999996</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C92" t="s">
         <v>29</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D92" t="s">
         <v>43</v>
       </c>
-      <c r="E70">
+      <c r="E92">
         <v>300</v>
       </c>
-      <c r="F70">
+      <c r="F92">
         <v>300</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G92" s="4">
         <v>4160000</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H92" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4784000</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>30</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+      <c r="G95" s="3"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>4</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D97" t="s">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E97" t="s">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F97" t="s">
         <v>44</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G97" t="s">
         <v>97</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H97" t="s">
         <v>94</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I97" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76">
-        <v>935</v>
-      </c>
-      <c r="G76">
-        <v>9723</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77">
-        <v>1053</v>
-      </c>
-      <c r="G77">
-        <v>10608</v>
-      </c>
-      <c r="I77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78">
-        <v>919</v>
-      </c>
-      <c r="G78">
-        <v>8974</v>
-      </c>
-      <c r="I78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79">
-        <v>1600</v>
-      </c>
-      <c r="G79">
-        <v>7983</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>50</v>
-      </c>
-      <c r="E80" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80">
-        <v>1630</v>
-      </c>
-      <c r="G80">
-        <v>5733</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81">
-        <v>1600</v>
-      </c>
-      <c r="G81">
-        <v>9270</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" t="s">
-        <v>51</v>
-      </c>
-      <c r="F82">
-        <v>1600</v>
-      </c>
-      <c r="G82">
-        <v>8620</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83">
-        <v>1630</v>
-      </c>
-      <c r="G83">
-        <v>8549</v>
-      </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" t="s">
-        <v>57</v>
-      </c>
-      <c r="E84" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84">
-        <v>1630</v>
-      </c>
-      <c r="G84">
-        <v>8549</v>
-      </c>
-      <c r="I84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" t="s">
-        <v>59</v>
-      </c>
-      <c r="F85">
-        <v>1117</v>
-      </c>
-      <c r="G85">
-        <v>11330</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" t="s">
-        <v>60</v>
-      </c>
-      <c r="E86" t="s">
-        <v>59</v>
-      </c>
-      <c r="F86">
-        <v>1117</v>
-      </c>
-      <c r="G86">
-        <v>11330</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87">
-        <v>1117</v>
-      </c>
-      <c r="G87">
-        <v>8600</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" t="s">
-        <v>60</v>
-      </c>
-      <c r="E88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88">
-        <v>1117</v>
-      </c>
-      <c r="G88">
-        <v>8600</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" t="s">
-        <v>63</v>
-      </c>
-      <c r="F89">
-        <v>1340</v>
-      </c>
-      <c r="G89">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" t="s">
-        <v>64</v>
-      </c>
-      <c r="E90" t="s">
-        <v>63</v>
-      </c>
-      <c r="F90">
-        <v>1340</v>
-      </c>
-      <c r="G90">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E91" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91">
-        <v>1000</v>
-      </c>
-      <c r="G91">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F92">
-        <v>1000</v>
-      </c>
-      <c r="G92">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>65</v>
-      </c>
-      <c r="D93" t="s">
-        <v>68</v>
-      </c>
-      <c r="E93" t="s">
-        <v>51</v>
-      </c>
-      <c r="F93">
-        <v>1660</v>
-      </c>
-      <c r="G93">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94">
-        <v>1660</v>
-      </c>
-      <c r="G94">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" t="s">
-        <v>72</v>
-      </c>
-      <c r="F95">
-        <v>1144</v>
-      </c>
-      <c r="G95">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" t="s">
-        <v>73</v>
-      </c>
-      <c r="E96" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96">
-        <v>1144</v>
-      </c>
-      <c r="G96">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" t="s">
-        <v>74</v>
-      </c>
-      <c r="E97" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97">
-        <v>200</v>
-      </c>
-      <c r="G97">
-        <v>7195</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>200</v>
+        <v>935</v>
       </c>
       <c r="G98">
-        <v>8108</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+        <v>9723</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>1053</v>
+      </c>
+      <c r="G99">
+        <v>10608</v>
+      </c>
+      <c r="I99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>919</v>
+      </c>
+      <c r="G100">
+        <v>8974</v>
+      </c>
+      <c r="I100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" t="s">
+        <v>50</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101">
+        <v>1600</v>
+      </c>
+      <c r="G101">
+        <v>7983</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102">
+        <v>1630</v>
+      </c>
+      <c r="G102">
+        <v>5733</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103">
+        <v>1600</v>
+      </c>
+      <c r="G103">
+        <v>9270</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104">
+        <v>1600</v>
+      </c>
+      <c r="G104">
+        <v>8620</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105">
+        <v>1630</v>
+      </c>
+      <c r="G105">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106" t="s">
+        <v>57</v>
+      </c>
+      <c r="E106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106">
+        <v>1630</v>
+      </c>
+      <c r="G106">
+        <v>8549</v>
+      </c>
+      <c r="I106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107">
+        <v>1117</v>
+      </c>
+      <c r="G107">
+        <v>11330</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108">
+        <v>1117</v>
+      </c>
+      <c r="G108">
+        <v>11330</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109">
+        <v>1117</v>
+      </c>
+      <c r="G109">
+        <v>8600</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E110" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110">
+        <v>1117</v>
+      </c>
+      <c r="G110">
+        <v>8600</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>62</v>
+      </c>
+      <c r="E111" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111">
+        <v>1340</v>
+      </c>
+      <c r="G111">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112">
+        <v>1340</v>
+      </c>
+      <c r="G112">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113">
+        <v>1000</v>
+      </c>
+      <c r="G113">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114">
+        <v>1000</v>
+      </c>
+      <c r="G114">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115">
+        <v>1660</v>
+      </c>
+      <c r="G115">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116">
+        <v>1660</v>
+      </c>
+      <c r="G116">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117">
+        <v>1144</v>
+      </c>
+      <c r="G117">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" t="s">
+        <v>72</v>
+      </c>
+      <c r="F118">
+        <v>1144</v>
+      </c>
+      <c r="G118">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119">
+        <v>200</v>
+      </c>
+      <c r="G119">
+        <v>7195</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120">
+        <v>200</v>
+      </c>
+      <c r="G120">
+        <v>8108</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
         <v>75</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E121" t="s">
         <v>36</v>
       </c>
-      <c r="F99">
+      <c r="F121">
         <v>46</v>
       </c>
-      <c r="G99">
+      <c r="G121">
         <v>1197</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
         <v>70</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D122" t="s">
         <v>76</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E122" t="s">
         <v>77</v>
       </c>
-      <c r="F100">
+      <c r="F122">
         <v>880</v>
       </c>
-      <c r="G100">
+      <c r="G122">
         <v>2501</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
         <v>52</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D123" t="s">
         <v>78</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E123" t="s">
         <v>37</v>
       </c>
-      <c r="F101">
+      <c r="F123">
         <v>1250</v>
       </c>
-      <c r="G101">
+      <c r="G123">
         <v>27747</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F119">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F141">
         <v>2250</v>
       </c>
-      <c r="G119">
-        <f>F119*1000</f>
+      <c r="G141">
+        <f>F141*1000</f>
         <v>2250000</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F120">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F142">
         <v>5215.9369999999999</v>
       </c>
-      <c r="G120">
-        <f t="shared" ref="G120:G136" si="0">F120*1000</f>
+      <c r="G142">
+        <f t="shared" ref="G142:G158" si="0">F142*1000</f>
         <v>5215937</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F121">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F143">
         <v>6312.5</v>
       </c>
-      <c r="G121">
+      <c r="G143">
         <f t="shared" si="0"/>
         <v>6312500</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F122">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144">
         <v>8000</v>
       </c>
-      <c r="G122">
+      <c r="G144">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F123">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F145">
         <v>3600</v>
       </c>
-      <c r="G123">
+      <c r="G145">
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F124">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F146">
         <v>4212</v>
       </c>
-      <c r="G124">
+      <c r="G146">
         <f t="shared" si="0"/>
         <v>4212000</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F125">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F147">
         <v>8532</v>
       </c>
-      <c r="G125">
+      <c r="G147">
         <f t="shared" si="0"/>
         <v>8532000</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F126">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F148">
         <v>13531.429</v>
       </c>
-      <c r="G126">
+      <c r="G148">
         <f t="shared" si="0"/>
         <v>13531429</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F127">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F149">
         <v>23187.5</v>
       </c>
-      <c r="G127">
+      <c r="G149">
         <f t="shared" si="0"/>
         <v>23187500</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F128">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F150">
         <v>4373.3</v>
       </c>
-      <c r="G128">
+      <c r="G150">
         <f t="shared" si="0"/>
         <v>4373300</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F129">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F151">
         <v>3270</v>
       </c>
-      <c r="G129">
+      <c r="G151">
         <f t="shared" si="0"/>
         <v>3270000</v>
       </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F130">
+      <c r="J151" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L151" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M151" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N151" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F152">
         <v>5050</v>
       </c>
-      <c r="G130">
+      <c r="G152">
         <f t="shared" si="0"/>
         <v>5050000</v>
       </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F131">
+      <c r="J152" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L152" s="12">
+        <v>22</v>
+      </c>
+      <c r="M152" s="22">
+        <f>L152/44</f>
+        <v>0.5</v>
+      </c>
+      <c r="N152" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="F153">
         <v>19350</v>
       </c>
-      <c r="G131">
+      <c r="G153">
         <f t="shared" si="0"/>
         <v>19350000</v>
       </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F132">
+      <c r="J153" s="12"/>
+      <c r="K153" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L153" s="12">
+        <v>17</v>
+      </c>
+      <c r="M153" s="22">
+        <f t="shared" ref="M153:M162" si="1">L153/44</f>
+        <v>0.38636363636363635</v>
+      </c>
+      <c r="N153" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="F154">
         <v>6900</v>
       </c>
-      <c r="G132">
+      <c r="G154">
         <f t="shared" si="0"/>
         <v>6900000</v>
       </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F133">
+      <c r="J154" s="12"/>
+      <c r="K154" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L154" s="12">
+        <v>5</v>
+      </c>
+      <c r="M154" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="N154" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F155">
         <v>4054.2660000000001</v>
       </c>
-      <c r="G133">
+      <c r="G155">
         <f t="shared" si="0"/>
         <v>4054266</v>
       </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F134">
+      <c r="J155" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K155" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L155" s="12">
+        <v>27</v>
+      </c>
+      <c r="M155" s="22">
+        <f t="shared" si="1"/>
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="N155" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F156">
         <v>1950</v>
       </c>
-      <c r="G134">
+      <c r="G156">
         <f t="shared" si="0"/>
         <v>1950000</v>
       </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F135">
+      <c r="J156" s="12"/>
+      <c r="K156" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L156" s="12">
+        <v>5</v>
+      </c>
+      <c r="M156" s="22">
+        <f t="shared" si="1"/>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="N156" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F157">
         <v>5771.4290000000001</v>
       </c>
-      <c r="G135">
+      <c r="G157">
         <f t="shared" si="0"/>
         <v>5771429</v>
       </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F136">
+      <c r="J157" s="12"/>
+      <c r="K157" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L157" s="12">
+        <v>4</v>
+      </c>
+      <c r="M157" s="22">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="N157" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F158">
         <v>4160</v>
       </c>
-      <c r="G136">
+      <c r="G158">
         <f t="shared" si="0"/>
         <v>4160000</v>
       </c>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L158" s="12">
+        <v>2</v>
+      </c>
+      <c r="M158" s="22">
+        <f t="shared" si="1"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="N158" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J159" s="12"/>
+      <c r="K159" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L159" s="12">
+        <v>1</v>
+      </c>
+      <c r="M159" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="N159" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J160" s="12"/>
+      <c r="K160" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L160" s="12">
+        <v>1</v>
+      </c>
+      <c r="M160" s="22">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="N160" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="10:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J161" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K161" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L161" s="12">
+        <v>25</v>
+      </c>
+      <c r="M161" s="22">
+        <f t="shared" si="1"/>
+        <v>0.56818181818181823</v>
+      </c>
+      <c r="N161" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="10:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="J162" s="12"/>
+      <c r="K162" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L162" s="12">
+        <v>19</v>
+      </c>
+      <c r="M162" s="22">
+        <f t="shared" si="1"/>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="N162" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I76" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
-    <hyperlink ref="I49" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
+    <hyperlink ref="I98" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
+    <hyperlink ref="I71" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
     <hyperlink ref="V38" r:id="rId3" xr:uid="{ED172526-0E97-43E2-A64D-DA907E360DFD}"/>
     <hyperlink ref="V39" r:id="rId4" xr:uid="{CF26CCAF-6057-4BA7-8AE8-BFCF016D1F25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5271,68 +5760,68 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
         <v>112</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5360,16 +5849,16 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,11 +5867,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>7.0334990891832302E-2</v>
+        <v>6.0545639243965103E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.85094567558990919</v>
+        <v>0.88762273178321971</v>
       </c>
     </row>
   </sheetData>
@@ -5391,11 +5880,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5608,27 +6098,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5653,9 +6133,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC149B26-2CF5-49C8-9A5E-29BA3C30A499}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702E7CF0-644C-46C1-8DB3-35044DF09BA5}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15720" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
   <si>
     <t>specifications</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>State-driven programs focusing on standardized reactor fleets</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +708,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -766,7 +775,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -785,9 +794,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -804,6 +810,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -815,6 +825,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -833,25 +862,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -918,13 +928,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1255880</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>713292</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>3918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -962,13 +972,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>531004</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>1274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>74680</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>123200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1006,13 +1016,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>36541</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1448822</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>7913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1050,8 +1060,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U53" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:U53" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U54" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B3:U54" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{F92BB8DD-D241-4839-9FAF-66032DFBA1DF}" name="Country"/>
     <tableColumn id="2" xr3:uid="{BE5F5CB4-0A57-4202-B592-12545CA65EB2}" name="Project"/>
@@ -1081,8 +1091,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}" name="Table1" displayName="Table1" ref="B73:H92" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B73:H92" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}" name="Table1" displayName="Table1" ref="B74:H93" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B74:H93" xr:uid="{66B1A206-B781-4635-A5B8-1A64CD1AB5AA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C1725586-8E23-41DA-9DA0-5A6034105DE8}" name="Country"/>
     <tableColumn id="2" xr3:uid="{0BDDD1E8-3933-4B65-AC82-131AA91A4D50}" name="Project"/>
@@ -1099,16 +1109,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}" name="Table4" displayName="Table4" ref="J151:N162" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="J151:N162" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}" name="Table4" displayName="Table4" ref="J152:N163" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="J152:N163" xr:uid="{8164B975-FC9A-439A-97D5-7E694650798C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7FD37CAB-D325-41C8-8547-2D6E1FE331AC}" name="Category" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{564CDED8-CE65-4596-AC3A-4CC44355AB8B}" name="Subcategory" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AC788AA3-8DFF-4AE6-9E50-6D860ABDE5C1}" name="Count" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{166E4572-6834-491B-BAB2-932D8DA21314}" name="Share (%)" dataDxfId="3">
-      <calculatedColumnFormula>L152/44</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7FD37CAB-D325-41C8-8547-2D6E1FE331AC}" name="Category" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{564CDED8-CE65-4596-AC3A-4CC44355AB8B}" name="Subcategory" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AC788AA3-8DFF-4AE6-9E50-6D860ABDE5C1}" name="Count" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{166E4572-6834-491B-BAB2-932D8DA21314}" name="Share (%)" dataDxfId="1">
+      <calculatedColumnFormula>L153/44</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F00376DE-51F3-4906-9D14-2C9228385478}" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F00376DE-51F3-4906-9D14-2C9228385478}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1443,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
-  <dimension ref="B1:V162"/>
+  <dimension ref="B1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,50 +2245,45 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="str">
+        <v>129</v>
+      </c>
+      <c r="F15" s="22" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>SMR</v>
       </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
       <c r="H15">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="I15" s="11">
-        <v>5050</v>
+        <v>1734.3</v>
       </c>
       <c r="J15" s="13">
-        <v>2.8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K15" s="12"/>
       <c r="L15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M15">
         <v>90</v>
       </c>
-      <c r="N15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="11">
-        <v>130750</v>
+      <c r="O15" s="23">
+        <v>136630</v>
       </c>
       <c r="P15" s="15">
         <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>78.040000000000006</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2295,10 +2300,10 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -2308,25 +2313,22 @@
       </c>
       <c r="F16" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Micro</v>
+        <v>SMR</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I16" s="11">
-        <v>19350</v>
+        <v>5050</v>
       </c>
       <c r="J16" s="13">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>12.4</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M16">
         <v>90</v>
@@ -2341,7 +2343,7 @@
         <v>3.5</v>
       </c>
       <c r="Q16">
-        <v>113.05</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -2358,10 +2360,10 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -2374,17 +2376,20 @@
         <v>Micro</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I17" s="11">
-        <v>6900</v>
+        <v>19350</v>
       </c>
       <c r="J17" s="13">
         <v>3</v>
       </c>
+      <c r="K17">
+        <v>12.4</v>
+      </c>
       <c r="L17">
         <v>30</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>23.86</v>
+        <v>113.05</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2418,35 +2423,35 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F18" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>SMR</v>
+        <v>Micro</v>
       </c>
       <c r="G18">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="I18" s="11">
-        <v>4054.2660000000001</v>
+        <v>6900</v>
       </c>
       <c r="J18" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M18">
         <v>90</v>
@@ -2455,13 +2460,13 @@
         <v>108</v>
       </c>
       <c r="O18" s="11">
-        <v>180512</v>
+        <v>130750</v>
       </c>
       <c r="P18" s="15">
         <v>3.5</v>
       </c>
       <c r="Q18">
-        <v>8.94</v>
+        <v>23.86</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -2481,7 +2486,7 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -2494,16 +2499,16 @@
         <v>SMR</v>
       </c>
       <c r="G19">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H19">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="I19" s="11">
-        <v>1950</v>
+        <v>4054.2660000000001</v>
       </c>
       <c r="J19" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
         <v>60</v>
@@ -2515,13 +2520,13 @@
         <v>108</v>
       </c>
       <c r="O19" s="11">
-        <v>130750</v>
+        <v>180512</v>
       </c>
       <c r="P19" s="15">
         <v>3.5</v>
       </c>
       <c r="Q19">
-        <v>29.55</v>
+        <v>8.94</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2538,29 +2543,29 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>133</v>
       </c>
       <c r="F20" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Micro</v>
+        <v>SMR</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="I20" s="11">
-        <v>5771.4290000000001</v>
+        <v>1950</v>
       </c>
       <c r="J20" s="13">
         <v>3</v>
@@ -2598,35 +2603,35 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>133</v>
       </c>
       <c r="F21" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>SMR</v>
+        <v>Micro</v>
       </c>
       <c r="G21">
-        <v>306</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="I21" s="11">
-        <v>4160</v>
+        <v>5771.4290000000001</v>
       </c>
       <c r="J21" s="13">
         <v>3</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M21">
         <v>90</v>
@@ -2656,65 +2661,64 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="12" t="str">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <v>935</v>
-      </c>
-      <c r="I22" s="12">
-        <v>9723</v>
-      </c>
-      <c r="J22" s="18">
-        <v>5</v>
-      </c>
-      <c r="K22" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="L22" s="12">
-        <v>40</v>
+        <v>SMR</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
+      </c>
+      <c r="I22" s="11">
+        <v>4160</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
       </c>
       <c r="M22">
         <v>90</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" t="s">
         <v>108</v>
       </c>
       <c r="O22" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
+        <v>130750</v>
+      </c>
+      <c r="P22" s="15">
+        <v>3.5</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>29.55</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22">
         <v>15</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="U22" s="12">
-        <v>1987</v>
+      <c r="T22" t="s">
+        <v>109</v>
+      </c>
+      <c r="U22">
+        <v>2020</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -2722,7 +2726,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
@@ -2736,16 +2740,16 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12">
-        <v>1053</v>
+        <v>935</v>
       </c>
       <c r="I23" s="12">
-        <v>10608</v>
-      </c>
-      <c r="J23" s="18">
+        <v>9723</v>
+      </c>
+      <c r="J23" s="17">
         <v>5</v>
       </c>
       <c r="K23" s="12">
-        <v>16</v>
+        <v>12.1</v>
       </c>
       <c r="L23" s="12">
         <v>40</v>
@@ -2775,7 +2779,7 @@
         <v>130</v>
       </c>
       <c r="U23" s="12">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="30" x14ac:dyDescent="0.25">
@@ -2783,7 +2787,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>11</v>
@@ -2797,16 +2801,16 @@
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12">
-        <v>919</v>
+        <v>1053</v>
       </c>
       <c r="I24" s="12">
-        <v>8974</v>
-      </c>
-      <c r="J24" s="18">
-        <v>6.5</v>
+        <v>10608</v>
+      </c>
+      <c r="J24" s="17">
+        <v>5</v>
       </c>
       <c r="K24" s="12">
-        <v>9.3000000000000007</v>
+        <v>16</v>
       </c>
       <c r="L24" s="12">
         <v>40</v>
@@ -2836,18 +2840,18 @@
         <v>130</v>
       </c>
       <c r="U24" s="12">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>129</v>
@@ -2858,19 +2862,19 @@
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12">
-        <v>1600</v>
+        <v>919</v>
       </c>
       <c r="I25" s="12">
-        <v>7983</v>
-      </c>
-      <c r="J25" s="18">
-        <v>5</v>
+        <v>8974</v>
+      </c>
+      <c r="J25" s="17">
+        <v>6.5</v>
       </c>
       <c r="K25" s="12">
-        <v>17</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L25" s="12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M25">
         <v>90</v>
@@ -2894,10 +2898,10 @@
         <v>15</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U25" s="12">
-        <v>2022</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
@@ -2905,7 +2909,7 @@
         <v>163</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>13</v>
@@ -2919,12 +2923,12 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="I26" s="12">
-        <v>5733</v>
-      </c>
-      <c r="J26" s="18">
+        <v>7983</v>
+      </c>
+      <c r="J26" s="17">
         <v>5</v>
       </c>
       <c r="K26" s="12">
@@ -2961,12 +2965,12 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>13</v>
@@ -2980,16 +2984,16 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12">
-        <v>1600</v>
+        <v>1630</v>
       </c>
       <c r="I27" s="12">
-        <v>9270</v>
-      </c>
-      <c r="J27" s="18">
+        <v>5733</v>
+      </c>
+      <c r="J27" s="17">
         <v>5</v>
       </c>
       <c r="K27" s="12">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="L27" s="12">
         <v>60</v>
@@ -3019,15 +3023,15 @@
         <v>132</v>
       </c>
       <c r="U27" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>13</v>
@@ -3044,9 +3048,9 @@
         <v>1600</v>
       </c>
       <c r="I28" s="12">
-        <v>8620</v>
-      </c>
-      <c r="J28" s="18">
+        <v>9270</v>
+      </c>
+      <c r="J28" s="17">
         <v>5</v>
       </c>
       <c r="K28" s="12">
@@ -3085,10 +3089,10 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>13</v>
@@ -3102,15 +3106,17 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="I29" s="12">
-        <v>8549</v>
-      </c>
-      <c r="J29" s="18">
-        <v>7</v>
-      </c>
-      <c r="K29" s="12"/>
+        <v>8620</v>
+      </c>
+      <c r="J29" s="17">
+        <v>5</v>
+      </c>
+      <c r="K29" s="12">
+        <v>17.100000000000001</v>
+      </c>
       <c r="L29" s="12">
         <v>60</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>132</v>
       </c>
       <c r="U29" s="12">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
@@ -3147,7 +3153,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>13</v>
@@ -3166,7 +3172,7 @@
       <c r="I30" s="12">
         <v>8549</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="17">
         <v>7</v>
       </c>
       <c r="K30" s="12"/>
@@ -3203,10 +3209,10 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
@@ -3220,17 +3226,15 @@
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12">
-        <v>1117</v>
+        <v>1630</v>
       </c>
       <c r="I31" s="12">
-        <v>11330</v>
-      </c>
-      <c r="J31" s="18">
-        <v>4</v>
-      </c>
-      <c r="K31" s="12">
-        <v>14</v>
-      </c>
+        <v>8549</v>
+      </c>
+      <c r="J31" s="17">
+        <v>7</v>
+      </c>
+      <c r="K31" s="12"/>
       <c r="L31" s="12">
         <v>60</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>132</v>
       </c>
       <c r="U31" s="12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -3267,7 +3271,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
@@ -3286,11 +3290,11 @@
       <c r="I32" s="12">
         <v>11330</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="17">
         <v>4</v>
       </c>
       <c r="K32" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="12">
         <v>60</v>
@@ -3320,7 +3324,7 @@
         <v>132</v>
       </c>
       <c r="U32" s="12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -3328,7 +3332,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>13</v>
@@ -3345,13 +3349,13 @@
         <v>1117</v>
       </c>
       <c r="I33" s="12">
-        <v>8600</v>
-      </c>
-      <c r="J33" s="18">
+        <v>11330</v>
+      </c>
+      <c r="J33" s="17">
         <v>4</v>
       </c>
       <c r="K33" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L33" s="12">
         <v>60</v>
@@ -3381,7 +3385,7 @@
         <v>132</v>
       </c>
       <c r="U33" s="12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -3389,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>13</v>
@@ -3408,11 +3412,11 @@
       <c r="I34" s="12">
         <v>8600</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <v>4</v>
       </c>
       <c r="K34" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="12">
         <v>60</v>
@@ -3442,21 +3446,21 @@
         <v>132</v>
       </c>
       <c r="U34" s="12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3464,16 +3468,16 @@
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12">
-        <v>1340</v>
+        <v>1117</v>
       </c>
       <c r="I35" s="12">
-        <v>2410</v>
-      </c>
-      <c r="J35" s="18">
-        <v>5</v>
+        <v>8600</v>
+      </c>
+      <c r="J35" s="17">
+        <v>4</v>
       </c>
       <c r="K35" s="12">
-        <v>8.18</v>
+        <v>15</v>
       </c>
       <c r="L35" s="12">
         <v>60</v>
@@ -3503,7 +3507,7 @@
         <v>132</v>
       </c>
       <c r="U35" s="12">
-        <v>2016</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
@@ -3511,7 +3515,7 @@
         <v>159</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
@@ -3530,11 +3534,11 @@
       <c r="I36" s="12">
         <v>2410</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="17">
         <v>5</v>
       </c>
       <c r="K36" s="12">
-        <v>10.029999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="L36" s="12">
         <v>60</v>
@@ -3564,21 +3568,21 @@
         <v>132</v>
       </c>
       <c r="U36" s="12">
-        <v>2019</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3586,16 +3590,16 @@
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12">
-        <v>1000</v>
+        <v>1340</v>
       </c>
       <c r="I37" s="12">
-        <v>3154</v>
-      </c>
-      <c r="J37" s="18">
+        <v>2410</v>
+      </c>
+      <c r="J37" s="17">
         <v>5</v>
       </c>
       <c r="K37" s="12">
-        <v>9</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="L37" s="12">
         <v>60</v>
@@ -3625,7 +3629,7 @@
         <v>132</v>
       </c>
       <c r="U37" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -3633,7 +3637,7 @@
         <v>93</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>13</v>
@@ -3652,7 +3656,7 @@
       <c r="I38" s="12">
         <v>3154</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="17">
         <v>5</v>
       </c>
       <c r="K38" s="12">
@@ -3697,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>13</v>
@@ -3711,16 +3715,16 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12">
-        <v>1660</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="12">
-        <v>3222</v>
-      </c>
-      <c r="J39" s="18">
-        <v>4.5</v>
+        <v>3154</v>
+      </c>
+      <c r="J39" s="17">
+        <v>5</v>
       </c>
       <c r="K39" s="12">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="L39" s="12">
         <v>60</v>
@@ -3761,7 +3765,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>13</v>
@@ -3780,11 +3784,11 @@
       <c r="I40" s="12">
         <v>3222</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="17">
         <v>4.5</v>
       </c>
       <c r="K40" s="12">
-        <v>9.4</v>
+        <v>9.1</v>
       </c>
       <c r="L40" s="12">
         <v>60</v>
@@ -3814,21 +3818,21 @@
         <v>132</v>
       </c>
       <c r="U40" s="12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -3836,16 +3840,16 @@
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12">
-        <v>1144</v>
+        <v>1660</v>
       </c>
       <c r="I41" s="12">
-        <v>2244</v>
-      </c>
-      <c r="J41" s="18">
-        <v>6</v>
+        <v>3222</v>
+      </c>
+      <c r="J41" s="17">
+        <v>4.5</v>
       </c>
       <c r="K41" s="12">
-        <v>8.68</v>
+        <v>9.4</v>
       </c>
       <c r="L41" s="12">
         <v>60</v>
@@ -3875,7 +3879,7 @@
         <v>132</v>
       </c>
       <c r="U41" s="12">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -3883,7 +3887,7 @@
         <v>92</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>13</v>
@@ -3902,11 +3906,11 @@
       <c r="I42" s="12">
         <v>2244</v>
       </c>
-      <c r="J42" s="18">
-        <v>7</v>
+      <c r="J42" s="17">
+        <v>6</v>
       </c>
       <c r="K42" s="12">
-        <v>10.31</v>
+        <v>8.68</v>
       </c>
       <c r="L42" s="12">
         <v>60</v>
@@ -3936,41 +3940,41 @@
         <v>132</v>
       </c>
       <c r="U42" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>SMR</v>
+        <v>Large</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12">
-        <v>200</v>
+        <v>1144</v>
       </c>
       <c r="I43" s="12">
-        <v>7195</v>
-      </c>
-      <c r="J43" s="18">
-        <v>6</v>
+        <v>2244</v>
+      </c>
+      <c r="J43" s="17">
+        <v>7</v>
       </c>
       <c r="K43" s="12">
-        <v>10.83</v>
+        <v>10.31</v>
       </c>
       <c r="L43" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M43">
         <v>90</v>
@@ -3997,15 +4001,15 @@
         <v>132</v>
       </c>
       <c r="U43" s="12">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>35</v>
@@ -4022,9 +4026,9 @@
         <v>200</v>
       </c>
       <c r="I44" s="12">
-        <v>8108</v>
-      </c>
-      <c r="J44" s="18">
+        <v>7195</v>
+      </c>
+      <c r="J44" s="17">
         <v>6</v>
       </c>
       <c r="K44" s="12">
@@ -4066,7 +4070,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>35</v>
@@ -4076,20 +4080,20 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Micro</v>
+        <v>SMR</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="I45" s="12">
-        <v>1197</v>
-      </c>
-      <c r="J45" s="18">
+        <v>8108</v>
+      </c>
+      <c r="J45" s="17">
         <v>6</v>
       </c>
       <c r="K45" s="12">
-        <v>5.33</v>
+        <v>10.83</v>
       </c>
       <c r="L45" s="12">
         <v>40</v>
@@ -4119,43 +4123,41 @@
         <v>132</v>
       </c>
       <c r="U45" s="12">
-        <v>1967</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G46" s="12">
-        <v>820</v>
-      </c>
+        <v>Micro</v>
+      </c>
+      <c r="G46" s="12"/>
       <c r="H46" s="12">
-        <v>885</v>
+        <v>46</v>
       </c>
       <c r="I46" s="12">
-        <v>2501</v>
-      </c>
-      <c r="J46" s="19">
-        <v>8</v>
+        <v>1197</v>
+      </c>
+      <c r="J46" s="17">
+        <v>6</v>
       </c>
       <c r="K46" s="12">
-        <v>8</v>
+        <v>5.33</v>
       </c>
       <c r="L46" s="12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M46">
         <v>90</v>
@@ -4182,41 +4184,43 @@
         <v>132</v>
       </c>
       <c r="U46" s="12">
-        <v>2015</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12">
+        <v>820</v>
+      </c>
       <c r="H47" s="12">
-        <v>1250</v>
+        <v>885</v>
       </c>
       <c r="I47" s="12">
-        <v>6145</v>
-      </c>
-      <c r="J47" s="19">
-        <v>7</v>
+        <v>2501</v>
+      </c>
+      <c r="J47" s="18">
+        <v>8</v>
       </c>
       <c r="K47" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L47" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M47">
         <v>90</v>
@@ -4243,31 +4247,68 @@
         <v>132</v>
       </c>
       <c r="U47" s="12">
-        <v>1986</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="16" t="str">
+      <c r="B48" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="H48">
-        <v>1200</v>
-      </c>
-      <c r="J48" s="17">
-        <v>5</v>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12">
+        <v>1250</v>
+      </c>
+      <c r="I48" s="12">
+        <v>6145</v>
+      </c>
+      <c r="J48" s="18">
+        <v>7</v>
       </c>
       <c r="K48" s="12">
         <v>10</v>
+      </c>
+      <c r="L48" s="12">
+        <v>40</v>
+      </c>
+      <c r="M48">
+        <v>90</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O48" s="11">
+        <v>100000</v>
+      </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <v>20</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="12">
+        <v>15</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U48" s="12">
+        <v>1986</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -4275,47 +4316,47 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="16" t="str">
+      <c r="F49" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
       <c r="H49">
         <v>1200</v>
       </c>
-      <c r="J49" s="17">
-        <v>6</v>
+      <c r="J49" s="16">
+        <v>5</v>
       </c>
       <c r="K49" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="16" t="str">
+      <c r="F50" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
       <c r="H50">
-        <v>1400</v>
-      </c>
-      <c r="J50" s="17">
-        <v>5</v>
+        <v>1200</v>
+      </c>
+      <c r="J50" s="16">
+        <v>6</v>
       </c>
       <c r="K50" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -4323,585 +4364,589 @@
         <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="16" t="str">
+      <c r="F51" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
       <c r="H51">
         <v>1400</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>5</v>
       </c>
       <c r="K51" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12" t="str">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>Large</v>
+      </c>
+      <c r="H52">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="16">
+        <v>5</v>
+      </c>
+      <c r="K52" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="16"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="12"/>
-    </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="16"/>
-      <c r="J53" s="17"/>
+      <c r="F53" s="12"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="12"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="6" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="1" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G74" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>11</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>300</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <v>300</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G75" s="4">
         <v>2250000</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H75" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2587500</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>54</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>13</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>470</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <v>443</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>5215937</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H76" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6363914.1049661394</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>45</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>15</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>13</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>160</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <v>160</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G77" s="4">
         <v>6312500</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H77" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>7259374.9999999991</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>16</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>13</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>100</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>107</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>10186916</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H78" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>10948554.579439251</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>45</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>13</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>77</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <v>77</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G79" s="4">
         <v>3466000</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H79" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>3985899.9999999995</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>70</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>13</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>50</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <v>55</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>4212000</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H80" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4403454.5454545449</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>33</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>13</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>50</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>40</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G81" s="4">
         <v>8532000</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H81" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>12264749.999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>70</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>13</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>35</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>32</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>13531429</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H82" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>17020000.5390625</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>29</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>25</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G83" s="4">
         <v>23187500</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H83" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>30932124.999999996</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>45</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>20</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>34</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>285</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>265</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>4373300</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5408864.4339622641</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>21</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>35</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>210</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>200</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G85" s="4">
         <v>5400000</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H85" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6520499.9999999991</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>89</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>22</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>36</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>200</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>165</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>1550000</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2160606.0606060605</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>90</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>23</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>37</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>100</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>100</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G87" s="4">
         <v>5050000</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H87" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5807500</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>24</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>37</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>20</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>20</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="4">
         <v>23034536</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H88" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>26489716.399999999</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>25</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>37</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>10</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>10</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G89" s="4">
         <v>2500000</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H89" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2875000</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>91</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>26</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>38</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>195</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>195</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G90" s="4">
         <v>4054266</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H90" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4662405.8999999994</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>54</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>27</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>39</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>30</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>30</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G91" s="4">
         <v>1950000</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H91" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2242500</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>28</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>40</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>5</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>5</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G92" s="4">
         <v>5771429</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H92" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6637143.3499999996</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>92</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>43</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>300</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>300</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G93" s="4">
         <v>4160000</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H93" s="5">
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4784000</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>30</v>
       </c>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" t="s">
-        <v>97</v>
-      </c>
-      <c r="H97" t="s">
-        <v>94</v>
-      </c>
-      <c r="I97" t="s">
-        <v>79</v>
-      </c>
+      <c r="G96" s="3"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98">
-        <v>935</v>
-      </c>
-      <c r="G98">
-        <v>9723</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" t="s">
+        <v>97</v>
+      </c>
+      <c r="H98" t="s">
+        <v>94</v>
+      </c>
+      <c r="I98" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
@@ -4909,19 +4954,19 @@
         <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>1053</v>
+        <v>935</v>
       </c>
       <c r="G99">
-        <v>10608</v>
-      </c>
-      <c r="I99" t="s">
-        <v>81</v>
+        <v>9723</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
@@ -4929,39 +4974,39 @@
         <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>919</v>
+        <v>1053</v>
       </c>
       <c r="G100">
-        <v>8974</v>
+        <v>10608</v>
       </c>
       <c r="I100" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F101">
-        <v>1600</v>
+        <v>919</v>
       </c>
       <c r="G101">
-        <v>7983</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
+        <v>8974</v>
+      </c>
+      <c r="I101" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
@@ -4975,33 +5020,33 @@
         <v>51</v>
       </c>
       <c r="F102">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="G102">
-        <v>5733</v>
+        <v>7983</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E103" t="s">
         <v>51</v>
       </c>
       <c r="F103">
-        <v>1600</v>
+        <v>1630</v>
       </c>
       <c r="G103">
-        <v>9270</v>
+        <v>5733</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
@@ -5018,27 +5063,30 @@
         <v>1600</v>
       </c>
       <c r="G104">
-        <v>8620</v>
+        <v>9270</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F105">
-        <v>1630</v>
+        <v>1600</v>
       </c>
       <c r="G105">
-        <v>8549</v>
+        <v>8620</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
@@ -5046,7 +5094,7 @@
         <v>54</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
         <v>56</v>
@@ -5057,28 +5105,25 @@
       <c r="G106">
         <v>8549</v>
       </c>
-      <c r="I106" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F107">
-        <v>1117</v>
+        <v>1630</v>
       </c>
       <c r="G107">
-        <v>11330</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
+        <v>8549</v>
+      </c>
+      <c r="I107" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
@@ -5086,7 +5131,7 @@
         <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E108" t="s">
         <v>59</v>
@@ -5106,7 +5151,7 @@
         <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
         <v>59</v>
@@ -5115,10 +5160,10 @@
         <v>1117</v>
       </c>
       <c r="G109">
-        <v>8600</v>
+        <v>11330</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
@@ -5126,7 +5171,7 @@
         <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E110" t="s">
         <v>59</v>
@@ -5143,19 +5188,22 @@
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F111">
-        <v>1340</v>
+        <v>1117</v>
       </c>
       <c r="G111">
-        <v>2410</v>
+        <v>8600</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
@@ -5163,7 +5211,7 @@
         <v>61</v>
       </c>
       <c r="D112" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E112" t="s">
         <v>63</v>
@@ -5177,19 +5225,19 @@
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F113">
-        <v>1000</v>
+        <v>1340</v>
       </c>
       <c r="G113">
-        <v>3154</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.25">
@@ -5197,7 +5245,7 @@
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E114" t="s">
         <v>59</v>
@@ -5214,16 +5262,16 @@
         <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F115">
-        <v>1660</v>
+        <v>1000</v>
       </c>
       <c r="G115">
-        <v>3222</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
@@ -5231,7 +5279,7 @@
         <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -5245,19 +5293,19 @@
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F117">
-        <v>1144</v>
+        <v>1660</v>
       </c>
       <c r="G117">
-        <v>2244</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.25">
@@ -5265,7 +5313,7 @@
         <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E118" t="s">
         <v>72</v>
@@ -5279,22 +5327,19 @@
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F119">
-        <v>200</v>
+        <v>1144</v>
       </c>
       <c r="G119">
-        <v>7195</v>
-      </c>
-      <c r="H119">
-        <v>2</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.25">
@@ -5311,10 +5356,10 @@
         <v>200</v>
       </c>
       <c r="G120">
-        <v>8108</v>
+        <v>7195</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.25">
@@ -5322,406 +5367,426 @@
         <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E121" t="s">
         <v>36</v>
       </c>
       <c r="F121">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="G121">
-        <v>1197</v>
+        <v>8108</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F122">
-        <v>880</v>
+        <v>46</v>
       </c>
       <c r="G122">
-        <v>2501</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" t="s">
+        <v>77</v>
+      </c>
+      <c r="F123">
+        <v>880</v>
+      </c>
+      <c r="G123">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>52</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>78</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>37</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <v>1250</v>
       </c>
-      <c r="G123">
+      <c r="G124">
         <v>27747</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F141">
-        <v>2250</v>
-      </c>
-      <c r="G141">
-        <f>F141*1000</f>
-        <v>2250000</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F142">
-        <v>5215.9369999999999</v>
+        <v>2250</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G158" si="0">F142*1000</f>
-        <v>5215937</v>
+        <f>F142*1000</f>
+        <v>2250000</v>
       </c>
     </row>
     <row r="143" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F143">
+        <v>5215.9369999999999</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ref="G143:G159" si="0">F143*1000</f>
+        <v>5215937</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144">
         <v>6312.5</v>
       </c>
-      <c r="G143">
+      <c r="G144">
         <f t="shared" si="0"/>
         <v>6312500</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F144">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F145">
         <v>8000</v>
       </c>
-      <c r="G144">
+      <c r="G145">
         <f t="shared" si="0"/>
         <v>8000000</v>
       </c>
     </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F145">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F146">
         <v>3600</v>
       </c>
-      <c r="G145">
+      <c r="G146">
         <f t="shared" si="0"/>
         <v>3600000</v>
       </c>
     </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F146">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F147">
         <v>4212</v>
       </c>
-      <c r="G146">
+      <c r="G147">
         <f t="shared" si="0"/>
         <v>4212000</v>
       </c>
     </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F147">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F148">
         <v>8532</v>
       </c>
-      <c r="G147">
+      <c r="G148">
         <f t="shared" si="0"/>
         <v>8532000</v>
       </c>
     </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F148">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F149">
         <v>13531.429</v>
       </c>
-      <c r="G148">
+      <c r="G149">
         <f t="shared" si="0"/>
         <v>13531429</v>
       </c>
     </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F149">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F150">
         <v>23187.5</v>
       </c>
-      <c r="G149">
+      <c r="G150">
         <f t="shared" si="0"/>
         <v>23187500</v>
       </c>
     </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F150">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F151">
         <v>4373.3</v>
       </c>
-      <c r="G150">
+      <c r="G151">
         <f t="shared" si="0"/>
         <v>4373300</v>
       </c>
     </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F151">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F152">
         <v>3270</v>
       </c>
-      <c r="G151">
+      <c r="G152">
         <f t="shared" si="0"/>
         <v>3270000</v>
       </c>
-      <c r="J151" s="20" t="s">
+      <c r="J152" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K151" s="20" t="s">
+      <c r="K152" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="L151" s="20" t="s">
+      <c r="L152" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="M151" s="20" t="s">
+      <c r="M152" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N151" s="20" t="s">
+      <c r="N152" s="19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F152">
+    <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F153">
         <v>5050</v>
       </c>
-      <c r="G152">
+      <c r="G153">
         <f t="shared" si="0"/>
         <v>5050000</v>
       </c>
-      <c r="J152" s="21" t="s">
+      <c r="J153" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="K152" s="12" t="s">
+      <c r="K153" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L152" s="12">
+      <c r="L153" s="12">
         <v>22</v>
       </c>
-      <c r="M152" s="22">
-        <f>L152/44</f>
+      <c r="M153" s="21">
+        <f>L153/44</f>
         <v>0.5</v>
       </c>
-      <c r="N152" s="12" t="s">
+      <c r="N153" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="6:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="F153">
+    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="F154">
         <v>19350</v>
       </c>
-      <c r="G153">
+      <c r="G154">
         <f t="shared" si="0"/>
         <v>19350000</v>
       </c>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12" t="s">
+      <c r="J154" s="12"/>
+      <c r="K154" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="L153" s="12">
+      <c r="L154" s="12">
         <v>17</v>
       </c>
-      <c r="M153" s="22">
-        <f t="shared" ref="M153:M162" si="1">L153/44</f>
+      <c r="M154" s="21">
+        <f t="shared" ref="M154:M163" si="1">L154/44</f>
         <v>0.38636363636363635</v>
       </c>
-      <c r="N153" s="12" t="s">
+      <c r="N154" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="F154">
+    <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="F155">
         <v>6900</v>
       </c>
-      <c r="G154">
+      <c r="G155">
         <f t="shared" si="0"/>
         <v>6900000</v>
       </c>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12" t="s">
+      <c r="J155" s="12"/>
+      <c r="K155" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="L154" s="12">
+      <c r="L155" s="12">
         <v>5</v>
       </c>
-      <c r="M154" s="22">
+      <c r="M155" s="21">
         <f t="shared" si="1"/>
         <v>0.11363636363636363</v>
       </c>
-      <c r="N154" s="12" t="s">
+      <c r="N155" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F155">
+    <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F156">
         <v>4054.2660000000001</v>
       </c>
-      <c r="G155">
+      <c r="G156">
         <f t="shared" si="0"/>
         <v>4054266</v>
       </c>
-      <c r="J155" s="21" t="s">
+      <c r="J156" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="K155" s="12" t="s">
+      <c r="K156" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="L155" s="12">
+      <c r="L156" s="12">
         <v>27</v>
       </c>
-      <c r="M155" s="22">
+      <c r="M156" s="21">
         <f t="shared" si="1"/>
         <v>0.61363636363636365</v>
       </c>
-      <c r="N155" s="12" t="s">
+      <c r="N156" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F156">
+    <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F157">
         <v>1950</v>
       </c>
-      <c r="G156">
+      <c r="G157">
         <f t="shared" si="0"/>
         <v>1950000</v>
       </c>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12" t="s">
+      <c r="J157" s="12"/>
+      <c r="K157" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="L156" s="12">
+      <c r="L157" s="12">
         <v>5</v>
       </c>
-      <c r="M156" s="22">
+      <c r="M157" s="21">
         <f t="shared" si="1"/>
         <v>0.11363636363636363</v>
       </c>
-      <c r="N156" s="12" t="s">
+      <c r="N157" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="157" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F157">
+    <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="F158">
         <v>5771.4290000000001</v>
       </c>
-      <c r="G157">
+      <c r="G158">
         <f t="shared" si="0"/>
         <v>5771429</v>
       </c>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12" t="s">
+      <c r="J158" s="12"/>
+      <c r="K158" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="L157" s="12">
+      <c r="L158" s="12">
         <v>4</v>
       </c>
-      <c r="M157" s="22">
+      <c r="M158" s="21">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="N157" s="12" t="s">
+      <c r="N158" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="158" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F158">
+    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F159">
         <v>4160</v>
       </c>
-      <c r="G158">
+      <c r="G159">
         <f t="shared" si="0"/>
         <v>4160000</v>
       </c>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12" t="s">
+      <c r="J159" s="12"/>
+      <c r="K159" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="L158" s="12">
+      <c r="L159" s="12">
         <v>2</v>
       </c>
-      <c r="M158" s="22">
+      <c r="M159" s="21">
         <f t="shared" si="1"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="N158" s="12" t="s">
+      <c r="N159" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J159" s="12"/>
-      <c r="K159" s="12" t="s">
+    <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J160" s="12"/>
+      <c r="K160" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="L159" s="12">
+      <c r="L160" s="12">
         <v>1</v>
       </c>
-      <c r="M159" s="22">
+      <c r="M160" s="21">
         <f t="shared" si="1"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="N159" s="12" t="s">
+      <c r="N160" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="J160" s="12"/>
-      <c r="K160" s="12" t="s">
+    <row r="161" spans="10:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J161" s="12"/>
+      <c r="K161" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="L160" s="12">
+      <c r="L161" s="12">
         <v>1</v>
       </c>
-      <c r="M160" s="22">
+      <c r="M161" s="21">
         <f t="shared" si="1"/>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="N160" s="12" t="s">
+      <c r="N161" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="10:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="J161" s="21" t="s">
+    <row r="162" spans="10:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="J162" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K161" s="12" t="s">
+      <c r="K162" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L161" s="12">
+      <c r="L162" s="12">
         <v>25</v>
       </c>
-      <c r="M161" s="22">
+      <c r="M162" s="21">
         <f t="shared" si="1"/>
         <v>0.56818181818181823</v>
       </c>
-      <c r="N161" s="12" t="s">
+      <c r="N162" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="10:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="J162" s="12"/>
-      <c r="K162" s="12" t="s">
+    <row r="163" spans="10:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="J163" s="12"/>
+      <c r="K163" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="L162" s="12">
+      <c r="L163" s="12">
         <v>19</v>
       </c>
-      <c r="M162" s="22">
+      <c r="M163" s="21">
         <f t="shared" si="1"/>
         <v>0.43181818181818182</v>
       </c>
-      <c r="N162" s="12" t="s">
+      <c r="N163" s="12" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I98" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
-    <hyperlink ref="I71" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
+    <hyperlink ref="I99" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
+    <hyperlink ref="I72" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
     <hyperlink ref="V38" r:id="rId3" xr:uid="{ED172526-0E97-43E2-A64D-DA907E360DFD}"/>
     <hyperlink ref="V39" r:id="rId4" xr:uid="{CF26CCAF-6057-4BA7-8AE8-BFCF016D1F25}"/>
   </hyperlinks>
@@ -5867,11 +5932,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>6.0545639243965103E-2</v>
+        <v>7.8797321939715309E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.88762273178321971</v>
+        <v>0.87249022256407505</v>
       </c>
     </row>
   </sheetData>
@@ -5880,12 +5945,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6098,17 +6162,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6133,18 +6207,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702E7CF0-644C-46C1-8DB3-35044DF09BA5}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDB361C-5F0B-42B5-B2EE-50F5FC43E1E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +797,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -808,9 +830,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1456,43 +1475,43 @@
   <dimension ref="B1:V163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.26953125" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1680,7 +1699,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -1743,7 +1762,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>159</v>
       </c>
@@ -1806,7 +1825,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1869,7 +1888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>93</v>
       </c>
@@ -1995,7 +2014,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -2058,7 +2077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>160</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -2179,7 +2198,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -2243,7 +2262,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>201</v>
       </c>
@@ -2251,12 +2270,12 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="22" t="str">
+      <c r="F15" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>SMR</v>
       </c>
@@ -2276,7 +2295,7 @@
       <c r="M15">
         <v>90</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <v>136630</v>
       </c>
       <c r="P15" s="15">
@@ -2298,7 +2317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2377,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>162</v>
       </c>
@@ -2481,7 +2500,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -2549,7 +2568,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>133</v>
@@ -2601,7 +2620,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2661,7 +2680,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -2721,7 +2740,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
@@ -2782,7 +2801,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>45</v>
       </c>
@@ -2843,7 +2862,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>45</v>
       </c>
@@ -2904,7 +2923,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
         <v>163</v>
       </c>
@@ -2965,7 +2984,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
         <v>163</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>164</v>
       </c>
@@ -3087,7 +3106,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
         <v>164</v>
       </c>
@@ -3148,7 +3167,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
         <v>54</v>
       </c>
@@ -3207,7 +3226,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
         <v>54</v>
       </c>
@@ -3266,7 +3285,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
         <v>45</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>45</v>
       </c>
@@ -3449,7 +3468,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B35" s="12" t="s">
         <v>45</v>
       </c>
@@ -3510,7 +3529,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B36" s="12" t="s">
         <v>159</v>
       </c>
@@ -3571,7 +3590,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>159</v>
       </c>
@@ -3632,7 +3651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B38" s="12" t="s">
         <v>93</v>
       </c>
@@ -3696,7 +3715,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B39" s="12" t="s">
         <v>93</v>
       </c>
@@ -3760,7 +3779,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B40" s="12" t="s">
         <v>93</v>
       </c>
@@ -3821,7 +3840,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B41" s="12" t="s">
         <v>93</v>
       </c>
@@ -3882,7 +3901,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B42" s="12" t="s">
         <v>92</v>
       </c>
@@ -3943,7 +3962,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B43" s="12" t="s">
         <v>92</v>
       </c>
@@ -4004,7 +4023,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
@@ -4065,7 +4084,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
         <v>45</v>
       </c>
@@ -4126,7 +4145,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B46" s="12" t="s">
         <v>45</v>
       </c>
@@ -4187,7 +4206,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B47" s="12" t="s">
         <v>92</v>
       </c>
@@ -4250,7 +4269,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>164</v>
       </c>
@@ -4311,7 +4330,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -4335,7 +4354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>92</v>
       </c>
@@ -4359,7 +4378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>159</v>
       </c>
@@ -4383,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>159</v>
       </c>
@@ -4407,27 +4426,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F53" s="12"/>
       <c r="J53" s="16"/>
       <c r="K53" s="12"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F54" s="12"/>
       <c r="J54" s="16"/>
       <c r="K54" s="12"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D56" t="str" cm="1">
+        <f t="array" ref="D56:D64">_xlfn.UNIQUE(D4:D52)</f>
+        <v>BWR</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D57" t="str">
+        <v>PWR</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D58" t="str">
+        <v>HTR</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D59" t="str">
+        <v>HTGR</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D60" t="str">
+        <v>SFR</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D61" t="str">
+        <v>MSR</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D62" t="str">
+        <v>MSFR</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D63" t="str">
+        <v>MR</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="D64" t="str">
+        <v>LFR</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I72" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
@@ -4438,7 +4503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -4464,7 +4529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -4488,7 +4553,7 @@
         <v>2587500</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>54</v>
       </c>
@@ -4512,7 +4577,7 @@
         <v>6363914.1049661394</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>45</v>
       </c>
@@ -4536,7 +4601,7 @@
         <v>7259374.9999999991</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>86</v>
       </c>
@@ -4560,7 +4625,7 @@
         <v>10948554.579439251</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>45</v>
       </c>
@@ -4584,7 +4649,7 @@
         <v>3985899.9999999995</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>70</v>
       </c>
@@ -4608,7 +4673,7 @@
         <v>4403454.5454545449</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -4632,7 +4697,7 @@
         <v>12264749.999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -4656,7 +4721,7 @@
         <v>17020000.5390625</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -4680,7 +4745,7 @@
         <v>30932124.999999996</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>45</v>
       </c>
@@ -4704,7 +4769,7 @@
         <v>5408864.4339622641</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>85</v>
       </c>
@@ -4728,7 +4793,7 @@
         <v>6520499.9999999991</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -4752,7 +4817,7 @@
         <v>2160606.0606060605</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -4776,7 +4841,7 @@
         <v>5807500</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>93</v>
       </c>
@@ -4800,7 +4865,7 @@
         <v>26489716.399999999</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -4824,7 +4889,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>91</v>
       </c>
@@ -4848,7 +4913,7 @@
         <v>4662405.8999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>54</v>
       </c>
@@ -4872,7 +4937,7 @@
         <v>2242500</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>45</v>
       </c>
@@ -4896,7 +4961,7 @@
         <v>6637143.3499999996</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -4920,13 +4985,13 @@
         <v>4784000</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>4</v>
       </c>
@@ -4949,7 +5014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>45</v>
       </c>
@@ -4969,7 +5034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>45</v>
       </c>
@@ -4989,7 +5054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>45</v>
       </c>
@@ -5009,7 +5074,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>49</v>
       </c>
@@ -5029,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>49</v>
       </c>
@@ -5049,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>52</v>
       </c>
@@ -5069,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>52</v>
       </c>
@@ -5089,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -5106,7 +5171,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -5126,7 +5191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>45</v>
       </c>
@@ -5146,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>45</v>
       </c>
@@ -5166,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>45</v>
       </c>
@@ -5186,7 +5251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>45</v>
       </c>
@@ -5206,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>61</v>
       </c>
@@ -5223,7 +5288,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>61</v>
       </c>
@@ -5240,7 +5305,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>65</v>
       </c>
@@ -5257,7 +5322,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>65</v>
       </c>
@@ -5274,7 +5339,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
         <v>65</v>
       </c>
@@ -5291,7 +5356,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>65</v>
       </c>
@@ -5308,7 +5373,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
         <v>70</v>
       </c>
@@ -5325,7 +5390,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
         <v>70</v>
       </c>
@@ -5342,7 +5407,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
         <v>45</v>
       </c>
@@ -5362,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
         <v>45</v>
       </c>
@@ -5382,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
         <v>45</v>
       </c>
@@ -5399,7 +5464,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
         <v>70</v>
       </c>
@@ -5416,7 +5481,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
         <v>52</v>
       </c>
@@ -5433,12 +5498,12 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F142">
         <v>2250</v>
       </c>
@@ -5447,7 +5512,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F143">
         <v>5215.9369999999999</v>
       </c>
@@ -5456,7 +5521,7 @@
         <v>5215937</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F144">
         <v>6312.5</v>
       </c>
@@ -5465,7 +5530,7 @@
         <v>6312500</v>
       </c>
     </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F145">
         <v>8000</v>
       </c>
@@ -5474,7 +5539,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F146">
         <v>3600</v>
       </c>
@@ -5483,7 +5548,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F147">
         <v>4212</v>
       </c>
@@ -5492,7 +5557,7 @@
         <v>4212000</v>
       </c>
     </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F148">
         <v>8532</v>
       </c>
@@ -5501,7 +5566,7 @@
         <v>8532000</v>
       </c>
     </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F149">
         <v>13531.429</v>
       </c>
@@ -5510,7 +5575,7 @@
         <v>13531429</v>
       </c>
     </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F150">
         <v>23187.5</v>
       </c>
@@ -5519,7 +5584,7 @@
         <v>23187500</v>
       </c>
     </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F151">
         <v>4373.3</v>
       </c>
@@ -5528,7 +5593,7 @@
         <v>4373300</v>
       </c>
     </row>
-    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F152">
         <v>3270</v>
       </c>
@@ -5552,7 +5617,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F153">
         <v>5050</v>
       </c>
@@ -5577,7 +5642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:14" ht="58" x14ac:dyDescent="0.35">
       <c r="F154">
         <v>19350</v>
       </c>
@@ -5600,7 +5665,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:14" ht="58" x14ac:dyDescent="0.35">
       <c r="F155">
         <v>6900</v>
       </c>
@@ -5623,7 +5688,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F156">
         <v>4054.2660000000001</v>
       </c>
@@ -5648,7 +5713,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F157">
         <v>1950</v>
       </c>
@@ -5671,7 +5736,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F158">
         <v>5771.4290000000001</v>
       </c>
@@ -5694,7 +5759,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F159">
         <v>4160</v>
       </c>
@@ -5717,7 +5782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="J160" s="12"/>
       <c r="K160" s="12" t="s">
         <v>192</v>
@@ -5733,7 +5798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="10:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:14" ht="29" x14ac:dyDescent="0.35">
       <c r="J161" s="12"/>
       <c r="K161" s="12" t="s">
         <v>194</v>
@@ -5749,7 +5814,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="10:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="J162" s="20" t="s">
         <v>196</v>
       </c>
@@ -5767,7 +5832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="10:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
         <v>199</v>
@@ -5809,13 +5874,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5823,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -5834,7 +5899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -5845,7 +5910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>115</v>
       </c>
@@ -5859,7 +5924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>116</v>
       </c>
@@ -5873,7 +5938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>117</v>
       </c>
@@ -5884,7 +5949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>127</v>
       </c>
@@ -5905,14 +5970,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -5926,17 +5991,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>7.8797321939715309E-2</v>
+        <v>0.14781379942445699</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.87249022256407505</v>
+        <v>0.90973758868530497</v>
       </c>
     </row>
   </sheetData>
@@ -5945,11 +6010,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6162,27 +6228,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6207,9 +6263,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDB361C-5F0B-42B5-B2EE-50F5FC43E1E0}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B6CFE5C-976C-469F-A58E-4527AD6F187B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="222">
   <si>
     <t>specifications</t>
   </si>
@@ -666,6 +644,66 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>Weibezahn 2024</t>
+  </si>
+  <si>
+    <t>Weibezahn 2025</t>
+  </si>
+  <si>
+    <t>Weibezahn 2026</t>
+  </si>
+  <si>
+    <t>Weibezahn 2027</t>
+  </si>
+  <si>
+    <t>Weibezahn 2028</t>
+  </si>
+  <si>
+    <t>Weibezahn 2029</t>
+  </si>
+  <si>
+    <t>Weibezahn 2030</t>
+  </si>
+  <si>
+    <t>Weibezahn 2031</t>
+  </si>
+  <si>
+    <t>Weibezahn 2032</t>
+  </si>
+  <si>
+    <t>Weibezahn 2033</t>
+  </si>
+  <si>
+    <t>Large PWR (REF)</t>
+  </si>
+  <si>
+    <t>large SFR (REF)</t>
+  </si>
+  <si>
+    <t>large HTR (REF)</t>
+  </si>
+  <si>
+    <t>large BWR (REF)</t>
+  </si>
+  <si>
+    <t>Large MSR (REF)</t>
+  </si>
+  <si>
+    <t>MicroPWR (REF)</t>
+  </si>
+  <si>
+    <t>Micro SFR (REF)</t>
+  </si>
+  <si>
+    <t>Micro HTR (REF)</t>
+  </si>
+  <si>
+    <t>Micro BWR (REF)</t>
+  </si>
+  <si>
+    <t>MicroMSR (REF)</t>
   </si>
 </sst>
 </file>
@@ -679,7 +717,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,8 +775,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,13 +822,56 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -797,7 +884,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -833,6 +920,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1079,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U54" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B3:U54" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}" name="Table2" displayName="Table2" ref="B3:U70" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B3:U70" xr:uid="{5DC091FB-B439-465C-9D43-FF31224A7D64}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{F92BB8DD-D241-4839-9FAF-66032DFBA1DF}" name="Country"/>
     <tableColumn id="2" xr3:uid="{BE5F5CB4-0A57-4202-B592-12545CA65EB2}" name="Project"/>
@@ -1472,46 +1601,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
-  <dimension ref="B1:V163"/>
+  <dimension ref="B1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" customWidth="1"/>
-    <col min="16" max="16" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1636,7 +1765,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1699,7 +1828,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -1762,7 +1891,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>159</v>
       </c>
@@ -1825,7 +1954,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -1888,7 +2017,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -1951,7 +2080,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>93</v>
       </c>
@@ -2014,7 +2143,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -2077,7 +2206,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>160</v>
       </c>
@@ -2137,7 +2266,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>161</v>
       </c>
@@ -2198,7 +2327,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -2262,7 +2391,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>201</v>
       </c>
@@ -2317,7 +2446,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>91</v>
       </c>
@@ -2377,7 +2506,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -2440,7 +2569,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>162</v>
       </c>
@@ -2500,7 +2629,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2560,7 +2689,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -2620,7 +2749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2680,7 +2809,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -2740,44 +2869,35 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="12" t="str">
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <v>935</v>
-      </c>
-      <c r="I23" s="12">
-        <v>9723</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="G23">
+        <v>1200</v>
+      </c>
+      <c r="H23">
+        <v>1200</v>
+      </c>
+      <c r="I23">
+        <v>6000</v>
+      </c>
+      <c r="J23" s="13">
         <v>5</v>
       </c>
-      <c r="K23" s="12">
-        <v>12.1</v>
-      </c>
-      <c r="L23" s="12">
-        <v>40</v>
-      </c>
-      <c r="M23">
-        <v>90</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>108</v>
+      <c r="K23" s="12"/>
+      <c r="L23">
+        <v>60</v>
       </c>
       <c r="O23" s="11">
         <v>100000</v>
@@ -2791,54 +2911,45 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23">
         <v>15</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="U23" s="12">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
+      <c r="T23" t="s">
+        <v>202</v>
+      </c>
+      <c r="U23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="12" t="str">
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <v>1053</v>
-      </c>
-      <c r="I24" s="12">
-        <v>10608</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="G24">
+        <v>1200</v>
+      </c>
+      <c r="H24">
+        <v>1200</v>
+      </c>
+      <c r="I24">
+        <v>6000</v>
+      </c>
+      <c r="J24" s="13">
         <v>5</v>
       </c>
-      <c r="K24" s="12">
-        <v>16</v>
-      </c>
-      <c r="L24" s="12">
-        <v>40</v>
-      </c>
-      <c r="M24">
-        <v>90</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>108</v>
+      <c r="K24" s="12"/>
+      <c r="L24">
+        <v>60</v>
       </c>
       <c r="O24" s="11">
         <v>100000</v>
@@ -2852,54 +2963,45 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24">
         <v>15</v>
       </c>
-      <c r="T24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="U24" s="12">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="B25" s="12" t="s">
+      <c r="T24" t="s">
+        <v>203</v>
+      </c>
+      <c r="U24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="12" t="str">
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <v>919</v>
-      </c>
-      <c r="I25" s="12">
-        <v>8974</v>
-      </c>
-      <c r="J25" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="K25" s="12">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L25" s="12">
-        <v>40</v>
-      </c>
-      <c r="M25">
-        <v>90</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>108</v>
+      <c r="G25">
+        <v>1200</v>
+      </c>
+      <c r="H25">
+        <v>1200</v>
+      </c>
+      <c r="I25">
+        <v>6000</v>
+      </c>
+      <c r="J25" s="13">
+        <v>5</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25">
+        <v>60</v>
       </c>
       <c r="O25" s="11">
         <v>100000</v>
@@ -2913,54 +3015,45 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25">
         <v>15</v>
       </c>
-      <c r="T25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="U25" s="12">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B26" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="12" t="str">
+      <c r="T25" t="s">
+        <v>204</v>
+      </c>
+      <c r="U25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
-        <v>1600</v>
-      </c>
-      <c r="I26" s="12">
-        <v>7983</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="G26">
+        <v>1200</v>
+      </c>
+      <c r="H26">
+        <v>1200</v>
+      </c>
+      <c r="I26">
+        <v>6000</v>
+      </c>
+      <c r="J26" s="13">
         <v>5</v>
       </c>
-      <c r="K26" s="12">
-        <v>17</v>
-      </c>
-      <c r="L26" s="12">
+      <c r="K26" s="12"/>
+      <c r="L26">
         <v>60</v>
-      </c>
-      <c r="M26">
-        <v>90</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="O26" s="11">
         <v>100000</v>
@@ -2974,54 +3067,45 @@
       <c r="R26">
         <v>1</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26">
         <v>15</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U26" s="12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B27" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="12" t="str">
+      <c r="T26" t="s">
+        <v>205</v>
+      </c>
+      <c r="U26">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>Large</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <v>1630</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5733</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="G27">
+        <v>1200</v>
+      </c>
+      <c r="H27">
+        <v>1200</v>
+      </c>
+      <c r="I27">
+        <v>6000</v>
+      </c>
+      <c r="J27" s="13">
         <v>5</v>
       </c>
-      <c r="K27" s="12">
-        <v>17</v>
-      </c>
-      <c r="L27" s="12">
+      <c r="K27" s="12"/>
+      <c r="L27">
         <v>60</v>
-      </c>
-      <c r="M27">
-        <v>90</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="O27" s="11">
         <v>100000</v>
@@ -3035,1464 +3119,821 @@
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27">
         <v>15</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U27" s="12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="T27" t="s">
+        <v>206</v>
+      </c>
+      <c r="U27">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="12" t="str">
+      <c r="F28" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
-        <v>1600</v>
-      </c>
-      <c r="I28" s="12">
-        <v>9270</v>
-      </c>
-      <c r="J28" s="17">
-        <v>5</v>
-      </c>
-      <c r="K28" s="12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L28" s="12">
+        <v>Micro</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>6000</v>
+      </c>
+      <c r="J28" s="13">
+        <v>3</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28">
         <v>60</v>
       </c>
-      <c r="M28">
-        <v>90</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="O28" s="11">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28">
         <v>15</v>
       </c>
-      <c r="T28" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U28" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="12" t="str">
+      <c r="T28" t="s">
+        <v>207</v>
+      </c>
+      <c r="U28">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <v>1600</v>
-      </c>
-      <c r="I29" s="12">
-        <v>8620</v>
-      </c>
-      <c r="J29" s="17">
-        <v>5</v>
-      </c>
-      <c r="K29" s="12">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L29" s="12">
+        <v>Micro</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>6000</v>
+      </c>
+      <c r="J29" s="13">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29">
         <v>60</v>
       </c>
-      <c r="M29">
-        <v>90</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="O29" s="11">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29">
         <v>15</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U29" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="12" t="str">
+      <c r="T29" t="s">
+        <v>208</v>
+      </c>
+      <c r="U29">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12">
-        <v>1630</v>
-      </c>
-      <c r="I30" s="12">
-        <v>8549</v>
-      </c>
-      <c r="J30" s="17">
-        <v>7</v>
+        <v>Micro</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>6000</v>
+      </c>
+      <c r="J30" s="13">
+        <v>3</v>
       </c>
       <c r="K30" s="12"/>
-      <c r="L30" s="12">
+      <c r="L30">
         <v>60</v>
       </c>
-      <c r="M30">
-        <v>90</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="O30" s="11">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30">
         <v>15</v>
       </c>
-      <c r="T30" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U30" s="12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="12" t="str">
+      <c r="T30" t="s">
+        <v>209</v>
+      </c>
+      <c r="U30">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12">
-        <v>1630</v>
-      </c>
-      <c r="I31" s="12">
-        <v>8549</v>
-      </c>
-      <c r="J31" s="17">
-        <v>7</v>
+        <v>Micro</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>6000</v>
+      </c>
+      <c r="J31" s="13">
+        <v>3</v>
       </c>
       <c r="K31" s="12"/>
-      <c r="L31" s="12">
+      <c r="L31">
         <v>60</v>
       </c>
-      <c r="M31">
-        <v>90</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="O31" s="11">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31">
         <v>15</v>
       </c>
-      <c r="T31" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U31" s="12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
+      <c r="T31" t="s">
+        <v>210</v>
+      </c>
+      <c r="U31">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="12" t="str">
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
-        <v>1117</v>
-      </c>
-      <c r="I32" s="12">
-        <v>11330</v>
-      </c>
-      <c r="J32" s="17">
-        <v>4</v>
-      </c>
-      <c r="K32" s="12">
-        <v>14</v>
-      </c>
-      <c r="L32" s="12">
+        <v>Micro</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32">
+        <v>6000</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32">
         <v>60</v>
       </c>
-      <c r="M32">
-        <v>90</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="O32" s="11">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="P32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32">
         <v>15</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U32" s="12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12">
-        <v>1117</v>
-      </c>
-      <c r="I33" s="12">
-        <v>11330</v>
-      </c>
-      <c r="J33" s="17">
-        <v>4</v>
-      </c>
-      <c r="K33" s="12">
-        <v>15</v>
-      </c>
-      <c r="L33" s="12">
-        <v>60</v>
-      </c>
-      <c r="M33">
-        <v>90</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P33">
-        <v>5</v>
-      </c>
-      <c r="Q33">
-        <v>20</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="12">
-        <v>15</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U33" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B34" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12">
-        <v>1117</v>
-      </c>
-      <c r="I34" s="12">
-        <v>8600</v>
-      </c>
-      <c r="J34" s="17">
-        <v>4</v>
-      </c>
-      <c r="K34" s="12">
-        <v>14</v>
-      </c>
-      <c r="L34" s="12">
-        <v>60</v>
-      </c>
-      <c r="M34">
-        <v>90</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="Q34">
-        <v>20</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="12">
-        <v>15</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U34" s="12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12">
-        <v>1117</v>
-      </c>
-      <c r="I35" s="12">
-        <v>8600</v>
-      </c>
-      <c r="J35" s="17">
-        <v>4</v>
-      </c>
-      <c r="K35" s="12">
-        <v>15</v>
-      </c>
-      <c r="L35" s="12">
-        <v>60</v>
-      </c>
-      <c r="M35">
-        <v>90</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P35">
-        <v>5</v>
-      </c>
-      <c r="Q35">
-        <v>20</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="12">
-        <v>15</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U35" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12">
-        <v>1340</v>
-      </c>
-      <c r="I36" s="12">
-        <v>2410</v>
-      </c>
-      <c r="J36" s="17">
-        <v>5</v>
-      </c>
-      <c r="K36" s="12">
-        <v>8.18</v>
-      </c>
-      <c r="L36" s="12">
-        <v>60</v>
-      </c>
-      <c r="M36">
-        <v>90</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>20</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36" s="12">
-        <v>15</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U36" s="12">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B37" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12">
-        <v>1340</v>
-      </c>
-      <c r="I37" s="12">
-        <v>2410</v>
-      </c>
-      <c r="J37" s="17">
-        <v>5</v>
-      </c>
-      <c r="K37" s="12">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="L37" s="12">
-        <v>60</v>
-      </c>
-      <c r="M37">
-        <v>90</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O37" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="12">
-        <v>15</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U37" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="12">
-        <v>3154</v>
-      </c>
-      <c r="J38" s="17">
-        <v>5</v>
-      </c>
-      <c r="K38" s="12">
-        <v>9</v>
-      </c>
-      <c r="L38" s="12">
-        <v>60</v>
-      </c>
-      <c r="M38">
-        <v>90</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P38">
-        <v>5</v>
-      </c>
-      <c r="Q38">
-        <v>20</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="12">
-        <v>15</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U38" s="12">
-        <v>2018</v>
-      </c>
+      <c r="T32" t="s">
+        <v>211</v>
+      </c>
+      <c r="U32">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F33" s="29"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F34" s="29"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F35" s="29"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F36" s="29"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F37" s="29"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F38" s="29"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="12"/>
       <c r="V38" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B39" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="12">
-        <v>3154</v>
-      </c>
-      <c r="J39" s="17">
-        <v>5</v>
-      </c>
-      <c r="K39" s="12">
-        <v>9</v>
-      </c>
-      <c r="L39" s="12">
-        <v>60</v>
-      </c>
-      <c r="M39">
-        <v>90</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39">
-        <v>20</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="12">
-        <v>15</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U39" s="12">
-        <v>2018</v>
-      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="11"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
       <c r="V39" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="12">
-        <v>1660</v>
-      </c>
-      <c r="I40" s="12">
-        <v>3222</v>
-      </c>
-      <c r="J40" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="K40" s="12">
-        <v>9.1</v>
-      </c>
-      <c r="L40" s="12">
-        <v>60</v>
-      </c>
-      <c r="M40">
-        <v>90</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P40">
-        <v>5</v>
-      </c>
-      <c r="Q40">
-        <v>20</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="12">
-        <v>15</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U40" s="12">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B41" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="11"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12">
-        <v>1660</v>
-      </c>
-      <c r="I41" s="12">
-        <v>3222</v>
-      </c>
-      <c r="J41" s="17">
-        <v>4.5</v>
-      </c>
-      <c r="K41" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="L41" s="12">
-        <v>60</v>
-      </c>
-      <c r="M41">
-        <v>90</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P41">
-        <v>5</v>
-      </c>
-      <c r="Q41">
-        <v>20</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="12">
-        <v>15</v>
-      </c>
-      <c r="T41" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U41" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="12">
-        <v>1144</v>
-      </c>
-      <c r="I42" s="12">
-        <v>2244</v>
-      </c>
-      <c r="J42" s="17">
-        <v>6</v>
-      </c>
-      <c r="K42" s="12">
-        <v>8.68</v>
-      </c>
-      <c r="L42" s="12">
-        <v>60</v>
-      </c>
-      <c r="M42">
-        <v>90</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P42">
-        <v>5</v>
-      </c>
-      <c r="Q42">
-        <v>20</v>
-      </c>
-      <c r="R42">
-        <v>1</v>
-      </c>
-      <c r="S42" s="12">
-        <v>15</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U42" s="12">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B43" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="11"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="12">
-        <v>1144</v>
-      </c>
-      <c r="I43" s="12">
-        <v>2244</v>
-      </c>
-      <c r="J43" s="17">
-        <v>7</v>
-      </c>
-      <c r="K43" s="12">
-        <v>10.31</v>
-      </c>
-      <c r="L43" s="12">
-        <v>60</v>
-      </c>
-      <c r="M43">
-        <v>90</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O43" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43">
-        <v>20</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43" s="12">
-        <v>15</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U43" s="12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B44" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>SMR</v>
-      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="12">
-        <v>200</v>
-      </c>
-      <c r="I44" s="12">
-        <v>7195</v>
-      </c>
-      <c r="J44" s="17">
-        <v>6</v>
-      </c>
-      <c r="K44" s="12">
-        <v>10.83</v>
-      </c>
-      <c r="L44" s="12">
-        <v>40</v>
-      </c>
-      <c r="M44">
-        <v>90</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O44" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P44">
-        <v>5</v>
-      </c>
-      <c r="Q44">
-        <v>20</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="12">
-        <v>15</v>
-      </c>
-      <c r="T44" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U44" s="12">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B45" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>SMR</v>
-      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="11"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="12">
-        <v>200</v>
-      </c>
-      <c r="I45" s="12">
-        <v>8108</v>
-      </c>
-      <c r="J45" s="17">
-        <v>6</v>
-      </c>
-      <c r="K45" s="12">
-        <v>10.83</v>
-      </c>
-      <c r="L45" s="12">
-        <v>40</v>
-      </c>
-      <c r="M45">
-        <v>90</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O45" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="Q45">
-        <v>20</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45" s="12">
-        <v>15</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U45" s="12">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Micro</v>
-      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="11"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="12">
-        <v>46</v>
-      </c>
-      <c r="I46" s="12">
-        <v>1197</v>
-      </c>
-      <c r="J46" s="17">
-        <v>6</v>
-      </c>
-      <c r="K46" s="12">
-        <v>5.33</v>
-      </c>
-      <c r="L46" s="12">
-        <v>40</v>
-      </c>
-      <c r="M46">
-        <v>90</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O46" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P46">
-        <v>5</v>
-      </c>
-      <c r="Q46">
-        <v>20</v>
-      </c>
-      <c r="R46">
-        <v>1</v>
-      </c>
-      <c r="S46" s="12">
-        <v>15</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U46" s="12">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="G47" s="12">
-        <v>820</v>
-      </c>
-      <c r="H47" s="12">
-        <v>885</v>
-      </c>
-      <c r="I47" s="12">
-        <v>2501</v>
-      </c>
-      <c r="J47" s="18">
-        <v>8</v>
-      </c>
-      <c r="K47" s="12">
-        <v>8</v>
-      </c>
-      <c r="L47" s="12">
-        <v>60</v>
-      </c>
-      <c r="M47">
-        <v>90</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P47">
-        <v>5</v>
-      </c>
-      <c r="Q47">
-        <v>20</v>
-      </c>
-      <c r="R47">
-        <v>1</v>
-      </c>
-      <c r="S47" s="12">
-        <v>15</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U47" s="12">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B48" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="11"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="12">
-        <v>1250</v>
-      </c>
-      <c r="I48" s="12">
-        <v>6145</v>
-      </c>
-      <c r="J48" s="18">
-        <v>7</v>
-      </c>
-      <c r="K48" s="12">
-        <v>10</v>
-      </c>
-      <c r="L48" s="12">
-        <v>40</v>
-      </c>
-      <c r="M48">
-        <v>90</v>
-      </c>
-      <c r="N48" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O48" s="11">
-        <v>100000</v>
-      </c>
-      <c r="P48">
-        <v>5</v>
-      </c>
-      <c r="Q48">
-        <v>20</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="S48" s="12">
-        <v>15</v>
-      </c>
-      <c r="T48" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="U48" s="12">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="H49">
-        <v>1200</v>
-      </c>
-      <c r="J49" s="16">
-        <v>5</v>
-      </c>
-      <c r="K49" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="H50">
-        <v>1200</v>
-      </c>
-      <c r="J50" s="16">
-        <v>6</v>
-      </c>
-      <c r="K50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="H51">
-        <v>1400</v>
-      </c>
-      <c r="J51" s="16">
-        <v>5</v>
-      </c>
-      <c r="K51" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="12" t="str">
-        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
-        <v>Large</v>
-      </c>
-      <c r="H52">
-        <v>1400</v>
-      </c>
-      <c r="J52" s="16">
-        <v>5</v>
-      </c>
-      <c r="K52" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F53" s="12"/>
-      <c r="J53" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="11"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="11"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="11"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="11"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="11"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="12"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F54" s="12"/>
-      <c r="J54" s="16"/>
+      <c r="L53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="11"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="12"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D56" t="str" cm="1">
-        <f t="array" ref="D56:D64">_xlfn.UNIQUE(D4:D52)</f>
-        <v>BWR</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D57" t="str">
-        <v>PWR</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D58" t="str">
-        <v>HTR</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D59" t="str">
-        <v>HTGR</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D60" t="str">
-        <v>SFR</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D61" t="str">
-        <v>MSR</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D62" t="str">
-        <v>MSFR</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D63" t="str">
-        <v>MR</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D64" t="str">
-        <v>LFR</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="L54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="11"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="11"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="11"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="11"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="11"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="11"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="11"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="11"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="11"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="11"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="11"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F65" s="12"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F66" s="12"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F67" s="12"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F68" s="12"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F69" s="12"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F70" s="12"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I72" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
@@ -4503,7 +3944,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -4529,7 +3970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -4553,7 +3994,7 @@
         <v>2587500</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>54</v>
       </c>
@@ -4577,7 +4018,7 @@
         <v>6363914.1049661394</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>45</v>
       </c>
@@ -4601,7 +4042,7 @@
         <v>7259374.9999999991</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>86</v>
       </c>
@@ -4625,7 +4066,7 @@
         <v>10948554.579439251</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>45</v>
       </c>
@@ -4649,7 +4090,7 @@
         <v>3985899.9999999995</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>70</v>
       </c>
@@ -4673,7 +4114,7 @@
         <v>4403454.5454545449</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -4697,7 +4138,7 @@
         <v>12264749.999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -4721,7 +4162,7 @@
         <v>17020000.5390625</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -4745,7 +4186,7 @@
         <v>30932124.999999996</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>45</v>
       </c>
@@ -4769,7 +4210,7 @@
         <v>5408864.4339622641</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>85</v>
       </c>
@@ -4793,7 +4234,7 @@
         <v>6520499.9999999991</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -4817,7 +4258,7 @@
         <v>2160606.0606060605</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -4841,7 +4282,7 @@
         <v>5807500</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>93</v>
       </c>
@@ -4865,7 +4306,7 @@
         <v>26489716.399999999</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -4889,7 +4330,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>91</v>
       </c>
@@ -4913,7 +4354,7 @@
         <v>4662405.8999999994</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>54</v>
       </c>
@@ -4937,7 +4378,7 @@
         <v>2242500</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>45</v>
       </c>
@@ -4961,7 +4402,7 @@
         <v>6637143.3499999996</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -4985,13 +4426,13 @@
         <v>4784000</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +4455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>45</v>
       </c>
@@ -5034,7 +4475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>45</v>
       </c>
@@ -5054,7 +4495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>45</v>
       </c>
@@ -5074,7 +4515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>49</v>
       </c>
@@ -5094,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>49</v>
       </c>
@@ -5114,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>52</v>
       </c>
@@ -5134,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>52</v>
       </c>
@@ -5154,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -5171,7 +4612,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -5191,7 +4632,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>45</v>
       </c>
@@ -5211,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>45</v>
       </c>
@@ -5231,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>45</v>
       </c>
@@ -5251,7 +4692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>45</v>
       </c>
@@ -5271,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>61</v>
       </c>
@@ -5288,7 +4729,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>61</v>
       </c>
@@ -5305,7 +4746,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>65</v>
       </c>
@@ -5322,7 +4763,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>65</v>
       </c>
@@ -5339,7 +4780,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>65</v>
       </c>
@@ -5356,7 +4797,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>65</v>
       </c>
@@ -5373,7 +4814,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>70</v>
       </c>
@@ -5390,7 +4831,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>70</v>
       </c>
@@ -5407,7 +4848,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>45</v>
       </c>
@@ -5427,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>45</v>
       </c>
@@ -5447,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>45</v>
       </c>
@@ -5464,7 +4905,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>70</v>
       </c>
@@ -5481,7 +4922,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>52</v>
       </c>
@@ -5498,12 +4939,12 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F142">
         <v>2250</v>
       </c>
@@ -5512,7 +4953,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F143">
         <v>5215.9369999999999</v>
       </c>
@@ -5521,7 +4962,7 @@
         <v>5215937</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F144">
         <v>6312.5</v>
       </c>
@@ -5530,7 +4971,7 @@
         <v>6312500</v>
       </c>
     </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F145">
         <v>8000</v>
       </c>
@@ -5539,7 +4980,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F146">
         <v>3600</v>
       </c>
@@ -5548,7 +4989,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F147">
         <v>4212</v>
       </c>
@@ -5557,7 +4998,7 @@
         <v>4212000</v>
       </c>
     </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F148">
         <v>8532</v>
       </c>
@@ -5566,7 +5007,7 @@
         <v>8532000</v>
       </c>
     </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F149">
         <v>13531.429</v>
       </c>
@@ -5575,7 +5016,7 @@
         <v>13531429</v>
       </c>
     </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F150">
         <v>23187.5</v>
       </c>
@@ -5584,7 +5025,7 @@
         <v>23187500</v>
       </c>
     </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F151">
         <v>4373.3</v>
       </c>
@@ -5593,7 +5034,7 @@
         <v>4373300</v>
       </c>
     </row>
-    <row r="152" spans="6:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F152">
         <v>3270</v>
       </c>
@@ -5617,7 +5058,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
       <c r="F153">
         <v>5050</v>
       </c>
@@ -5642,7 +5083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="6:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
       <c r="F154">
         <v>19350</v>
       </c>
@@ -5665,7 +5106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="6:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
       <c r="F155">
         <v>6900</v>
       </c>
@@ -5688,7 +5129,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="156" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
       <c r="F156">
         <v>4054.2660000000001</v>
       </c>
@@ -5713,7 +5154,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="157" spans="6:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F157">
         <v>1950</v>
       </c>
@@ -5736,7 +5177,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="6:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
       <c r="F158">
         <v>5771.4290000000001</v>
       </c>
@@ -5759,7 +5200,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="6:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F159">
         <v>4160</v>
       </c>
@@ -5782,7 +5223,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="160" spans="6:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="J160" s="12"/>
       <c r="K160" s="12" t="s">
         <v>192</v>
@@ -5798,7 +5239,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="10:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J161" s="12"/>
       <c r="K161" s="12" t="s">
         <v>194</v>
@@ -5814,7 +5255,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="10:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J162" s="20" t="s">
         <v>196</v>
       </c>
@@ -5832,7 +5273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="10:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:23" ht="60" x14ac:dyDescent="0.25">
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
         <v>199</v>
@@ -5848,7 +5289,1784 @@
         <v>200</v>
       </c>
     </row>
+    <row r="170" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D170" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F170" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H170" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I170" s="31"/>
+      <c r="J170" s="31">
+        <v>935</v>
+      </c>
+      <c r="K170" s="31">
+        <v>9723</v>
+      </c>
+      <c r="L170" s="33">
+        <v>5</v>
+      </c>
+      <c r="M170" s="31">
+        <v>12.1</v>
+      </c>
+      <c r="N170" s="31">
+        <v>40</v>
+      </c>
+      <c r="O170" s="27">
+        <v>90</v>
+      </c>
+      <c r="P170" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q170" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R170" s="27">
+        <v>5</v>
+      </c>
+      <c r="S170" s="27">
+        <v>20</v>
+      </c>
+      <c r="T170" s="27">
+        <v>1</v>
+      </c>
+      <c r="U170" s="31">
+        <v>15</v>
+      </c>
+      <c r="V170" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="W170" s="35">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="171" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D171" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F171" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H171" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37">
+        <v>1053</v>
+      </c>
+      <c r="K171" s="37">
+        <v>10608</v>
+      </c>
+      <c r="L171" s="33">
+        <v>5</v>
+      </c>
+      <c r="M171" s="37">
+        <v>16</v>
+      </c>
+      <c r="N171" s="37">
+        <v>40</v>
+      </c>
+      <c r="O171" s="24">
+        <v>90</v>
+      </c>
+      <c r="P171" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q171" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R171" s="24">
+        <v>5</v>
+      </c>
+      <c r="S171" s="24">
+        <v>20</v>
+      </c>
+      <c r="T171" s="24">
+        <v>1</v>
+      </c>
+      <c r="U171" s="37">
+        <v>15</v>
+      </c>
+      <c r="V171" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="W171" s="40">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="172" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D172" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H172" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I172" s="31"/>
+      <c r="J172" s="31">
+        <v>919</v>
+      </c>
+      <c r="K172" s="31">
+        <v>8974</v>
+      </c>
+      <c r="L172" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="M172" s="31">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N172" s="31">
+        <v>40</v>
+      </c>
+      <c r="O172" s="27">
+        <v>90</v>
+      </c>
+      <c r="P172" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q172" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R172" s="27">
+        <v>5</v>
+      </c>
+      <c r="S172" s="27">
+        <v>20</v>
+      </c>
+      <c r="T172" s="27">
+        <v>1</v>
+      </c>
+      <c r="U172" s="31">
+        <v>15</v>
+      </c>
+      <c r="V172" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="W172" s="35">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="173" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D173" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F173" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H173" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37">
+        <v>1600</v>
+      </c>
+      <c r="K173" s="37">
+        <v>7983</v>
+      </c>
+      <c r="L173" s="33">
+        <v>5</v>
+      </c>
+      <c r="M173" s="37">
+        <v>17</v>
+      </c>
+      <c r="N173" s="37">
+        <v>60</v>
+      </c>
+      <c r="O173" s="24">
+        <v>90</v>
+      </c>
+      <c r="P173" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q173" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R173" s="24">
+        <v>5</v>
+      </c>
+      <c r="S173" s="24">
+        <v>20</v>
+      </c>
+      <c r="T173" s="24">
+        <v>1</v>
+      </c>
+      <c r="U173" s="37">
+        <v>15</v>
+      </c>
+      <c r="V173" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W173" s="40">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="174" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D174" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H174" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I174" s="31"/>
+      <c r="J174" s="31">
+        <v>1630</v>
+      </c>
+      <c r="K174" s="31">
+        <v>5733</v>
+      </c>
+      <c r="L174" s="33">
+        <v>5</v>
+      </c>
+      <c r="M174" s="31">
+        <v>17</v>
+      </c>
+      <c r="N174" s="31">
+        <v>60</v>
+      </c>
+      <c r="O174" s="27">
+        <v>90</v>
+      </c>
+      <c r="P174" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q174" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R174" s="27">
+        <v>5</v>
+      </c>
+      <c r="S174" s="27">
+        <v>20</v>
+      </c>
+      <c r="T174" s="27">
+        <v>1</v>
+      </c>
+      <c r="U174" s="31">
+        <v>15</v>
+      </c>
+      <c r="V174" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W174" s="35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="175" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D175" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H175" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37">
+        <v>1600</v>
+      </c>
+      <c r="K175" s="37">
+        <v>9270</v>
+      </c>
+      <c r="L175" s="33">
+        <v>5</v>
+      </c>
+      <c r="M175" s="37">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N175" s="37">
+        <v>60</v>
+      </c>
+      <c r="O175" s="24">
+        <v>90</v>
+      </c>
+      <c r="P175" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q175" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R175" s="24">
+        <v>5</v>
+      </c>
+      <c r="S175" s="24">
+        <v>20</v>
+      </c>
+      <c r="T175" s="24">
+        <v>1</v>
+      </c>
+      <c r="U175" s="37">
+        <v>15</v>
+      </c>
+      <c r="V175" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W175" s="40">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="176" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D176" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H176" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I176" s="31"/>
+      <c r="J176" s="31">
+        <v>1600</v>
+      </c>
+      <c r="K176" s="31">
+        <v>8620</v>
+      </c>
+      <c r="L176" s="33">
+        <v>5</v>
+      </c>
+      <c r="M176" s="31">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="N176" s="31">
+        <v>60</v>
+      </c>
+      <c r="O176" s="27">
+        <v>90</v>
+      </c>
+      <c r="P176" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q176" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R176" s="27">
+        <v>5</v>
+      </c>
+      <c r="S176" s="27">
+        <v>20</v>
+      </c>
+      <c r="T176" s="27">
+        <v>1</v>
+      </c>
+      <c r="U176" s="31">
+        <v>15</v>
+      </c>
+      <c r="V176" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W176" s="35">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="177" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D177" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H177" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37">
+        <v>1630</v>
+      </c>
+      <c r="K177" s="37">
+        <v>8549</v>
+      </c>
+      <c r="L177" s="33">
+        <v>7</v>
+      </c>
+      <c r="M177" s="37"/>
+      <c r="N177" s="37">
+        <v>60</v>
+      </c>
+      <c r="O177" s="24">
+        <v>90</v>
+      </c>
+      <c r="P177" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q177" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R177" s="24">
+        <v>5</v>
+      </c>
+      <c r="S177" s="24">
+        <v>20</v>
+      </c>
+      <c r="T177" s="24">
+        <v>1</v>
+      </c>
+      <c r="U177" s="37">
+        <v>15</v>
+      </c>
+      <c r="V177" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W177" s="40">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="178" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D178" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H178" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31">
+        <v>1630</v>
+      </c>
+      <c r="K178" s="31">
+        <v>8549</v>
+      </c>
+      <c r="L178" s="33">
+        <v>7</v>
+      </c>
+      <c r="M178" s="31"/>
+      <c r="N178" s="31">
+        <v>60</v>
+      </c>
+      <c r="O178" s="27">
+        <v>90</v>
+      </c>
+      <c r="P178" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q178" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R178" s="27">
+        <v>5</v>
+      </c>
+      <c r="S178" s="27">
+        <v>20</v>
+      </c>
+      <c r="T178" s="27">
+        <v>1</v>
+      </c>
+      <c r="U178" s="31">
+        <v>15</v>
+      </c>
+      <c r="V178" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W178" s="35">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="179" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D179" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F179" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H179" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37">
+        <v>1117</v>
+      </c>
+      <c r="K179" s="37">
+        <v>11330</v>
+      </c>
+      <c r="L179" s="33">
+        <v>4</v>
+      </c>
+      <c r="M179" s="37">
+        <v>14</v>
+      </c>
+      <c r="N179" s="37">
+        <v>60</v>
+      </c>
+      <c r="O179" s="24">
+        <v>90</v>
+      </c>
+      <c r="P179" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q179" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R179" s="24">
+        <v>5</v>
+      </c>
+      <c r="S179" s="24">
+        <v>20</v>
+      </c>
+      <c r="T179" s="24">
+        <v>1</v>
+      </c>
+      <c r="U179" s="37">
+        <v>15</v>
+      </c>
+      <c r="V179" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W179" s="40">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="180" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D180" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F180" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H180" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31">
+        <v>1117</v>
+      </c>
+      <c r="K180" s="31">
+        <v>11330</v>
+      </c>
+      <c r="L180" s="33">
+        <v>4</v>
+      </c>
+      <c r="M180" s="31">
+        <v>15</v>
+      </c>
+      <c r="N180" s="31">
+        <v>60</v>
+      </c>
+      <c r="O180" s="27">
+        <v>90</v>
+      </c>
+      <c r="P180" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q180" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R180" s="27">
+        <v>5</v>
+      </c>
+      <c r="S180" s="27">
+        <v>20</v>
+      </c>
+      <c r="T180" s="27">
+        <v>1</v>
+      </c>
+      <c r="U180" s="31">
+        <v>15</v>
+      </c>
+      <c r="V180" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W180" s="35">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="181" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D181" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F181" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H181" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I181" s="37"/>
+      <c r="J181" s="37">
+        <v>1117</v>
+      </c>
+      <c r="K181" s="37">
+        <v>8600</v>
+      </c>
+      <c r="L181" s="33">
+        <v>4</v>
+      </c>
+      <c r="M181" s="37">
+        <v>14</v>
+      </c>
+      <c r="N181" s="37">
+        <v>60</v>
+      </c>
+      <c r="O181" s="24">
+        <v>90</v>
+      </c>
+      <c r="P181" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q181" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R181" s="24">
+        <v>5</v>
+      </c>
+      <c r="S181" s="24">
+        <v>20</v>
+      </c>
+      <c r="T181" s="24">
+        <v>1</v>
+      </c>
+      <c r="U181" s="37">
+        <v>15</v>
+      </c>
+      <c r="V181" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W181" s="40">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="182" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D182" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H182" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31">
+        <v>1117</v>
+      </c>
+      <c r="K182" s="31">
+        <v>8600</v>
+      </c>
+      <c r="L182" s="33">
+        <v>4</v>
+      </c>
+      <c r="M182" s="31">
+        <v>15</v>
+      </c>
+      <c r="N182" s="31">
+        <v>60</v>
+      </c>
+      <c r="O182" s="27">
+        <v>90</v>
+      </c>
+      <c r="P182" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q182" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R182" s="27">
+        <v>5</v>
+      </c>
+      <c r="S182" s="27">
+        <v>20</v>
+      </c>
+      <c r="T182" s="27">
+        <v>1</v>
+      </c>
+      <c r="U182" s="31">
+        <v>15</v>
+      </c>
+      <c r="V182" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W182" s="35">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="183" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D183" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F183" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H183" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37">
+        <v>1340</v>
+      </c>
+      <c r="K183" s="37">
+        <v>2410</v>
+      </c>
+      <c r="L183" s="33">
+        <v>5</v>
+      </c>
+      <c r="M183" s="37">
+        <v>8.18</v>
+      </c>
+      <c r="N183" s="37">
+        <v>60</v>
+      </c>
+      <c r="O183" s="24">
+        <v>90</v>
+      </c>
+      <c r="P183" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q183" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R183" s="24">
+        <v>5</v>
+      </c>
+      <c r="S183" s="24">
+        <v>20</v>
+      </c>
+      <c r="T183" s="24">
+        <v>1</v>
+      </c>
+      <c r="U183" s="37">
+        <v>15</v>
+      </c>
+      <c r="V183" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W183" s="40">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="184" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D184" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H184" s="32" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I184" s="31"/>
+      <c r="J184" s="31">
+        <v>1340</v>
+      </c>
+      <c r="K184" s="31">
+        <v>2410</v>
+      </c>
+      <c r="L184" s="33">
+        <v>5</v>
+      </c>
+      <c r="M184" s="31">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="N184" s="31">
+        <v>60</v>
+      </c>
+      <c r="O184" s="27">
+        <v>90</v>
+      </c>
+      <c r="P184" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q184" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R184" s="27">
+        <v>5</v>
+      </c>
+      <c r="S184" s="27">
+        <v>20</v>
+      </c>
+      <c r="T184" s="27">
+        <v>1</v>
+      </c>
+      <c r="U184" s="31">
+        <v>15</v>
+      </c>
+      <c r="V184" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W184" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="185" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D185" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E185" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F185" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H185" s="38" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I185" s="37"/>
+      <c r="J185" s="37">
+        <v>1000</v>
+      </c>
+      <c r="K185" s="37">
+        <v>3154</v>
+      </c>
+      <c r="L185" s="33">
+        <v>5</v>
+      </c>
+      <c r="M185" s="37">
+        <v>9</v>
+      </c>
+      <c r="N185" s="37">
+        <v>60</v>
+      </c>
+      <c r="O185" s="24">
+        <v>90</v>
+      </c>
+      <c r="P185" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q185" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R185" s="24">
+        <v>5</v>
+      </c>
+      <c r="S185" s="24">
+        <v>20</v>
+      </c>
+      <c r="T185" s="24">
+        <v>1</v>
+      </c>
+      <c r="U185" s="37">
+        <v>15</v>
+      </c>
+      <c r="V185" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W185" s="40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="186" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D186" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H186" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31">
+        <v>1000</v>
+      </c>
+      <c r="K186" s="31">
+        <v>3154</v>
+      </c>
+      <c r="L186" s="33">
+        <v>5</v>
+      </c>
+      <c r="M186" s="31">
+        <v>9</v>
+      </c>
+      <c r="N186" s="31">
+        <v>60</v>
+      </c>
+      <c r="O186" s="27">
+        <v>90</v>
+      </c>
+      <c r="P186" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q186" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R186" s="27">
+        <v>5</v>
+      </c>
+      <c r="S186" s="27">
+        <v>20</v>
+      </c>
+      <c r="T186" s="27">
+        <v>1</v>
+      </c>
+      <c r="U186" s="31">
+        <v>15</v>
+      </c>
+      <c r="V186" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W186" s="35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="187" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D187" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E187" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H187" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I187" s="37"/>
+      <c r="J187" s="37">
+        <v>1660</v>
+      </c>
+      <c r="K187" s="37">
+        <v>3222</v>
+      </c>
+      <c r="L187" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="M187" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="N187" s="37">
+        <v>60</v>
+      </c>
+      <c r="O187" s="24">
+        <v>90</v>
+      </c>
+      <c r="P187" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q187" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R187" s="24">
+        <v>5</v>
+      </c>
+      <c r="S187" s="24">
+        <v>20</v>
+      </c>
+      <c r="T187" s="24">
+        <v>1</v>
+      </c>
+      <c r="U187" s="37">
+        <v>15</v>
+      </c>
+      <c r="V187" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W187" s="40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="188" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D188" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H188" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I188" s="31"/>
+      <c r="J188" s="31">
+        <v>1660</v>
+      </c>
+      <c r="K188" s="31">
+        <v>3222</v>
+      </c>
+      <c r="L188" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="M188" s="31">
+        <v>9.4</v>
+      </c>
+      <c r="N188" s="31">
+        <v>60</v>
+      </c>
+      <c r="O188" s="27">
+        <v>90</v>
+      </c>
+      <c r="P188" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q188" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R188" s="27">
+        <v>5</v>
+      </c>
+      <c r="S188" s="27">
+        <v>20</v>
+      </c>
+      <c r="T188" s="27">
+        <v>1</v>
+      </c>
+      <c r="U188" s="31">
+        <v>15</v>
+      </c>
+      <c r="V188" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W188" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="189" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D189" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E189" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F189" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H189" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I189" s="37"/>
+      <c r="J189" s="37">
+        <v>1144</v>
+      </c>
+      <c r="K189" s="37">
+        <v>2244</v>
+      </c>
+      <c r="L189" s="33">
+        <v>6</v>
+      </c>
+      <c r="M189" s="37">
+        <v>8.68</v>
+      </c>
+      <c r="N189" s="37">
+        <v>60</v>
+      </c>
+      <c r="O189" s="24">
+        <v>90</v>
+      </c>
+      <c r="P189" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q189" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R189" s="24">
+        <v>5</v>
+      </c>
+      <c r="S189" s="24">
+        <v>20</v>
+      </c>
+      <c r="T189" s="24">
+        <v>1</v>
+      </c>
+      <c r="U189" s="37">
+        <v>15</v>
+      </c>
+      <c r="V189" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W189" s="40">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="190" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D190" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H190" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I190" s="31"/>
+      <c r="J190" s="31">
+        <v>1144</v>
+      </c>
+      <c r="K190" s="31">
+        <v>2244</v>
+      </c>
+      <c r="L190" s="33">
+        <v>7</v>
+      </c>
+      <c r="M190" s="31">
+        <v>10.31</v>
+      </c>
+      <c r="N190" s="31">
+        <v>60</v>
+      </c>
+      <c r="O190" s="27">
+        <v>90</v>
+      </c>
+      <c r="P190" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q190" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R190" s="27">
+        <v>5</v>
+      </c>
+      <c r="S190" s="27">
+        <v>20</v>
+      </c>
+      <c r="T190" s="27">
+        <v>1</v>
+      </c>
+      <c r="U190" s="31">
+        <v>15</v>
+      </c>
+      <c r="V190" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W190" s="35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="191" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D191" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F191" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G191" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H191" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37">
+        <v>200</v>
+      </c>
+      <c r="K191" s="37">
+        <v>7195</v>
+      </c>
+      <c r="L191" s="33">
+        <v>6</v>
+      </c>
+      <c r="M191" s="37">
+        <v>10.83</v>
+      </c>
+      <c r="N191" s="37">
+        <v>40</v>
+      </c>
+      <c r="O191" s="24">
+        <v>90</v>
+      </c>
+      <c r="P191" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q191" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R191" s="24">
+        <v>5</v>
+      </c>
+      <c r="S191" s="24">
+        <v>20</v>
+      </c>
+      <c r="T191" s="24">
+        <v>1</v>
+      </c>
+      <c r="U191" s="37">
+        <v>15</v>
+      </c>
+      <c r="V191" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W191" s="40">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="192" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D192" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H192" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I192" s="31"/>
+      <c r="J192" s="31">
+        <v>200</v>
+      </c>
+      <c r="K192" s="31">
+        <v>8108</v>
+      </c>
+      <c r="L192" s="33">
+        <v>6</v>
+      </c>
+      <c r="M192" s="31">
+        <v>10.83</v>
+      </c>
+      <c r="N192" s="31">
+        <v>40</v>
+      </c>
+      <c r="O192" s="27">
+        <v>90</v>
+      </c>
+      <c r="P192" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q192" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R192" s="27">
+        <v>5</v>
+      </c>
+      <c r="S192" s="27">
+        <v>20</v>
+      </c>
+      <c r="T192" s="27">
+        <v>1</v>
+      </c>
+      <c r="U192" s="31">
+        <v>15</v>
+      </c>
+      <c r="V192" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W192" s="35">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="193" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D193" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E193" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F193" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H193" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37">
+        <v>46</v>
+      </c>
+      <c r="K193" s="37">
+        <v>1197</v>
+      </c>
+      <c r="L193" s="33">
+        <v>6</v>
+      </c>
+      <c r="M193" s="37">
+        <v>5.33</v>
+      </c>
+      <c r="N193" s="37">
+        <v>40</v>
+      </c>
+      <c r="O193" s="24">
+        <v>90</v>
+      </c>
+      <c r="P193" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q193" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R193" s="24">
+        <v>5</v>
+      </c>
+      <c r="S193" s="24">
+        <v>20</v>
+      </c>
+      <c r="T193" s="24">
+        <v>1</v>
+      </c>
+      <c r="U193" s="37">
+        <v>15</v>
+      </c>
+      <c r="V193" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W193" s="40">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="194" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D194" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F194" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H194" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I194" s="31">
+        <v>820</v>
+      </c>
+      <c r="J194" s="31">
+        <v>885</v>
+      </c>
+      <c r="K194" s="31">
+        <v>2501</v>
+      </c>
+      <c r="L194" s="41">
+        <v>8</v>
+      </c>
+      <c r="M194" s="31">
+        <v>8</v>
+      </c>
+      <c r="N194" s="31">
+        <v>60</v>
+      </c>
+      <c r="O194" s="27">
+        <v>90</v>
+      </c>
+      <c r="P194" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q194" s="34">
+        <v>100000</v>
+      </c>
+      <c r="R194" s="27">
+        <v>5</v>
+      </c>
+      <c r="S194" s="27">
+        <v>20</v>
+      </c>
+      <c r="T194" s="27">
+        <v>1</v>
+      </c>
+      <c r="U194" s="31">
+        <v>15</v>
+      </c>
+      <c r="V194" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W194" s="35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="195" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D195" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E195" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F195" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G195" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="H195" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I195" s="37"/>
+      <c r="J195" s="37">
+        <v>1250</v>
+      </c>
+      <c r="K195" s="37">
+        <v>6145</v>
+      </c>
+      <c r="L195" s="41">
+        <v>7</v>
+      </c>
+      <c r="M195" s="37">
+        <v>10</v>
+      </c>
+      <c r="N195" s="37">
+        <v>40</v>
+      </c>
+      <c r="O195" s="24">
+        <v>90</v>
+      </c>
+      <c r="P195" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q195" s="39">
+        <v>100000</v>
+      </c>
+      <c r="R195" s="24">
+        <v>5</v>
+      </c>
+      <c r="S195" s="24">
+        <v>20</v>
+      </c>
+      <c r="T195" s="24">
+        <v>1</v>
+      </c>
+      <c r="U195" s="37">
+        <v>15</v>
+      </c>
+      <c r="V195" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W195" s="40">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="196" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D196" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E196" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" s="27"/>
+      <c r="H196" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27">
+        <v>1200</v>
+      </c>
+      <c r="K196" s="27"/>
+      <c r="L196" s="42">
+        <v>5</v>
+      </c>
+      <c r="M196" s="31">
+        <v>10</v>
+      </c>
+      <c r="N196" s="27"/>
+      <c r="O196" s="27"/>
+      <c r="P196" s="27"/>
+      <c r="Q196" s="27"/>
+      <c r="R196" s="27"/>
+      <c r="S196" s="27"/>
+      <c r="T196" s="27"/>
+      <c r="U196" s="27"/>
+      <c r="V196" s="27"/>
+      <c r="W196" s="28"/>
+    </row>
+    <row r="197" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D197" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E197" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F197" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" s="24"/>
+      <c r="H197" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24">
+        <v>1200</v>
+      </c>
+      <c r="K197" s="24"/>
+      <c r="L197" s="42">
+        <v>6</v>
+      </c>
+      <c r="M197" s="37">
+        <v>12</v>
+      </c>
+      <c r="N197" s="24"/>
+      <c r="O197" s="24"/>
+      <c r="P197" s="24"/>
+      <c r="Q197" s="24"/>
+      <c r="R197" s="24"/>
+      <c r="S197" s="24"/>
+      <c r="T197" s="24"/>
+      <c r="U197" s="24"/>
+      <c r="V197" s="24"/>
+      <c r="W197" s="25"/>
+    </row>
+    <row r="198" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D198" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="27"/>
+      <c r="H198" s="31" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27">
+        <v>1400</v>
+      </c>
+      <c r="K198" s="27"/>
+      <c r="L198" s="42">
+        <v>5</v>
+      </c>
+      <c r="M198" s="31">
+        <v>10</v>
+      </c>
+      <c r="N198" s="27"/>
+      <c r="O198" s="27"/>
+      <c r="P198" s="27"/>
+      <c r="Q198" s="27"/>
+      <c r="R198" s="27"/>
+      <c r="S198" s="27"/>
+      <c r="T198" s="27"/>
+      <c r="U198" s="27"/>
+      <c r="V198" s="27"/>
+      <c r="W198" s="28"/>
+    </row>
+    <row r="199" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D199" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E199" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F199" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="24"/>
+      <c r="H199" s="37" t="e">
+        <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I199" s="24"/>
+      <c r="J199" s="24">
+        <v>1400</v>
+      </c>
+      <c r="K199" s="24"/>
+      <c r="L199" s="42">
+        <v>5</v>
+      </c>
+      <c r="M199" s="37">
+        <v>11</v>
+      </c>
+      <c r="N199" s="24"/>
+      <c r="O199" s="24"/>
+      <c r="P199" s="24"/>
+      <c r="Q199" s="24"/>
+      <c r="R199" s="24"/>
+      <c r="S199" s="24"/>
+      <c r="T199" s="24"/>
+      <c r="U199" s="24"/>
+      <c r="V199" s="24"/>
+      <c r="W199" s="25"/>
+    </row>
+    <row r="200" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D200" s="26"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="31"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="27"/>
+      <c r="K200" s="27"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="31"/>
+      <c r="N200" s="27"/>
+      <c r="O200" s="27"/>
+      <c r="P200" s="27"/>
+      <c r="Q200" s="27"/>
+      <c r="R200" s="27"/>
+      <c r="S200" s="27"/>
+      <c r="T200" s="27"/>
+      <c r="U200" s="27"/>
+      <c r="V200" s="27"/>
+      <c r="W200" s="28"/>
+    </row>
+    <row r="201" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D201" s="23"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="37"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="24"/>
+      <c r="K201" s="24"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="37"/>
+      <c r="N201" s="24"/>
+      <c r="O201" s="24"/>
+      <c r="P201" s="24"/>
+      <c r="Q201" s="24"/>
+      <c r="R201" s="24"/>
+      <c r="S201" s="24"/>
+      <c r="T201" s="24"/>
+      <c r="U201" s="24"/>
+      <c r="V201" s="24"/>
+      <c r="W201" s="25"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I99" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
     <hyperlink ref="I72" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
@@ -5874,13 +7092,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5888,7 +7106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -5899,7 +7117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>114</v>
       </c>
@@ -5910,7 +7128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>115</v>
       </c>
@@ -5924,7 +7142,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>116</v>
       </c>
@@ -5938,7 +7156,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>117</v>
       </c>
@@ -5949,7 +7167,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>127</v>
       </c>
@@ -5970,14 +7188,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -5991,17 +7209,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>0.14781379942445699</v>
+        <v>4.6195638746212568E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.90973758868530497</v>
+        <v>0.88037768850774212</v>
       </c>
     </row>
   </sheetData>
@@ -6010,15 +7228,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009EF5DFF61A5A2E4186425FEA105E497F" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5889d7251965a5bf886eedff40393a9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="022a34b1-9d82-4dd2-8ef7-65dd835f832c" xmlns:ns4="e404e11a-1b7c-46a4-be41-f958fe29f57e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc3e933e69588f52c8578e0e3109839" ns3:_="" ns4:_="">
     <xsd:import namespace="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
@@ -6227,6 +7436,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6236,14 +7454,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D3CD77-C489-4EE9-BFD2-ED0E2707FBF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6258,6 +7468,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B6CFE5C-976C-469F-A58E-4527AD6F187B}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB172B-6619-4BE6-BC32-4C539A54A0DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15720" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="224">
   <si>
     <t>specifications</t>
   </si>
@@ -343,21 +343,9 @@
     <t>Capacity (net MWe)</t>
   </si>
   <si>
-    <t>OCC (USD2020/kW)</t>
-  </si>
-  <si>
     <t>Lifetime (y)</t>
   </si>
   <si>
-    <t>OPEX fixed (USD2020/MW-yr)</t>
-  </si>
-  <si>
-    <t>Fuel (USD2020/MWh)</t>
-  </si>
-  <si>
-    <t>Waste (USD2020/MWh)</t>
-  </si>
-  <si>
     <t>Decom (% of CAPEX)</t>
   </si>
   <si>
@@ -704,6 +692,24 @@
   </si>
   <si>
     <t>MicroMSR (REF)</t>
+  </si>
+  <si>
+    <t>OCC (eur2020/kW)</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>currency exchange</t>
+  </si>
+  <si>
+    <t>Waste (eur2020/MWh)</t>
+  </si>
+  <si>
+    <t>Fuel (eur2020/MWh)</t>
+  </si>
+  <si>
+    <t>OPEX fixed (eur2020/MW-yr)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,16 +776,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF003299"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -884,7 +898,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -919,49 +933,47 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1127,7 +1139,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>74680</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>123200</xdr:rowOff>
+      <xdr:rowOff>22347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,16 +1232,16 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F673ACE9-17A3-418F-95E2-3D57C80635AE}" name="Capacity (gross)"/>
     <tableColumn id="5" xr3:uid="{EBD7A4AB-217C-4F30-9C8C-10D3DCBB1CF8}" name="Capacity (net MWe)"/>
-    <tableColumn id="6" xr3:uid="{C68D4286-8002-4927-A37D-913C16FDDCDC}" name="OCC (USD2020/kW)"/>
+    <tableColumn id="6" xr3:uid="{C68D4286-8002-4927-A37D-913C16FDDCDC}" name="OCC (eur2020/kW)"/>
     <tableColumn id="7" xr3:uid="{0DDB8280-26C2-414A-97C9-B5E58B05F984}" name="planned Construction time (y)" dataDxfId="11"/>
     <tableColumn id="19" xr3:uid="{030A9AEC-2CE4-495A-81CC-E66C49708DCD}" name="Actual / total build time (y)" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{10CB5761-79C5-4883-879F-E339F0096B08}" name="Lifetime (y)"/>
     <tableColumn id="9" xr3:uid="{D368D5D8-E16F-4F9A-8EE2-94A2BB4AFD90}" name="Capacity factor (%)"/>
     <tableColumn id="10" xr3:uid="{6096C3E3-4466-42E9-B93D-DB781D029E1B}" name="WACC (real %)"/>
-    <tableColumn id="11" xr3:uid="{AF94017F-19BA-4C85-989F-C4991FC8DB92}" name="OPEX fixed (USD2020/MW-yr)"/>
+    <tableColumn id="11" xr3:uid="{AF94017F-19BA-4C85-989F-C4991FC8DB92}" name="OPEX fixed (eur2020/MW-yr)"/>
     <tableColumn id="12" xr3:uid="{9FBD497D-93AE-4DA6-BB28-62105E15001C}" name="OPEX variable (USD2025/MWh)"/>
-    <tableColumn id="13" xr3:uid="{DF71A38F-C60A-4154-8DF3-56D7A37367E5}" name="Fuel (USD2020/MWh)"/>
-    <tableColumn id="14" xr3:uid="{F25DEC50-AF34-45F1-BDFF-4448D82043E2}" name="Waste (USD2020/MWh)"/>
+    <tableColumn id="13" xr3:uid="{DF71A38F-C60A-4154-8DF3-56D7A37367E5}" name="Fuel (eur2020/MWh)"/>
+    <tableColumn id="14" xr3:uid="{F25DEC50-AF34-45F1-BDFF-4448D82043E2}" name="Waste (eur2020/MWh)"/>
     <tableColumn id="15" xr3:uid="{9583958C-805F-498D-87D6-E8CACED18DF2}" name="Decom (% of CAPEX)"/>
     <tableColumn id="17" xr3:uid="{4DBF9AE1-2F7F-4D27-B474-D847FDC4CE29}" name="Source"/>
     <tableColumn id="18" xr3:uid="{AA291BFC-326D-4669-AD23-EE2A9A1178F1}" name="Year"/>
@@ -1603,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,25 +1666,25 @@
         <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
       </c>
       <c r="I3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
         <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
       </c>
       <c r="M3" t="s">
         <v>7</v>
@@ -1681,25 +1693,25 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="R3" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="S3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
@@ -1713,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1726,13 +1738,14 @@
         <v>300</v>
       </c>
       <c r="I4" s="11">
-        <v>2250</v>
+        <f>J76*$M$79</f>
+        <v>1928.6999999999998</v>
       </c>
       <c r="J4" s="13">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L4">
         <v>60</v>
@@ -1741,25 +1754,27 @@
         <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O4" s="14">
-        <v>144365</v>
+        <f>K76*$M$77*$M$79</f>
+        <v>150974.60715999999</v>
       </c>
       <c r="P4" s="15">
         <v>3.5</v>
       </c>
       <c r="Q4" s="15">
-        <v>6.23</v>
+        <f>L76*$M$77*$M$79</f>
+        <v>6.5152343199999994</v>
       </c>
       <c r="R4" s="15">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U4">
         <v>2020</v>
@@ -1770,13 +1785,13 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F5" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1789,13 +1804,14 @@
         <v>443</v>
       </c>
       <c r="I5" s="11">
-        <v>5215.9369999999999</v>
+        <f t="shared" ref="I5:I22" si="0">J77*$M$79</f>
+        <v>4471.1011963999999</v>
       </c>
       <c r="J5" s="13">
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L5">
         <v>60</v>
@@ -1804,25 +1820,27 @@
         <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="11">
-        <v>518242</v>
+        <v>104</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O22" si="1">K77*$M$77*$M$79</f>
+        <v>541969.19172799995</v>
       </c>
       <c r="P5" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q5">
-        <v>6.23</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:Q22" si="2">L77*$M$77*$M$79</f>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R5" s="15">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U5">
         <v>2020</v>
@@ -1839,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F6" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1852,13 +1870,14 @@
         <v>160</v>
       </c>
       <c r="I6" s="11">
-        <v>6312.5</v>
+        <f t="shared" si="0"/>
+        <v>5411.0749999999998</v>
       </c>
       <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L6">
         <v>80</v>
@@ -1867,25 +1886,27 @@
         <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="11">
-        <v>146645</v>
+        <v>104</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="1"/>
+        <v>153358.99467999997</v>
       </c>
       <c r="P6" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q6">
-        <v>6.23</v>
-      </c>
-      <c r="R6">
+      <c r="Q6" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R6" s="15">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U6">
         <v>2020</v>
@@ -1893,7 +1914,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1902,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1915,13 +1936,14 @@
         <v>107</v>
       </c>
       <c r="I7" s="11">
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>6857.5999999999995</v>
       </c>
       <c r="J7" s="13">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L7">
         <v>60</v>
@@ -1930,25 +1952,27 @@
         <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="11">
-        <v>65025</v>
+        <v>104</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="1"/>
+        <v>68002.104599999991</v>
       </c>
       <c r="P7" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q7">
-        <v>5.31</v>
-      </c>
-      <c r="R7">
+      <c r="Q7" s="15">
+        <f t="shared" si="2"/>
+        <v>5.5531130399999995</v>
+      </c>
+      <c r="R7" s="15">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U7">
         <v>2020</v>
@@ -1965,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -1978,13 +2002,14 @@
         <v>77</v>
       </c>
       <c r="I8" s="11">
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>3085.92</v>
       </c>
       <c r="J8" s="13">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L8">
         <v>60</v>
@@ -1993,25 +2018,27 @@
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="11">
-        <v>179595</v>
+        <v>104</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="1"/>
+        <v>187817.57747999998</v>
       </c>
       <c r="P8" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q8">
-        <v>7.15</v>
-      </c>
-      <c r="R8">
+      <c r="Q8" s="15">
+        <f t="shared" si="2"/>
+        <v>7.4773556000000001</v>
+      </c>
+      <c r="R8" s="15">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U8">
         <v>2020</v>
@@ -2028,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2041,13 +2068,14 @@
         <v>55</v>
       </c>
       <c r="I9" s="11">
-        <v>4212</v>
+        <f t="shared" si="0"/>
+        <v>3610.5263999999997</v>
       </c>
       <c r="J9" s="13">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L9">
         <v>40</v>
@@ -2056,25 +2084,27 @@
         <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="11">
-        <v>170980</v>
+        <v>104</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="1"/>
+        <v>178808.14832000001</v>
       </c>
       <c r="P9" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q9">
-        <v>6.23</v>
-      </c>
-      <c r="R9">
+      <c r="Q9" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R9" s="15">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U9">
         <v>2020</v>
@@ -2091,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2104,13 +2134,14 @@
         <v>40</v>
       </c>
       <c r="I10" s="11">
-        <v>8532</v>
+        <f t="shared" si="0"/>
+        <v>7313.6304</v>
       </c>
       <c r="J10" s="13">
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -2119,25 +2150,27 @@
         <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="11">
-        <v>146645</v>
+        <v>104</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="1"/>
+        <v>153358.99467999997</v>
       </c>
       <c r="P10" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q10">
-        <v>6.23</v>
-      </c>
-      <c r="R10">
+      <c r="Q10" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R10" s="15">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U10">
         <v>2020</v>
@@ -2154,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F11" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2167,7 +2200,8 @@
         <v>32</v>
       </c>
       <c r="I11" s="11">
-        <v>13531.429</v>
+        <f t="shared" si="0"/>
+        <v>11599.140938799999</v>
       </c>
       <c r="J11" s="13">
         <v>3</v>
@@ -2182,25 +2216,27 @@
         <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="11">
-        <v>170980</v>
+        <v>104</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="1"/>
+        <v>178808.14832000001</v>
       </c>
       <c r="P11" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q11">
-        <v>6.23</v>
-      </c>
-      <c r="R11">
+      <c r="Q11" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R11" s="15">
         <v>1</v>
       </c>
       <c r="S11">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U11">
         <v>2020</v>
@@ -2208,7 +2244,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -2217,7 +2253,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2230,7 +2266,8 @@
         <v>25</v>
       </c>
       <c r="I12" s="11">
-        <v>23187.5</v>
+        <f t="shared" si="0"/>
+        <v>19876.325000000001</v>
       </c>
       <c r="J12" s="13">
         <v>3.5</v>
@@ -2242,25 +2279,27 @@
         <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="11">
-        <v>146645</v>
+        <v>104</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="1"/>
+        <v>153358.99467999997</v>
       </c>
       <c r="P12" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q12">
-        <v>6.23</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="15">
+        <f t="shared" si="2"/>
+        <v>6.5152343199999994</v>
+      </c>
+      <c r="R12" s="15">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U12">
         <v>2020</v>
@@ -2268,7 +2307,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -2277,7 +2316,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F13" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2290,7 +2329,8 @@
         <v>265</v>
       </c>
       <c r="I13" s="11">
-        <v>4373.3</v>
+        <f t="shared" si="0"/>
+        <v>3748.7927599999998</v>
       </c>
       <c r="J13" s="13">
         <f>42/12</f>
@@ -2303,25 +2343,27 @@
         <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="11">
-        <v>104340</v>
+        <v>104</v>
+      </c>
+      <c r="O13" s="14">
+        <f t="shared" si="1"/>
+        <v>109117.10256</v>
       </c>
       <c r="P13" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q13">
-        <v>19.29</v>
-      </c>
-      <c r="R13">
+      <c r="Q13" s="15">
+        <f t="shared" si="2"/>
+        <v>20.17317336</v>
+      </c>
+      <c r="R13" s="15">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U13">
         <v>2020</v>
@@ -2338,7 +2380,7 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F14" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2351,7 +2393,8 @@
         <v>200</v>
       </c>
       <c r="I14" s="11">
-        <v>3270</v>
+        <f t="shared" si="0"/>
+        <v>2803.0439999999999</v>
       </c>
       <c r="J14" s="13">
         <f>59/12</f>
@@ -2367,25 +2410,27 @@
         <v>90</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="11">
-        <v>168920</v>
+        <v>104</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="1"/>
+        <v>176653.83327999999</v>
       </c>
       <c r="P14" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q14">
-        <v>13.96</v>
-      </c>
-      <c r="R14">
+      <c r="Q14" s="15">
+        <f t="shared" si="2"/>
+        <v>14.59914464</v>
+      </c>
+      <c r="R14" s="15">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U14">
         <v>2020</v>
@@ -2393,7 +2438,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -2402,7 +2447,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F15" s="12" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2412,7 +2457,8 @@
         <v>165</v>
       </c>
       <c r="I15" s="11">
-        <v>1734.3</v>
+        <f t="shared" si="0"/>
+        <v>1486.6419599999999</v>
       </c>
       <c r="J15" s="13">
         <v>4</v>
@@ -2424,23 +2470,25 @@
       <c r="M15">
         <v>90</v>
       </c>
-      <c r="O15" s="22">
-        <v>136630</v>
+      <c r="O15" s="14">
+        <f t="shared" si="1"/>
+        <v>142885.46792</v>
       </c>
       <c r="P15" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q15">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="R15">
+      <c r="Q15" s="15">
+        <f t="shared" si="2"/>
+        <v>9.0251159200000011</v>
+      </c>
+      <c r="R15" s="15">
         <v>1</v>
       </c>
       <c r="S15">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U15">
         <v>2020</v>
@@ -2457,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F16" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2470,7 +2518,8 @@
         <v>100</v>
       </c>
       <c r="I16" s="11">
-        <v>5050</v>
+        <f t="shared" si="0"/>
+        <v>4328.8599999999997</v>
       </c>
       <c r="J16" s="13">
         <v>2.8</v>
@@ -2482,25 +2531,27 @@
         <v>90</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O16" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P16" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q16">
-        <v>78.040000000000006</v>
-      </c>
-      <c r="R16">
+      <c r="Q16" s="15">
+        <f t="shared" si="2"/>
+        <v>81.612983360000001</v>
+      </c>
+      <c r="R16" s="15">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U16">
         <v>2020</v>
@@ -2517,7 +2568,7 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F17" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2530,7 +2581,8 @@
         <v>20</v>
       </c>
       <c r="I17" s="11">
-        <v>19350</v>
+        <f t="shared" si="0"/>
+        <v>16586.82</v>
       </c>
       <c r="J17" s="13">
         <v>3</v>
@@ -2545,25 +2597,27 @@
         <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O17" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P17" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q17">
-        <v>113.05</v>
-      </c>
-      <c r="R17">
+      <c r="Q17" s="15">
+        <f t="shared" si="2"/>
+        <v>118.22588119999999</v>
+      </c>
+      <c r="R17" s="15">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U17">
         <v>2020</v>
@@ -2571,7 +2625,7 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -2580,7 +2634,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F18" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2593,7 +2647,8 @@
         <v>10</v>
       </c>
       <c r="I18" s="11">
-        <v>6900</v>
+        <f t="shared" si="0"/>
+        <v>5914.6799999999994</v>
       </c>
       <c r="J18" s="13">
         <v>3</v>
@@ -2605,25 +2660,27 @@
         <v>90</v>
       </c>
       <c r="N18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O18" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P18" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q18">
-        <v>23.86</v>
-      </c>
-      <c r="R18">
+      <c r="Q18" s="15">
+        <f t="shared" si="2"/>
+        <v>24.952406239999998</v>
+      </c>
+      <c r="R18" s="15">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U18">
         <v>2020</v>
@@ -2640,7 +2697,7 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F19" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2653,7 +2710,8 @@
         <v>195</v>
       </c>
       <c r="I19" s="11">
-        <v>4054.2660000000001</v>
+        <f t="shared" si="0"/>
+        <v>3475.3168151999998</v>
       </c>
       <c r="J19" s="13">
         <v>4</v>
@@ -2665,25 +2723,27 @@
         <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="11">
-        <v>180512</v>
+        <v>104</v>
+      </c>
+      <c r="O19" s="14">
+        <f t="shared" si="1"/>
+        <v>188776.56140799998</v>
       </c>
       <c r="P19" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q19">
-        <v>8.94</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="15">
+        <f t="shared" si="2"/>
+        <v>9.3493089599999983</v>
+      </c>
+      <c r="R19" s="15">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U19">
         <v>2020</v>
@@ -2700,7 +2760,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2713,7 +2773,8 @@
         <v>300</v>
       </c>
       <c r="I20" s="11">
-        <v>1950</v>
+        <f t="shared" si="0"/>
+        <v>1671.54</v>
       </c>
       <c r="J20" s="13">
         <v>3</v>
@@ -2725,25 +2786,27 @@
         <v>90</v>
       </c>
       <c r="N20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O20" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P20" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q20">
-        <v>29.55</v>
-      </c>
-      <c r="R20">
+      <c r="Q20" s="15">
+        <f t="shared" si="2"/>
+        <v>30.902917200000001</v>
+      </c>
+      <c r="R20" s="15">
         <v>1</v>
       </c>
       <c r="S20">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U20">
         <v>2020</v>
@@ -2760,7 +2823,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F21" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2773,7 +2836,8 @@
         <v>5</v>
       </c>
       <c r="I21" s="11">
-        <v>5771.4290000000001</v>
+        <f t="shared" si="0"/>
+        <v>4947.2689387999999</v>
       </c>
       <c r="J21" s="13">
         <v>3</v>
@@ -2785,25 +2849,27 @@
         <v>90</v>
       </c>
       <c r="N21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P21" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q21">
-        <v>29.55</v>
-      </c>
-      <c r="R21">
+      <c r="Q21" s="15">
+        <f t="shared" si="2"/>
+        <v>30.902917200000001</v>
+      </c>
+      <c r="R21" s="15">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U21">
         <v>2020</v>
@@ -2820,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F22" t="str">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
@@ -2833,7 +2899,8 @@
         <v>300</v>
       </c>
       <c r="I22" s="11">
-        <v>4160</v>
+        <f t="shared" si="0"/>
+        <v>3565.9519999999998</v>
       </c>
       <c r="J22" s="13">
         <v>3</v>
@@ -2845,25 +2912,27 @@
         <v>90</v>
       </c>
       <c r="N22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="11">
-        <v>130750</v>
+        <v>104</v>
+      </c>
+      <c r="O22" s="14">
+        <f t="shared" si="1"/>
+        <v>136736.258</v>
       </c>
       <c r="P22" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q22">
-        <v>29.55</v>
-      </c>
-      <c r="R22">
+      <c r="Q22" s="15">
+        <f t="shared" si="2"/>
+        <v>30.902917200000001</v>
+      </c>
+      <c r="R22" s="15">
         <v>1</v>
       </c>
       <c r="S22">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="U22">
         <v>2020</v>
@@ -2874,7 +2943,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2908,14 +2977,14 @@
       <c r="Q23">
         <v>20</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="15">
         <v>1</v>
       </c>
       <c r="S23">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U23">
         <v>2021</v>
@@ -2926,7 +2995,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
@@ -2960,14 +3029,14 @@
       <c r="Q24">
         <v>20</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="15">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="U24">
         <v>2022</v>
@@ -2978,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -3012,14 +3081,14 @@
       <c r="Q25">
         <v>20</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="15">
         <v>1</v>
       </c>
       <c r="S25">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="U25">
         <v>2023</v>
@@ -3030,7 +3099,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -3064,14 +3133,14 @@
       <c r="Q26">
         <v>20</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="15">
         <v>1</v>
       </c>
       <c r="S26">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U26">
         <v>2024</v>
@@ -3082,7 +3151,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -3116,14 +3185,14 @@
       <c r="Q27">
         <v>20</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="15">
         <v>1</v>
       </c>
       <c r="S27">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="U27">
         <v>2025</v>
@@ -3134,7 +3203,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -3168,14 +3237,14 @@
       <c r="Q28">
         <v>40</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="15">
         <v>1</v>
       </c>
       <c r="S28">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U28">
         <v>2026</v>
@@ -3186,7 +3255,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
@@ -3220,14 +3289,14 @@
       <c r="Q29">
         <v>40</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="15">
         <v>1</v>
       </c>
       <c r="S29">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="U29">
         <v>2027</v>
@@ -3238,7 +3307,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -3272,14 +3341,14 @@
       <c r="Q30">
         <v>40</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="15">
         <v>1</v>
       </c>
       <c r="S30">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U30">
         <v>2028</v>
@@ -3290,7 +3359,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -3324,14 +3393,14 @@
       <c r="Q31">
         <v>40</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="15">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U31">
         <v>2029</v>
@@ -3342,7 +3411,7 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -3376,50 +3445,50 @@
       <c r="Q32">
         <v>40</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="15">
         <v>1</v>
       </c>
       <c r="S32">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="T32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U32">
         <v>2030</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F33" s="29"/>
+      <c r="F33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F34" s="29"/>
+      <c r="F34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F35" s="29"/>
+      <c r="F35" s="12"/>
       <c r="J35" s="13"/>
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F36" s="29"/>
+      <c r="F36" s="12"/>
       <c r="J36" s="13"/>
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F37" s="29"/>
+      <c r="F37" s="12"/>
       <c r="J37" s="13"/>
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="F38" s="29"/>
+      <c r="F38" s="12"/>
       <c r="J38" s="13"/>
       <c r="K38" s="12"/>
       <c r="V38" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -3427,7 +3496,7 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="29"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -3440,7 +3509,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -3448,7 +3517,7 @@
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="29"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -3466,7 +3535,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="29"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -3484,7 +3553,7 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="29"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -3502,7 +3571,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="29"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -3520,7 +3589,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="29"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -3538,7 +3607,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="29"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -3556,7 +3625,7 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="29"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -3574,7 +3643,7 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="29"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -3592,7 +3661,7 @@
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="29"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
@@ -3610,7 +3679,7 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="29"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -3628,7 +3697,7 @@
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -3646,7 +3715,7 @@
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -3664,7 +3733,7 @@
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="29"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -3682,7 +3751,7 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="29"/>
+      <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -3700,7 +3769,7 @@
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -3893,47 +3962,47 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F65" s="12"/>
       <c r="J65" s="16"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F66" s="12"/>
       <c r="J66" s="16"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F67" s="12"/>
       <c r="J67" s="16"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F68" s="12"/>
       <c r="J68" s="16"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F69" s="12"/>
       <c r="J69" s="16"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F70" s="12"/>
       <c r="J70" s="16"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I72" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
@@ -3944,7 +4013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -3964,13 +4033,13 @@
         <v>41</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -3994,7 +4063,7 @@
         <v>2587500</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>54</v>
       </c>
@@ -4017,8 +4086,20 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6363914.1049661394</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="41">
+        <v>2250</v>
+      </c>
+      <c r="K76" s="43">
+        <v>144365</v>
+      </c>
+      <c r="L76" s="45">
+        <v>6.23</v>
+      </c>
+      <c r="M76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>45</v>
       </c>
@@ -4041,8 +4122,20 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>7259374.9999999991</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="42">
+        <v>5215.9369999999999</v>
+      </c>
+      <c r="K77" s="42">
+        <v>518242</v>
+      </c>
+      <c r="L77" s="40">
+        <v>6.23</v>
+      </c>
+      <c r="M77">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>86</v>
       </c>
@@ -4065,8 +4158,20 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>10948554.579439251</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="41">
+        <v>6312.5</v>
+      </c>
+      <c r="K78" s="41">
+        <v>146645</v>
+      </c>
+      <c r="L78" s="39">
+        <v>6.23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>45</v>
       </c>
@@ -4089,8 +4194,20 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>3985899.9999999995</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="42">
+        <v>8000</v>
+      </c>
+      <c r="K79" s="42">
+        <v>65025</v>
+      </c>
+      <c r="L79" s="40">
+        <v>5.31</v>
+      </c>
+      <c r="M79" s="46">
+        <v>0.85719999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>70</v>
       </c>
@@ -4113,8 +4230,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4403454.5454545449</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="41">
+        <v>3600</v>
+      </c>
+      <c r="K80" s="41">
+        <v>179595</v>
+      </c>
+      <c r="L80" s="39">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -4137,8 +4263,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>12264749.999999998</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="42">
+        <v>4212</v>
+      </c>
+      <c r="K81" s="42">
+        <v>170980</v>
+      </c>
+      <c r="L81" s="40">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -4161,8 +4296,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>17020000.5390625</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="41">
+        <v>8532</v>
+      </c>
+      <c r="K82" s="41">
+        <v>146645</v>
+      </c>
+      <c r="L82" s="39">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -4185,8 +4329,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>30932124.999999996</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="42">
+        <v>13531.429</v>
+      </c>
+      <c r="K83" s="42">
+        <v>170980</v>
+      </c>
+      <c r="L83" s="40">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>45</v>
       </c>
@@ -4209,8 +4362,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5408864.4339622641</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="41">
+        <v>23187.5</v>
+      </c>
+      <c r="K84" s="41">
+        <v>146645</v>
+      </c>
+      <c r="L84" s="39">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4395,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6520499.9999999991</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="42">
+        <v>4373.3</v>
+      </c>
+      <c r="K85" s="42">
+        <v>104340</v>
+      </c>
+      <c r="L85" s="40">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -4257,8 +4428,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2160606.0606060605</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J86" s="41">
+        <v>3270</v>
+      </c>
+      <c r="K86" s="41">
+        <v>168920</v>
+      </c>
+      <c r="L86" s="39">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -4281,8 +4461,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5807500</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J87" s="42">
+        <v>1734.3</v>
+      </c>
+      <c r="K87" s="44">
+        <v>136630</v>
+      </c>
+      <c r="L87" s="40">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>93</v>
       </c>
@@ -4305,8 +4494,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>26489716.399999999</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J88" s="41">
+        <v>5050</v>
+      </c>
+      <c r="K88" s="41">
+        <v>130750</v>
+      </c>
+      <c r="L88" s="39">
+        <v>78.040000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -4329,8 +4527,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2875000</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J89" s="42">
+        <v>19350</v>
+      </c>
+      <c r="K89" s="42">
+        <v>130750</v>
+      </c>
+      <c r="L89" s="40">
+        <v>113.05</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>91</v>
       </c>
@@ -4353,8 +4560,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4662405.8999999994</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J90" s="41">
+        <v>6900</v>
+      </c>
+      <c r="K90" s="41">
+        <v>130750</v>
+      </c>
+      <c r="L90" s="39">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>54</v>
       </c>
@@ -4377,8 +4593,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2242500</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J91" s="42">
+        <v>4054.2660000000001</v>
+      </c>
+      <c r="K91" s="42">
+        <v>180512</v>
+      </c>
+      <c r="L91" s="40">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>45</v>
       </c>
@@ -4401,8 +4626,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6637143.3499999996</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J92" s="41">
+        <v>1950</v>
+      </c>
+      <c r="K92" s="41">
+        <v>130750</v>
+      </c>
+      <c r="L92" s="39">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -4425,8 +4659,28 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4784000</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J93" s="42">
+        <v>5771.4290000000001</v>
+      </c>
+      <c r="K93" s="42">
+        <v>130750</v>
+      </c>
+      <c r="L93" s="40">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J94" s="41">
+        <v>4160</v>
+      </c>
+      <c r="K94" s="41">
+        <v>130750</v>
+      </c>
+      <c r="L94" s="39">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>30</v>
       </c>
@@ -4941,7 +5195,7 @@
     </row>
     <row r="141" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="6:7" x14ac:dyDescent="0.25">
@@ -4958,7 +5212,7 @@
         <v>5215.9369999999999</v>
       </c>
       <c r="G143">
-        <f t="shared" ref="G143:G159" si="0">F143*1000</f>
+        <f t="shared" ref="G143:G159" si="3">F143*1000</f>
         <v>5215937</v>
       </c>
     </row>
@@ -4967,7 +5221,7 @@
         <v>6312.5</v>
       </c>
       <c r="G144">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6312500</v>
       </c>
     </row>
@@ -4976,7 +5230,7 @@
         <v>8000</v>
       </c>
       <c r="G145">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8000000</v>
       </c>
     </row>
@@ -4985,7 +5239,7 @@
         <v>3600</v>
       </c>
       <c r="G146">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3600000</v>
       </c>
     </row>
@@ -4994,7 +5248,7 @@
         <v>4212</v>
       </c>
       <c r="G147">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4212000</v>
       </c>
     </row>
@@ -5003,7 +5257,7 @@
         <v>8532</v>
       </c>
       <c r="G148">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8532000</v>
       </c>
     </row>
@@ -5012,7 +5266,7 @@
         <v>13531.429</v>
       </c>
       <c r="G149">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13531429</v>
       </c>
     </row>
@@ -5021,7 +5275,7 @@
         <v>23187.5</v>
       </c>
       <c r="G150">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23187500</v>
       </c>
     </row>
@@ -5030,7 +5284,7 @@
         <v>4373.3</v>
       </c>
       <c r="G151">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4373300</v>
       </c>
     </row>
@@ -5039,23 +5293,23 @@
         <v>3270</v>
       </c>
       <c r="G152">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3270000</v>
       </c>
       <c r="J152" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K152" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L152" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M152" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="N152" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="K152" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L152" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M152" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="N152" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5063,14 +5317,14 @@
         <v>5050</v>
       </c>
       <c r="G153">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5050000</v>
       </c>
       <c r="J153" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L153" s="12">
         <v>22</v>
@@ -5080,7 +5334,7 @@
         <v>0.5</v>
       </c>
       <c r="N153" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
@@ -5088,22 +5342,22 @@
         <v>19350</v>
       </c>
       <c r="G154">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19350000</v>
       </c>
       <c r="J154" s="12"/>
       <c r="K154" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L154" s="12">
         <v>17</v>
       </c>
       <c r="M154" s="21">
-        <f t="shared" ref="M154:M163" si="1">L154/44</f>
+        <f t="shared" ref="M154:M163" si="4">L154/44</f>
         <v>0.38636363636363635</v>
       </c>
       <c r="N154" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
@@ -5111,22 +5365,22 @@
         <v>6900</v>
       </c>
       <c r="G155">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6900000</v>
       </c>
       <c r="J155" s="12"/>
       <c r="K155" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L155" s="12">
         <v>5</v>
       </c>
       <c r="M155" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="N155" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5134,24 +5388,24 @@
         <v>4054.2660000000001</v>
       </c>
       <c r="G156">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4054266</v>
       </c>
       <c r="J156" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L156" s="12">
         <v>27</v>
       </c>
       <c r="M156" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.61363636363636365</v>
       </c>
       <c r="N156" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
@@ -5159,22 +5413,22 @@
         <v>1950</v>
       </c>
       <c r="G157">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1950000</v>
       </c>
       <c r="J157" s="12"/>
       <c r="K157" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L157" s="12">
         <v>5</v>
       </c>
       <c r="M157" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="N157" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5182,22 +5436,22 @@
         <v>5771.4290000000001</v>
       </c>
       <c r="G158">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5771429</v>
       </c>
       <c r="J158" s="12"/>
       <c r="K158" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L158" s="12">
         <v>4</v>
       </c>
       <c r="M158" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="N158" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
@@ -5205,1868 +5459,1868 @@
         <v>4160</v>
       </c>
       <c r="G159">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4160000</v>
       </c>
       <c r="J159" s="12"/>
       <c r="K159" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L159" s="12">
         <v>2</v>
       </c>
       <c r="M159" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="N159" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="J160" s="12"/>
       <c r="K160" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L160" s="12">
         <v>1</v>
       </c>
       <c r="M160" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="N160" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J161" s="12"/>
       <c r="K161" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L161" s="12">
         <v>1</v>
       </c>
       <c r="M161" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="N161" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J162" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K162" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L162" s="12">
         <v>25</v>
       </c>
       <c r="M162" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.56818181818181823</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="4:23" ht="60" x14ac:dyDescent="0.25">
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L163" s="12">
         <v>19</v>
       </c>
       <c r="M163" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.43181818181818182</v>
       </c>
       <c r="N163" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D170" s="30" t="s">
+      <c r="D170" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E170" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F170" s="31" t="s">
+      <c r="F170" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G170" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H170" s="32" t="e">
+      <c r="G170" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H170" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I170" s="31"/>
-      <c r="J170" s="31">
+      <c r="I170" s="29"/>
+      <c r="J170" s="29">
         <v>935</v>
       </c>
-      <c r="K170" s="31">
+      <c r="K170" s="29">
         <v>9723</v>
       </c>
-      <c r="L170" s="33">
+      <c r="L170" s="30">
         <v>5</v>
       </c>
-      <c r="M170" s="31">
+      <c r="M170" s="29">
         <v>12.1</v>
       </c>
-      <c r="N170" s="31">
+      <c r="N170" s="29">
         <v>40</v>
       </c>
-      <c r="O170" s="27">
+      <c r="O170" s="26">
         <v>90</v>
       </c>
-      <c r="P170" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q170" s="34">
+      <c r="P170" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q170" s="31">
         <v>100000</v>
       </c>
-      <c r="R170" s="27">
+      <c r="R170" s="26">
         <v>5</v>
       </c>
-      <c r="S170" s="27">
+      <c r="S170" s="26">
         <v>20</v>
       </c>
-      <c r="T170" s="27">
+      <c r="T170" s="26">
         <v>1</v>
       </c>
-      <c r="U170" s="31">
+      <c r="U170" s="29">
         <v>15</v>
       </c>
-      <c r="V170" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="W170" s="35">
+      <c r="V170" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="W170" s="32">
         <v>1987</v>
       </c>
     </row>
     <row r="171" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D171" s="36" t="s">
+      <c r="D171" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E171" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F171" s="37" t="s">
+      <c r="E171" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F171" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G171" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H171" s="38" t="e">
+      <c r="G171" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H171" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37">
+      <c r="I171" s="34"/>
+      <c r="J171" s="34">
         <v>1053</v>
       </c>
-      <c r="K171" s="37">
+      <c r="K171" s="34">
         <v>10608</v>
       </c>
-      <c r="L171" s="33">
+      <c r="L171" s="30">
         <v>5</v>
       </c>
-      <c r="M171" s="37">
+      <c r="M171" s="34">
         <v>16</v>
       </c>
-      <c r="N171" s="37">
+      <c r="N171" s="34">
         <v>40</v>
       </c>
-      <c r="O171" s="24">
+      <c r="O171" s="23">
         <v>90</v>
       </c>
-      <c r="P171" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q171" s="39">
+      <c r="P171" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q171" s="35">
         <v>100000</v>
       </c>
-      <c r="R171" s="24">
+      <c r="R171" s="23">
         <v>5</v>
       </c>
-      <c r="S171" s="24">
+      <c r="S171" s="23">
         <v>20</v>
       </c>
-      <c r="T171" s="24">
+      <c r="T171" s="23">
         <v>1</v>
       </c>
-      <c r="U171" s="37">
+      <c r="U171" s="34">
         <v>15</v>
       </c>
-      <c r="V171" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="W171" s="40">
+      <c r="V171" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="W171" s="36">
         <v>1986</v>
       </c>
     </row>
     <row r="172" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D172" s="30" t="s">
+      <c r="D172" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E172" s="31" t="s">
+      <c r="E172" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F172" s="31" t="s">
+      <c r="F172" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G172" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H172" s="32" t="e">
+      <c r="G172" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H172" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I172" s="31"/>
-      <c r="J172" s="31">
+      <c r="I172" s="29"/>
+      <c r="J172" s="29">
         <v>919</v>
       </c>
-      <c r="K172" s="31">
+      <c r="K172" s="29">
         <v>8974</v>
       </c>
-      <c r="L172" s="33">
+      <c r="L172" s="30">
         <v>6.5</v>
       </c>
-      <c r="M172" s="31">
+      <c r="M172" s="29">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N172" s="31">
+      <c r="N172" s="29">
         <v>40</v>
       </c>
-      <c r="O172" s="27">
+      <c r="O172" s="26">
         <v>90</v>
       </c>
-      <c r="P172" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q172" s="34">
+      <c r="P172" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q172" s="31">
         <v>100000</v>
       </c>
-      <c r="R172" s="27">
+      <c r="R172" s="26">
         <v>5</v>
       </c>
-      <c r="S172" s="27">
+      <c r="S172" s="26">
         <v>20</v>
       </c>
-      <c r="T172" s="27">
+      <c r="T172" s="26">
         <v>1</v>
       </c>
-      <c r="U172" s="31">
+      <c r="U172" s="29">
         <v>15</v>
       </c>
-      <c r="V172" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="W172" s="35">
+      <c r="V172" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="W172" s="32">
         <v>1985</v>
       </c>
     </row>
     <row r="173" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D173" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F173" s="37" t="s">
+      <c r="D173" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="F173" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G173" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H173" s="38" t="e">
+      <c r="G173" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H173" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I173" s="37"/>
-      <c r="J173" s="37">
+      <c r="I173" s="34"/>
+      <c r="J173" s="34">
         <v>1600</v>
       </c>
-      <c r="K173" s="37">
+      <c r="K173" s="34">
         <v>7983</v>
       </c>
-      <c r="L173" s="33">
+      <c r="L173" s="30">
         <v>5</v>
       </c>
-      <c r="M173" s="37">
+      <c r="M173" s="34">
         <v>17</v>
       </c>
-      <c r="N173" s="37">
+      <c r="N173" s="34">
         <v>60</v>
       </c>
-      <c r="O173" s="24">
+      <c r="O173" s="23">
         <v>90</v>
       </c>
-      <c r="P173" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q173" s="39">
+      <c r="P173" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q173" s="35">
         <v>100000</v>
       </c>
-      <c r="R173" s="24">
+      <c r="R173" s="23">
         <v>5</v>
       </c>
-      <c r="S173" s="24">
+      <c r="S173" s="23">
         <v>20</v>
       </c>
-      <c r="T173" s="24">
+      <c r="T173" s="23">
         <v>1</v>
       </c>
-      <c r="U173" s="37">
+      <c r="U173" s="34">
         <v>15</v>
       </c>
-      <c r="V173" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W173" s="40">
+      <c r="V173" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W173" s="36">
         <v>2022</v>
       </c>
     </row>
     <row r="174" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D174" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="31" t="s">
+      <c r="D174" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E174" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F174" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G174" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H174" s="32" t="e">
+      <c r="G174" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H174" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I174" s="31"/>
-      <c r="J174" s="31">
+      <c r="I174" s="29"/>
+      <c r="J174" s="29">
         <v>1630</v>
       </c>
-      <c r="K174" s="31">
+      <c r="K174" s="29">
         <v>5733</v>
       </c>
-      <c r="L174" s="33">
+      <c r="L174" s="30">
         <v>5</v>
       </c>
-      <c r="M174" s="31">
+      <c r="M174" s="29">
         <v>17</v>
       </c>
-      <c r="N174" s="31">
+      <c r="N174" s="29">
         <v>60</v>
       </c>
-      <c r="O174" s="27">
+      <c r="O174" s="26">
         <v>90</v>
       </c>
-      <c r="P174" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q174" s="34">
+      <c r="P174" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q174" s="31">
         <v>100000</v>
       </c>
-      <c r="R174" s="27">
+      <c r="R174" s="26">
         <v>5</v>
       </c>
-      <c r="S174" s="27">
+      <c r="S174" s="26">
         <v>20</v>
       </c>
-      <c r="T174" s="27">
+      <c r="T174" s="26">
         <v>1</v>
       </c>
-      <c r="U174" s="31">
+      <c r="U174" s="29">
         <v>15</v>
       </c>
-      <c r="V174" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W174" s="35">
+      <c r="V174" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W174" s="32">
         <v>2022</v>
       </c>
     </row>
     <row r="175" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D175" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F175" s="37" t="s">
+      <c r="D175" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F175" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G175" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H175" s="38" t="e">
+      <c r="G175" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H175" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I175" s="37"/>
-      <c r="J175" s="37">
+      <c r="I175" s="34"/>
+      <c r="J175" s="34">
         <v>1600</v>
       </c>
-      <c r="K175" s="37">
+      <c r="K175" s="34">
         <v>9270</v>
       </c>
-      <c r="L175" s="33">
+      <c r="L175" s="30">
         <v>5</v>
       </c>
-      <c r="M175" s="37">
+      <c r="M175" s="34">
         <v>17.100000000000001</v>
       </c>
-      <c r="N175" s="37">
+      <c r="N175" s="34">
         <v>60</v>
       </c>
-      <c r="O175" s="24">
+      <c r="O175" s="23">
         <v>90</v>
       </c>
-      <c r="P175" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q175" s="39">
+      <c r="P175" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q175" s="35">
         <v>100000</v>
       </c>
-      <c r="R175" s="24">
+      <c r="R175" s="23">
         <v>5</v>
       </c>
-      <c r="S175" s="24">
+      <c r="S175" s="23">
         <v>20</v>
       </c>
-      <c r="T175" s="24">
+      <c r="T175" s="23">
         <v>1</v>
       </c>
-      <c r="U175" s="37">
+      <c r="U175" s="34">
         <v>15</v>
       </c>
-      <c r="V175" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W175" s="40">
+      <c r="V175" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W175" s="36">
         <v>2024</v>
       </c>
     </row>
     <row r="176" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D176" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E176" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F176" s="31" t="s">
+      <c r="D176" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F176" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G176" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H176" s="32" t="e">
+      <c r="G176" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H176" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31">
+      <c r="I176" s="29"/>
+      <c r="J176" s="29">
         <v>1600</v>
       </c>
-      <c r="K176" s="31">
+      <c r="K176" s="29">
         <v>8620</v>
       </c>
-      <c r="L176" s="33">
+      <c r="L176" s="30">
         <v>5</v>
       </c>
-      <c r="M176" s="31">
+      <c r="M176" s="29">
         <v>17.100000000000001</v>
       </c>
-      <c r="N176" s="31">
+      <c r="N176" s="29">
         <v>60</v>
       </c>
-      <c r="O176" s="27">
+      <c r="O176" s="26">
         <v>90</v>
       </c>
-      <c r="P176" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q176" s="34">
+      <c r="P176" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q176" s="31">
         <v>100000</v>
       </c>
-      <c r="R176" s="27">
+      <c r="R176" s="26">
         <v>5</v>
       </c>
-      <c r="S176" s="27">
+      <c r="S176" s="26">
         <v>20</v>
       </c>
-      <c r="T176" s="27">
+      <c r="T176" s="26">
         <v>1</v>
       </c>
-      <c r="U176" s="31">
+      <c r="U176" s="29">
         <v>15</v>
       </c>
-      <c r="V176" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W176" s="35">
+      <c r="V176" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W176" s="32">
         <v>2024</v>
       </c>
     </row>
     <row r="177" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D177" s="36" t="s">
+      <c r="D177" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E177" s="37" t="s">
+      <c r="E177" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F177" s="37" t="s">
+      <c r="F177" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G177" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H177" s="38" t="e">
+      <c r="G177" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H177" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I177" s="37"/>
-      <c r="J177" s="37">
+      <c r="I177" s="34"/>
+      <c r="J177" s="34">
         <v>1630</v>
       </c>
-      <c r="K177" s="37">
+      <c r="K177" s="34">
         <v>8549</v>
       </c>
-      <c r="L177" s="33">
+      <c r="L177" s="30">
         <v>7</v>
       </c>
-      <c r="M177" s="37"/>
-      <c r="N177" s="37">
+      <c r="M177" s="34"/>
+      <c r="N177" s="34">
         <v>60</v>
       </c>
-      <c r="O177" s="24">
+      <c r="O177" s="23">
         <v>90</v>
       </c>
-      <c r="P177" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q177" s="39">
+      <c r="P177" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q177" s="35">
         <v>100000</v>
       </c>
-      <c r="R177" s="24">
+      <c r="R177" s="23">
         <v>5</v>
       </c>
-      <c r="S177" s="24">
+      <c r="S177" s="23">
         <v>20</v>
       </c>
-      <c r="T177" s="24">
+      <c r="T177" s="23">
         <v>1</v>
       </c>
-      <c r="U177" s="37">
+      <c r="U177" s="34">
         <v>15</v>
       </c>
-      <c r="V177" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W177" s="40">
+      <c r="V177" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W177" s="36">
         <v>2025</v>
       </c>
     </row>
     <row r="178" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D178" s="30" t="s">
+      <c r="D178" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E178" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F178" s="31" t="s">
+      <c r="F178" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G178" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H178" s="32" t="e">
+      <c r="G178" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H178" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I178" s="31"/>
-      <c r="J178" s="31">
+      <c r="I178" s="29"/>
+      <c r="J178" s="29">
         <v>1630</v>
       </c>
-      <c r="K178" s="31">
+      <c r="K178" s="29">
         <v>8549</v>
       </c>
-      <c r="L178" s="33">
+      <c r="L178" s="30">
         <v>7</v>
       </c>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31">
+      <c r="M178" s="29"/>
+      <c r="N178" s="29">
         <v>60</v>
       </c>
-      <c r="O178" s="27">
+      <c r="O178" s="26">
         <v>90</v>
       </c>
-      <c r="P178" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q178" s="34">
+      <c r="P178" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q178" s="31">
         <v>100000</v>
       </c>
-      <c r="R178" s="27">
+      <c r="R178" s="26">
         <v>5</v>
       </c>
-      <c r="S178" s="27">
+      <c r="S178" s="26">
         <v>20</v>
       </c>
-      <c r="T178" s="27">
+      <c r="T178" s="26">
         <v>1</v>
       </c>
-      <c r="U178" s="31">
+      <c r="U178" s="29">
         <v>15</v>
       </c>
-      <c r="V178" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W178" s="35">
+      <c r="V178" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W178" s="32">
         <v>2025</v>
       </c>
     </row>
     <row r="179" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D179" s="36" t="s">
+      <c r="D179" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E179" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F179" s="37" t="s">
+      <c r="E179" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F179" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G179" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H179" s="38" t="e">
+      <c r="G179" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H179" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I179" s="37"/>
-      <c r="J179" s="37">
+      <c r="I179" s="34"/>
+      <c r="J179" s="34">
         <v>1117</v>
       </c>
-      <c r="K179" s="37">
+      <c r="K179" s="34">
         <v>11330</v>
       </c>
-      <c r="L179" s="33">
+      <c r="L179" s="30">
         <v>4</v>
       </c>
-      <c r="M179" s="37">
+      <c r="M179" s="34">
         <v>14</v>
       </c>
-      <c r="N179" s="37">
+      <c r="N179" s="34">
         <v>60</v>
       </c>
-      <c r="O179" s="24">
+      <c r="O179" s="23">
         <v>90</v>
       </c>
-      <c r="P179" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q179" s="39">
+      <c r="P179" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q179" s="35">
         <v>100000</v>
       </c>
-      <c r="R179" s="24">
+      <c r="R179" s="23">
         <v>5</v>
       </c>
-      <c r="S179" s="24">
+      <c r="S179" s="23">
         <v>20</v>
       </c>
-      <c r="T179" s="24">
+      <c r="T179" s="23">
         <v>1</v>
       </c>
-      <c r="U179" s="37">
+      <c r="U179" s="34">
         <v>15</v>
       </c>
-      <c r="V179" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W179" s="40">
+      <c r="V179" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W179" s="36">
         <v>2023</v>
       </c>
     </row>
     <row r="180" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E180" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F180" s="31" t="s">
+      <c r="E180" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F180" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G180" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H180" s="32" t="e">
+      <c r="G180" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H180" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I180" s="31"/>
-      <c r="J180" s="31">
+      <c r="I180" s="29"/>
+      <c r="J180" s="29">
         <v>1117</v>
       </c>
-      <c r="K180" s="31">
+      <c r="K180" s="29">
         <v>11330</v>
       </c>
-      <c r="L180" s="33">
+      <c r="L180" s="30">
         <v>4</v>
       </c>
-      <c r="M180" s="31">
+      <c r="M180" s="29">
         <v>15</v>
       </c>
-      <c r="N180" s="31">
+      <c r="N180" s="29">
         <v>60</v>
       </c>
-      <c r="O180" s="27">
+      <c r="O180" s="26">
         <v>90</v>
       </c>
-      <c r="P180" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q180" s="34">
+      <c r="P180" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q180" s="31">
         <v>100000</v>
       </c>
-      <c r="R180" s="27">
+      <c r="R180" s="26">
         <v>5</v>
       </c>
-      <c r="S180" s="27">
+      <c r="S180" s="26">
         <v>20</v>
       </c>
-      <c r="T180" s="27">
+      <c r="T180" s="26">
         <v>1</v>
       </c>
-      <c r="U180" s="31">
+      <c r="U180" s="29">
         <v>15</v>
       </c>
-      <c r="V180" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W180" s="35">
+      <c r="V180" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W180" s="32">
         <v>2024</v>
       </c>
     </row>
     <row r="181" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D181" s="36" t="s">
+      <c r="D181" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E181" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="F181" s="37" t="s">
+      <c r="E181" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F181" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G181" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H181" s="38" t="e">
+      <c r="G181" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H181" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I181" s="37"/>
-      <c r="J181" s="37">
+      <c r="I181" s="34"/>
+      <c r="J181" s="34">
         <v>1117</v>
       </c>
-      <c r="K181" s="37">
+      <c r="K181" s="34">
         <v>8600</v>
       </c>
-      <c r="L181" s="33">
+      <c r="L181" s="30">
         <v>4</v>
       </c>
-      <c r="M181" s="37">
+      <c r="M181" s="34">
         <v>14</v>
       </c>
-      <c r="N181" s="37">
+      <c r="N181" s="34">
         <v>60</v>
       </c>
-      <c r="O181" s="24">
+      <c r="O181" s="23">
         <v>90</v>
       </c>
-      <c r="P181" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q181" s="39">
+      <c r="P181" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q181" s="35">
         <v>100000</v>
       </c>
-      <c r="R181" s="24">
+      <c r="R181" s="23">
         <v>5</v>
       </c>
-      <c r="S181" s="24">
+      <c r="S181" s="23">
         <v>20</v>
       </c>
-      <c r="T181" s="24">
+      <c r="T181" s="23">
         <v>1</v>
       </c>
-      <c r="U181" s="37">
+      <c r="U181" s="34">
         <v>15</v>
       </c>
-      <c r="V181" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W181" s="40">
+      <c r="V181" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W181" s="36">
         <v>2023</v>
       </c>
     </row>
     <row r="182" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E182" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F182" s="31" t="s">
+      <c r="E182" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F182" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G182" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H182" s="32" t="e">
+      <c r="G182" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H182" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I182" s="31"/>
-      <c r="J182" s="31">
+      <c r="I182" s="29"/>
+      <c r="J182" s="29">
         <v>1117</v>
       </c>
-      <c r="K182" s="31">
+      <c r="K182" s="29">
         <v>8600</v>
       </c>
-      <c r="L182" s="33">
+      <c r="L182" s="30">
         <v>4</v>
       </c>
-      <c r="M182" s="31">
+      <c r="M182" s="29">
         <v>15</v>
       </c>
-      <c r="N182" s="31">
+      <c r="N182" s="29">
         <v>60</v>
       </c>
-      <c r="O182" s="27">
+      <c r="O182" s="26">
         <v>90</v>
       </c>
-      <c r="P182" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q182" s="34">
+      <c r="P182" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q182" s="31">
         <v>100000</v>
       </c>
-      <c r="R182" s="27">
+      <c r="R182" s="26">
         <v>5</v>
       </c>
-      <c r="S182" s="27">
+      <c r="S182" s="26">
         <v>20</v>
       </c>
-      <c r="T182" s="27">
+      <c r="T182" s="26">
         <v>1</v>
       </c>
-      <c r="U182" s="31">
+      <c r="U182" s="29">
         <v>15</v>
       </c>
-      <c r="V182" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W182" s="35">
+      <c r="V182" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W182" s="32">
         <v>2024</v>
       </c>
     </row>
     <row r="183" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D183" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F183" s="37" t="s">
+      <c r="D183" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F183" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G183" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H183" s="38" t="e">
+      <c r="G183" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H183" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I183" s="37"/>
-      <c r="J183" s="37">
+      <c r="I183" s="34"/>
+      <c r="J183" s="34">
         <v>1340</v>
       </c>
-      <c r="K183" s="37">
+      <c r="K183" s="34">
         <v>2410</v>
       </c>
-      <c r="L183" s="33">
+      <c r="L183" s="30">
         <v>5</v>
       </c>
-      <c r="M183" s="37">
+      <c r="M183" s="34">
         <v>8.18</v>
       </c>
-      <c r="N183" s="37">
+      <c r="N183" s="34">
         <v>60</v>
       </c>
-      <c r="O183" s="24">
+      <c r="O183" s="23">
         <v>90</v>
       </c>
-      <c r="P183" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q183" s="39">
+      <c r="P183" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q183" s="35">
         <v>100000</v>
       </c>
-      <c r="R183" s="24">
+      <c r="R183" s="23">
         <v>5</v>
       </c>
-      <c r="S183" s="24">
+      <c r="S183" s="23">
         <v>20</v>
       </c>
-      <c r="T183" s="24">
+      <c r="T183" s="23">
         <v>1</v>
       </c>
-      <c r="U183" s="37">
+      <c r="U183" s="34">
         <v>15</v>
       </c>
-      <c r="V183" s="37" t="s">
+      <c r="V183" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W183" s="36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="184" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="D184" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="W183" s="40">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="184" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D184" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F184" s="31" t="s">
+      <c r="F184" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G184" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H184" s="32" t="e">
+      <c r="G184" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H184" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I184" s="31"/>
-      <c r="J184" s="31">
+      <c r="I184" s="29"/>
+      <c r="J184" s="29">
         <v>1340</v>
       </c>
-      <c r="K184" s="31">
+      <c r="K184" s="29">
         <v>2410</v>
       </c>
-      <c r="L184" s="33">
+      <c r="L184" s="30">
         <v>5</v>
       </c>
-      <c r="M184" s="31">
+      <c r="M184" s="29">
         <v>10.029999999999999</v>
       </c>
-      <c r="N184" s="31">
+      <c r="N184" s="29">
         <v>60</v>
       </c>
-      <c r="O184" s="27">
+      <c r="O184" s="26">
         <v>90</v>
       </c>
-      <c r="P184" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q184" s="34">
+      <c r="P184" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q184" s="31">
         <v>100000</v>
       </c>
-      <c r="R184" s="27">
+      <c r="R184" s="26">
         <v>5</v>
       </c>
-      <c r="S184" s="27">
+      <c r="S184" s="26">
         <v>20</v>
       </c>
-      <c r="T184" s="27">
+      <c r="T184" s="26">
         <v>1</v>
       </c>
-      <c r="U184" s="31">
+      <c r="U184" s="29">
         <v>15</v>
       </c>
-      <c r="V184" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W184" s="35">
+      <c r="V184" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W184" s="32">
         <v>2019</v>
       </c>
     </row>
     <row r="185" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D185" s="36" t="s">
+      <c r="D185" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E185" s="37" t="s">
+      <c r="E185" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F185" s="37" t="s">
+      <c r="F185" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G185" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H185" s="38" t="e">
+      <c r="G185" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H185" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I185" s="37"/>
-      <c r="J185" s="37">
+      <c r="I185" s="34"/>
+      <c r="J185" s="34">
         <v>1000</v>
       </c>
-      <c r="K185" s="37">
+      <c r="K185" s="34">
         <v>3154</v>
       </c>
-      <c r="L185" s="33">
+      <c r="L185" s="30">
         <v>5</v>
       </c>
-      <c r="M185" s="37">
+      <c r="M185" s="34">
         <v>9</v>
       </c>
-      <c r="N185" s="37">
+      <c r="N185" s="34">
         <v>60</v>
       </c>
-      <c r="O185" s="24">
+      <c r="O185" s="23">
         <v>90</v>
       </c>
-      <c r="P185" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q185" s="39">
+      <c r="P185" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q185" s="35">
         <v>100000</v>
       </c>
-      <c r="R185" s="24">
+      <c r="R185" s="23">
         <v>5</v>
       </c>
-      <c r="S185" s="24">
+      <c r="S185" s="23">
         <v>20</v>
       </c>
-      <c r="T185" s="24">
+      <c r="T185" s="23">
         <v>1</v>
       </c>
-      <c r="U185" s="37">
+      <c r="U185" s="34">
         <v>15</v>
       </c>
-      <c r="V185" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W185" s="40">
+      <c r="V185" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W185" s="36">
         <v>2018</v>
       </c>
     </row>
     <row r="186" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D186" s="30" t="s">
+      <c r="D186" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E186" s="31" t="s">
+      <c r="E186" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F186" s="31" t="s">
+      <c r="F186" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G186" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H186" s="31" t="e">
+      <c r="G186" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H186" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I186" s="31"/>
-      <c r="J186" s="31">
+      <c r="I186" s="29"/>
+      <c r="J186" s="29">
         <v>1000</v>
       </c>
-      <c r="K186" s="31">
+      <c r="K186" s="29">
         <v>3154</v>
       </c>
-      <c r="L186" s="33">
+      <c r="L186" s="30">
         <v>5</v>
       </c>
-      <c r="M186" s="31">
+      <c r="M186" s="29">
         <v>9</v>
       </c>
-      <c r="N186" s="31">
+      <c r="N186" s="29">
         <v>60</v>
       </c>
-      <c r="O186" s="27">
+      <c r="O186" s="26">
         <v>90</v>
       </c>
-      <c r="P186" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q186" s="34">
+      <c r="P186" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q186" s="31">
         <v>100000</v>
       </c>
-      <c r="R186" s="27">
+      <c r="R186" s="26">
         <v>5</v>
       </c>
-      <c r="S186" s="27">
+      <c r="S186" s="26">
         <v>20</v>
       </c>
-      <c r="T186" s="27">
+      <c r="T186" s="26">
         <v>1</v>
       </c>
-      <c r="U186" s="31">
+      <c r="U186" s="29">
         <v>15</v>
       </c>
-      <c r="V186" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W186" s="35">
+      <c r="V186" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W186" s="32">
         <v>2018</v>
       </c>
     </row>
     <row r="187" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D187" s="36" t="s">
+      <c r="D187" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="E187" s="37" t="s">
+      <c r="E187" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F187" s="37" t="s">
+      <c r="F187" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G187" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H187" s="37" t="e">
+      <c r="G187" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H187" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I187" s="37"/>
-      <c r="J187" s="37">
+      <c r="I187" s="34"/>
+      <c r="J187" s="34">
         <v>1660</v>
       </c>
-      <c r="K187" s="37">
+      <c r="K187" s="34">
         <v>3222</v>
       </c>
-      <c r="L187" s="33">
+      <c r="L187" s="30">
         <v>4.5</v>
       </c>
-      <c r="M187" s="37">
+      <c r="M187" s="34">
         <v>9.1</v>
       </c>
-      <c r="N187" s="37">
+      <c r="N187" s="34">
         <v>60</v>
       </c>
-      <c r="O187" s="24">
+      <c r="O187" s="23">
         <v>90</v>
       </c>
-      <c r="P187" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q187" s="39">
+      <c r="P187" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q187" s="35">
         <v>100000</v>
       </c>
-      <c r="R187" s="24">
+      <c r="R187" s="23">
         <v>5</v>
       </c>
-      <c r="S187" s="24">
+      <c r="S187" s="23">
         <v>20</v>
       </c>
-      <c r="T187" s="24">
+      <c r="T187" s="23">
         <v>1</v>
       </c>
-      <c r="U187" s="37">
+      <c r="U187" s="34">
         <v>15</v>
       </c>
-      <c r="V187" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W187" s="40">
+      <c r="V187" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W187" s="36">
         <v>2018</v>
       </c>
     </row>
     <row r="188" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E188" s="31" t="s">
+      <c r="E188" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F188" s="31" t="s">
+      <c r="F188" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G188" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H188" s="31" t="e">
+      <c r="G188" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H188" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I188" s="31"/>
-      <c r="J188" s="31">
+      <c r="I188" s="29"/>
+      <c r="J188" s="29">
         <v>1660</v>
       </c>
-      <c r="K188" s="31">
+      <c r="K188" s="29">
         <v>3222</v>
       </c>
-      <c r="L188" s="33">
+      <c r="L188" s="30">
         <v>4.5</v>
       </c>
-      <c r="M188" s="31">
+      <c r="M188" s="29">
         <v>9.4</v>
       </c>
-      <c r="N188" s="31">
+      <c r="N188" s="29">
         <v>60</v>
       </c>
-      <c r="O188" s="27">
+      <c r="O188" s="26">
         <v>90</v>
       </c>
-      <c r="P188" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q188" s="34">
+      <c r="P188" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q188" s="31">
         <v>100000</v>
       </c>
-      <c r="R188" s="27">
+      <c r="R188" s="26">
         <v>5</v>
       </c>
-      <c r="S188" s="27">
+      <c r="S188" s="26">
         <v>20</v>
       </c>
-      <c r="T188" s="27">
+      <c r="T188" s="26">
         <v>1</v>
       </c>
-      <c r="U188" s="31">
+      <c r="U188" s="29">
         <v>15</v>
       </c>
-      <c r="V188" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W188" s="35">
+      <c r="V188" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W188" s="32">
         <v>2019</v>
       </c>
     </row>
     <row r="189" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D189" s="36" t="s">
+      <c r="D189" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E189" s="37" t="s">
+      <c r="E189" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F189" s="37" t="s">
+      <c r="F189" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G189" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H189" s="37" t="e">
+      <c r="G189" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H189" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I189" s="37"/>
-      <c r="J189" s="37">
+      <c r="I189" s="34"/>
+      <c r="J189" s="34">
         <v>1144</v>
       </c>
-      <c r="K189" s="37">
+      <c r="K189" s="34">
         <v>2244</v>
       </c>
-      <c r="L189" s="33">
+      <c r="L189" s="30">
         <v>6</v>
       </c>
-      <c r="M189" s="37">
+      <c r="M189" s="34">
         <v>8.68</v>
       </c>
-      <c r="N189" s="37">
+      <c r="N189" s="34">
         <v>60</v>
       </c>
-      <c r="O189" s="24">
+      <c r="O189" s="23">
         <v>90</v>
       </c>
-      <c r="P189" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q189" s="39">
+      <c r="P189" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q189" s="35">
         <v>100000</v>
       </c>
-      <c r="R189" s="24">
+      <c r="R189" s="23">
         <v>5</v>
       </c>
-      <c r="S189" s="24">
+      <c r="S189" s="23">
         <v>20</v>
       </c>
-      <c r="T189" s="24">
+      <c r="T189" s="23">
         <v>1</v>
       </c>
-      <c r="U189" s="37">
+      <c r="U189" s="34">
         <v>15</v>
       </c>
-      <c r="V189" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W189" s="40">
+      <c r="V189" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W189" s="36">
         <v>2016</v>
       </c>
     </row>
     <row r="190" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D190" s="30" t="s">
+      <c r="D190" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E190" s="31" t="s">
+      <c r="E190" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F190" s="31" t="s">
+      <c r="F190" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G190" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H190" s="31" t="e">
+      <c r="G190" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H190" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I190" s="31"/>
-      <c r="J190" s="31">
+      <c r="I190" s="29"/>
+      <c r="J190" s="29">
         <v>1144</v>
       </c>
-      <c r="K190" s="31">
+      <c r="K190" s="29">
         <v>2244</v>
       </c>
-      <c r="L190" s="33">
+      <c r="L190" s="30">
         <v>7</v>
       </c>
-      <c r="M190" s="31">
+      <c r="M190" s="29">
         <v>10.31</v>
       </c>
-      <c r="N190" s="31">
+      <c r="N190" s="29">
         <v>60</v>
       </c>
-      <c r="O190" s="27">
+      <c r="O190" s="26">
         <v>90</v>
       </c>
-      <c r="P190" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q190" s="34">
+      <c r="P190" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q190" s="31">
         <v>100000</v>
       </c>
-      <c r="R190" s="27">
+      <c r="R190" s="26">
         <v>5</v>
       </c>
-      <c r="S190" s="27">
+      <c r="S190" s="26">
         <v>20</v>
       </c>
-      <c r="T190" s="27">
+      <c r="T190" s="26">
         <v>1</v>
       </c>
-      <c r="U190" s="31">
+      <c r="U190" s="29">
         <v>15</v>
       </c>
-      <c r="V190" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W190" s="35">
+      <c r="V190" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W190" s="32">
         <v>2019</v>
       </c>
     </row>
     <row r="191" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D191" s="36" t="s">
+      <c r="D191" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E191" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F191" s="37" t="s">
+      <c r="E191" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F191" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G191" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H191" s="37" t="e">
+      <c r="G191" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H191" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I191" s="37"/>
-      <c r="J191" s="37">
+      <c r="I191" s="34"/>
+      <c r="J191" s="34">
         <v>200</v>
       </c>
-      <c r="K191" s="37">
+      <c r="K191" s="34">
         <v>7195</v>
       </c>
-      <c r="L191" s="33">
+      <c r="L191" s="30">
         <v>6</v>
       </c>
-      <c r="M191" s="37">
+      <c r="M191" s="34">
         <v>10.83</v>
       </c>
-      <c r="N191" s="37">
+      <c r="N191" s="34">
         <v>40</v>
       </c>
-      <c r="O191" s="24">
+      <c r="O191" s="23">
         <v>90</v>
       </c>
-      <c r="P191" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q191" s="39">
+      <c r="P191" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q191" s="35">
         <v>100000</v>
       </c>
-      <c r="R191" s="24">
+      <c r="R191" s="23">
         <v>5</v>
       </c>
-      <c r="S191" s="24">
+      <c r="S191" s="23">
         <v>20</v>
       </c>
-      <c r="T191" s="24">
+      <c r="T191" s="23">
         <v>1</v>
       </c>
-      <c r="U191" s="37">
+      <c r="U191" s="34">
         <v>15</v>
       </c>
-      <c r="V191" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W191" s="40">
+      <c r="V191" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W191" s="36">
         <v>1976</v>
       </c>
     </row>
     <row r="192" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E192" s="31" t="s">
+      <c r="E192" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F192" s="31" t="s">
+      <c r="F192" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G192" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="H192" s="31" t="e">
+      <c r="G192" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H192" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I192" s="31"/>
-      <c r="J192" s="31">
+      <c r="I192" s="29"/>
+      <c r="J192" s="29">
         <v>200</v>
       </c>
-      <c r="K192" s="31">
+      <c r="K192" s="29">
         <v>8108</v>
       </c>
-      <c r="L192" s="33">
+      <c r="L192" s="30">
         <v>6</v>
       </c>
-      <c r="M192" s="31">
+      <c r="M192" s="29">
         <v>10.83</v>
       </c>
-      <c r="N192" s="31">
+      <c r="N192" s="29">
         <v>40</v>
       </c>
-      <c r="O192" s="27">
+      <c r="O192" s="26">
         <v>90</v>
       </c>
-      <c r="P192" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q192" s="34">
+      <c r="P192" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q192" s="31">
         <v>100000</v>
       </c>
-      <c r="R192" s="27">
+      <c r="R192" s="26">
         <v>5</v>
       </c>
-      <c r="S192" s="27">
+      <c r="S192" s="26">
         <v>20</v>
       </c>
-      <c r="T192" s="27">
+      <c r="T192" s="26">
         <v>1</v>
       </c>
-      <c r="U192" s="31">
+      <c r="U192" s="29">
         <v>15</v>
       </c>
-      <c r="V192" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W192" s="35">
+      <c r="V192" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W192" s="32">
         <v>1976</v>
       </c>
     </row>
     <row r="193" spans="4:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="D193" s="36" t="s">
+      <c r="D193" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E193" s="37" t="s">
+      <c r="E193" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F193" s="37" t="s">
+      <c r="F193" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G193" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H193" s="37" t="e">
+      <c r="G193" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H193" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I193" s="37"/>
-      <c r="J193" s="37">
+      <c r="I193" s="34"/>
+      <c r="J193" s="34">
         <v>46</v>
       </c>
-      <c r="K193" s="37">
+      <c r="K193" s="34">
         <v>1197</v>
       </c>
-      <c r="L193" s="33">
+      <c r="L193" s="30">
         <v>6</v>
       </c>
-      <c r="M193" s="37">
+      <c r="M193" s="34">
         <v>5.33</v>
       </c>
-      <c r="N193" s="37">
+      <c r="N193" s="34">
         <v>40</v>
       </c>
-      <c r="O193" s="24">
+      <c r="O193" s="23">
         <v>90</v>
       </c>
-      <c r="P193" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q193" s="39">
+      <c r="P193" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q193" s="35">
         <v>100000</v>
       </c>
-      <c r="R193" s="24">
+      <c r="R193" s="23">
         <v>5</v>
       </c>
-      <c r="S193" s="24">
+      <c r="S193" s="23">
         <v>20</v>
       </c>
-      <c r="T193" s="24">
+      <c r="T193" s="23">
         <v>1</v>
       </c>
-      <c r="U193" s="37">
+      <c r="U193" s="34">
         <v>15</v>
       </c>
-      <c r="V193" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W193" s="40">
+      <c r="V193" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W193" s="36">
         <v>1967</v>
       </c>
     </row>
     <row r="194" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D194" s="30" t="s">
+      <c r="D194" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E194" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F194" s="31" t="s">
+      <c r="E194" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F194" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G194" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H194" s="31" t="e">
+      <c r="G194" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H194" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I194" s="31">
+      <c r="I194" s="29">
         <v>820</v>
       </c>
-      <c r="J194" s="31">
+      <c r="J194" s="29">
         <v>885</v>
       </c>
-      <c r="K194" s="31">
+      <c r="K194" s="29">
         <v>2501</v>
       </c>
-      <c r="L194" s="41">
+      <c r="L194" s="37">
         <v>8</v>
       </c>
-      <c r="M194" s="31">
+      <c r="M194" s="29">
         <v>8</v>
       </c>
-      <c r="N194" s="31">
+      <c r="N194" s="29">
         <v>60</v>
       </c>
-      <c r="O194" s="27">
+      <c r="O194" s="26">
         <v>90</v>
       </c>
-      <c r="P194" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q194" s="34">
+      <c r="P194" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q194" s="31">
         <v>100000</v>
       </c>
-      <c r="R194" s="27">
+      <c r="R194" s="26">
         <v>5</v>
       </c>
-      <c r="S194" s="27">
+      <c r="S194" s="26">
         <v>20</v>
       </c>
-      <c r="T194" s="27">
+      <c r="T194" s="26">
         <v>1</v>
       </c>
-      <c r="U194" s="31">
+      <c r="U194" s="29">
         <v>15</v>
       </c>
-      <c r="V194" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="W194" s="35">
+      <c r="V194" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="W194" s="32">
         <v>2015</v>
       </c>
     </row>
     <row r="195" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D195" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E195" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F195" s="37" t="s">
+      <c r="D195" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E195" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F195" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G195" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H195" s="37" t="e">
+      <c r="G195" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H195" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I195" s="37"/>
-      <c r="J195" s="37">
+      <c r="I195" s="34"/>
+      <c r="J195" s="34">
         <v>1250</v>
       </c>
-      <c r="K195" s="37">
+      <c r="K195" s="34">
         <v>6145</v>
       </c>
-      <c r="L195" s="41">
+      <c r="L195" s="37">
         <v>7</v>
       </c>
-      <c r="M195" s="37">
+      <c r="M195" s="34">
         <v>10</v>
       </c>
-      <c r="N195" s="37">
+      <c r="N195" s="34">
         <v>40</v>
       </c>
-      <c r="O195" s="24">
+      <c r="O195" s="23">
         <v>90</v>
       </c>
-      <c r="P195" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q195" s="39">
+      <c r="P195" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q195" s="35">
         <v>100000</v>
       </c>
-      <c r="R195" s="24">
+      <c r="R195" s="23">
         <v>5</v>
       </c>
-      <c r="S195" s="24">
+      <c r="S195" s="23">
         <v>20</v>
       </c>
-      <c r="T195" s="24">
+      <c r="T195" s="23">
         <v>1</v>
       </c>
-      <c r="U195" s="37">
+      <c r="U195" s="34">
         <v>15</v>
       </c>
-      <c r="V195" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="W195" s="40">
+      <c r="V195" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="W195" s="36">
         <v>1986</v>
       </c>
     </row>
     <row r="196" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E196" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F196" s="27" t="s">
+      <c r="E196" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F196" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G196" s="27"/>
-      <c r="H196" s="31" t="e">
+      <c r="G196" s="26"/>
+      <c r="H196" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I196" s="27"/>
-      <c r="J196" s="27">
+      <c r="I196" s="26"/>
+      <c r="J196" s="26">
         <v>1200</v>
       </c>
-      <c r="K196" s="27"/>
-      <c r="L196" s="42">
+      <c r="K196" s="26"/>
+      <c r="L196" s="38">
         <v>5</v>
       </c>
-      <c r="M196" s="31">
+      <c r="M196" s="29">
         <v>10</v>
       </c>
-      <c r="N196" s="27"/>
-      <c r="O196" s="27"/>
-      <c r="P196" s="27"/>
-      <c r="Q196" s="27"/>
-      <c r="R196" s="27"/>
-      <c r="S196" s="27"/>
-      <c r="T196" s="27"/>
-      <c r="U196" s="27"/>
-      <c r="V196" s="27"/>
-      <c r="W196" s="28"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="26"/>
+      <c r="P196" s="26"/>
+      <c r="Q196" s="26"/>
+      <c r="R196" s="26"/>
+      <c r="S196" s="26"/>
+      <c r="T196" s="26"/>
+      <c r="U196" s="26"/>
+      <c r="V196" s="26"/>
+      <c r="W196" s="27"/>
     </row>
     <row r="197" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D197" s="23" t="s">
+      <c r="D197" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E197" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F197" s="24" t="s">
+      <c r="E197" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G197" s="24"/>
-      <c r="H197" s="37" t="e">
+      <c r="G197" s="23"/>
+      <c r="H197" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I197" s="24"/>
-      <c r="J197" s="24">
+      <c r="I197" s="23"/>
+      <c r="J197" s="23">
         <v>1200</v>
       </c>
-      <c r="K197" s="24"/>
-      <c r="L197" s="42">
+      <c r="K197" s="23"/>
+      <c r="L197" s="38">
         <v>6</v>
       </c>
-      <c r="M197" s="37">
+      <c r="M197" s="34">
         <v>12</v>
       </c>
-      <c r="N197" s="24"/>
-      <c r="O197" s="24"/>
-      <c r="P197" s="24"/>
-      <c r="Q197" s="24"/>
-      <c r="R197" s="24"/>
-      <c r="S197" s="24"/>
-      <c r="T197" s="24"/>
-      <c r="U197" s="24"/>
-      <c r="V197" s="24"/>
-      <c r="W197" s="25"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="23"/>
+      <c r="U197" s="23"/>
+      <c r="V197" s="23"/>
+      <c r="W197" s="24"/>
     </row>
     <row r="198" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D198" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E198" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F198" s="27" t="s">
+      <c r="D198" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F198" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G198" s="27"/>
-      <c r="H198" s="31" t="e">
+      <c r="G198" s="26"/>
+      <c r="H198" s="29" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I198" s="27"/>
-      <c r="J198" s="27">
+      <c r="I198" s="26"/>
+      <c r="J198" s="26">
         <v>1400</v>
       </c>
-      <c r="K198" s="27"/>
-      <c r="L198" s="42">
+      <c r="K198" s="26"/>
+      <c r="L198" s="38">
         <v>5</v>
       </c>
-      <c r="M198" s="31">
+      <c r="M198" s="29">
         <v>10</v>
       </c>
-      <c r="N198" s="27"/>
-      <c r="O198" s="27"/>
-      <c r="P198" s="27"/>
-      <c r="Q198" s="27"/>
-      <c r="R198" s="27"/>
-      <c r="S198" s="27"/>
-      <c r="T198" s="27"/>
-      <c r="U198" s="27"/>
-      <c r="V198" s="27"/>
-      <c r="W198" s="28"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="26"/>
+      <c r="P198" s="26"/>
+      <c r="Q198" s="26"/>
+      <c r="R198" s="26"/>
+      <c r="S198" s="26"/>
+      <c r="T198" s="26"/>
+      <c r="U198" s="26"/>
+      <c r="V198" s="26"/>
+      <c r="W198" s="27"/>
     </row>
     <row r="199" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D199" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F199" s="24" t="s">
+      <c r="D199" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F199" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G199" s="24"/>
-      <c r="H199" s="37" t="e">
+      <c r="G199" s="23"/>
+      <c r="H199" s="34" t="e">
         <f>IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=50,"Micro",IF(Table2[[#This Row],[Capacity (net MWe)]]&lt;=500,"SMR","Large"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I199" s="24"/>
-      <c r="J199" s="24">
+      <c r="I199" s="23"/>
+      <c r="J199" s="23">
         <v>1400</v>
       </c>
-      <c r="K199" s="24"/>
-      <c r="L199" s="42">
+      <c r="K199" s="23"/>
+      <c r="L199" s="38">
         <v>5</v>
       </c>
-      <c r="M199" s="37">
+      <c r="M199" s="34">
         <v>11</v>
       </c>
-      <c r="N199" s="24"/>
-      <c r="O199" s="24"/>
-      <c r="P199" s="24"/>
-      <c r="Q199" s="24"/>
-      <c r="R199" s="24"/>
-      <c r="S199" s="24"/>
-      <c r="T199" s="24"/>
-      <c r="U199" s="24"/>
-      <c r="V199" s="24"/>
-      <c r="W199" s="25"/>
+      <c r="N199" s="23"/>
+      <c r="O199" s="23"/>
+      <c r="P199" s="23"/>
+      <c r="Q199" s="23"/>
+      <c r="R199" s="23"/>
+      <c r="S199" s="23"/>
+      <c r="T199" s="23"/>
+      <c r="U199" s="23"/>
+      <c r="V199" s="23"/>
+      <c r="W199" s="24"/>
     </row>
     <row r="200" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D200" s="26"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="31"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="42"/>
-      <c r="M200" s="31"/>
-      <c r="N200" s="27"/>
-      <c r="O200" s="27"/>
-      <c r="P200" s="27"/>
-      <c r="Q200" s="27"/>
-      <c r="R200" s="27"/>
-      <c r="S200" s="27"/>
-      <c r="T200" s="27"/>
-      <c r="U200" s="27"/>
-      <c r="V200" s="27"/>
-      <c r="W200" s="28"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="29"/>
+      <c r="I200" s="26"/>
+      <c r="J200" s="26"/>
+      <c r="K200" s="26"/>
+      <c r="L200" s="38"/>
+      <c r="M200" s="29"/>
+      <c r="N200" s="26"/>
+      <c r="O200" s="26"/>
+      <c r="P200" s="26"/>
+      <c r="Q200" s="26"/>
+      <c r="R200" s="26"/>
+      <c r="S200" s="26"/>
+      <c r="T200" s="26"/>
+      <c r="U200" s="26"/>
+      <c r="V200" s="26"/>
+      <c r="W200" s="27"/>
     </row>
     <row r="201" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D201" s="23"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24"/>
-      <c r="G201" s="24"/>
-      <c r="H201" s="37"/>
-      <c r="I201" s="24"/>
-      <c r="J201" s="24"/>
-      <c r="K201" s="24"/>
-      <c r="L201" s="42"/>
-      <c r="M201" s="37"/>
-      <c r="N201" s="24"/>
-      <c r="O201" s="24"/>
-      <c r="P201" s="24"/>
-      <c r="Q201" s="24"/>
-      <c r="R201" s="24"/>
-      <c r="S201" s="24"/>
-      <c r="T201" s="24"/>
-      <c r="U201" s="24"/>
-      <c r="V201" s="24"/>
-      <c r="W201" s="25"/>
+      <c r="D201" s="22"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="23"/>
+      <c r="J201" s="23"/>
+      <c r="K201" s="23"/>
+      <c r="L201" s="38"/>
+      <c r="M201" s="34"/>
+      <c r="N201" s="23"/>
+      <c r="O201" s="23"/>
+      <c r="P201" s="23"/>
+      <c r="Q201" s="23"/>
+      <c r="R201" s="23"/>
+      <c r="S201" s="23"/>
+      <c r="T201" s="23"/>
+      <c r="U201" s="23"/>
+      <c r="V201" s="23"/>
+      <c r="W201" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I99" r:id="rId1" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{3E522870-69D7-44AB-8CD5-B24D820B5DFC}"/>
     <hyperlink ref="I72" r:id="rId2" location="b48" display="https://www.sciencedirect.com/science/article/pii/S0360544223015980 - b48" xr:uid="{C0ACFC95-F487-4126-A95A-F8F5187D2FBD}"/>
@@ -7108,68 +7362,68 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>120</v>
-      </c>
-      <c r="E8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -7197,16 +7451,16 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7215,11 +7469,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>4.6195638746212568E-2</v>
+        <v>7.7406423242385086E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.88037768850774212</v>
+        <v>0.89964324168334731</v>
       </c>
     </row>
   </sheetData>
@@ -7228,6 +7482,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009EF5DFF61A5A2E4186425FEA105E497F" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5889d7251965a5bf886eedff40393a9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="022a34b1-9d82-4dd2-8ef7-65dd835f832c" xmlns:ns4="e404e11a-1b7c-46a4-be41-f958fe29f57e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc3e933e69588f52c8578e0e3109839" ns3:_="" ns4:_="">
     <xsd:import namespace="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
@@ -7436,24 +7707,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D3CD77-C489-4EE9-BFD2-ED0E2707FBF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7470,29 +7749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="505" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BAB172B-6619-4BE6-BC32-4C539A54A0DA}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD9C644-6491-4C96-BB11-809F97DC3382}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3255" windowWidth="29040" windowHeight="15720" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="2805" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -523,9 +523,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>OPEX variable (USD2025/MWh)</t>
-  </si>
-  <si>
     <t>leningrad II 1</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
   </si>
   <si>
     <t>OPEX fixed (eur2020/MW-yr)</t>
+  </si>
+  <si>
+    <t>OPEX variable (eur2025/MWh)</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -966,13 +966,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -1239,7 +1235,7 @@
     <tableColumn id="9" xr3:uid="{D368D5D8-E16F-4F9A-8EE2-94A2BB4AFD90}" name="Capacity factor (%)"/>
     <tableColumn id="10" xr3:uid="{6096C3E3-4466-42E9-B93D-DB781D029E1B}" name="WACC (real %)"/>
     <tableColumn id="11" xr3:uid="{AF94017F-19BA-4C85-989F-C4991FC8DB92}" name="OPEX fixed (eur2020/MW-yr)"/>
-    <tableColumn id="12" xr3:uid="{9FBD497D-93AE-4DA6-BB28-62105E15001C}" name="OPEX variable (USD2025/MWh)"/>
+    <tableColumn id="12" xr3:uid="{9FBD497D-93AE-4DA6-BB28-62105E15001C}" name="OPEX variable (eur2025/MWh)"/>
     <tableColumn id="13" xr3:uid="{DF71A38F-C60A-4154-8DF3-56D7A37367E5}" name="Fuel (eur2020/MWh)"/>
     <tableColumn id="14" xr3:uid="{F25DEC50-AF34-45F1-BDFF-4448D82043E2}" name="Waste (eur2020/MWh)"/>
     <tableColumn id="15" xr3:uid="{9583958C-805F-498D-87D6-E8CACED18DF2}" name="Decom (% of CAPEX)"/>
@@ -1616,7 +1612,7 @@
   <dimension ref="B1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B3" sqref="B3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1671,7 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
         <v>131</v>
@@ -1693,16 +1689,16 @@
         <v>8</v>
       </c>
       <c r="O3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" t="s">
         <v>223</v>
       </c>
-      <c r="P3" t="s">
-        <v>161</v>
-      </c>
       <c r="Q3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S3" t="s">
         <v>102</v>
@@ -2438,7 +2434,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -2943,7 +2939,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2984,7 +2980,7 @@
         <v>0.5</v>
       </c>
       <c r="T23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U23">
         <v>2021</v>
@@ -2995,7 +2991,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
@@ -3036,7 +3032,7 @@
         <v>0.5</v>
       </c>
       <c r="T24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U24">
         <v>2022</v>
@@ -3047,7 +3043,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -3088,7 +3084,7 @@
         <v>0.5</v>
       </c>
       <c r="T25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U25">
         <v>2023</v>
@@ -3099,7 +3095,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -3140,7 +3136,7 @@
         <v>0.5</v>
       </c>
       <c r="T26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U26">
         <v>2024</v>
@@ -3151,7 +3147,7 @@
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -3192,7 +3188,7 @@
         <v>0.5</v>
       </c>
       <c r="T27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U27">
         <v>2025</v>
@@ -3203,7 +3199,7 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -3244,7 +3240,7 @@
         <v>0.5</v>
       </c>
       <c r="T28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U28">
         <v>2026</v>
@@ -3255,7 +3251,7 @@
         <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
@@ -3296,7 +3292,7 @@
         <v>0.5</v>
       </c>
       <c r="T29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U29">
         <v>2027</v>
@@ -3307,7 +3303,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -3348,7 +3344,7 @@
         <v>0.5</v>
       </c>
       <c r="T30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30">
         <v>2028</v>
@@ -3359,7 +3355,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -3400,7 +3396,7 @@
         <v>0.5</v>
       </c>
       <c r="T31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U31">
         <v>2029</v>
@@ -3411,7 +3407,7 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
@@ -3452,7 +3448,7 @@
         <v>0.5</v>
       </c>
       <c r="T32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U32">
         <v>2030</v>
@@ -4086,17 +4082,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6363914.1049661394</v>
       </c>
-      <c r="J76" s="41">
+      <c r="J76" s="35">
         <v>2250</v>
       </c>
-      <c r="K76" s="43">
+      <c r="K76" s="39">
         <v>144365</v>
       </c>
-      <c r="L76" s="45">
+      <c r="L76" s="41">
         <v>6.23</v>
       </c>
       <c r="M76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4122,13 +4118,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>7259374.9999999991</v>
       </c>
-      <c r="J77" s="42">
+      <c r="J77" s="31">
         <v>5215.9369999999999</v>
       </c>
-      <c r="K77" s="42">
+      <c r="K77" s="31">
         <v>518242</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="26">
         <v>6.23</v>
       </c>
       <c r="M77">
@@ -4158,17 +4154,17 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>10948554.579439251</v>
       </c>
-      <c r="J78" s="41">
+      <c r="J78" s="35">
         <v>6312.5</v>
       </c>
-      <c r="K78" s="41">
+      <c r="K78" s="35">
         <v>146645</v>
       </c>
-      <c r="L78" s="39">
+      <c r="L78" s="23">
         <v>6.23</v>
       </c>
       <c r="M78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
@@ -4194,16 +4190,16 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>3985899.9999999995</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="31">
         <v>8000</v>
       </c>
-      <c r="K79" s="42">
+      <c r="K79" s="31">
         <v>65025</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="26">
         <v>5.31</v>
       </c>
-      <c r="M79" s="46">
+      <c r="M79" s="42">
         <v>0.85719999999999996</v>
       </c>
     </row>
@@ -4230,13 +4226,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4403454.5454545449</v>
       </c>
-      <c r="J80" s="41">
+      <c r="J80" s="35">
         <v>3600</v>
       </c>
-      <c r="K80" s="41">
+      <c r="K80" s="35">
         <v>179595</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L80" s="23">
         <v>7.15</v>
       </c>
     </row>
@@ -4263,13 +4259,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>12264749.999999998</v>
       </c>
-      <c r="J81" s="42">
+      <c r="J81" s="31">
         <v>4212</v>
       </c>
-      <c r="K81" s="42">
+      <c r="K81" s="31">
         <v>170980</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="26">
         <v>6.23</v>
       </c>
     </row>
@@ -4296,13 +4292,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>17020000.5390625</v>
       </c>
-      <c r="J82" s="41">
+      <c r="J82" s="35">
         <v>8532</v>
       </c>
-      <c r="K82" s="41">
+      <c r="K82" s="35">
         <v>146645</v>
       </c>
-      <c r="L82" s="39">
+      <c r="L82" s="23">
         <v>6.23</v>
       </c>
     </row>
@@ -4329,13 +4325,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>30932124.999999996</v>
       </c>
-      <c r="J83" s="42">
+      <c r="J83" s="31">
         <v>13531.429</v>
       </c>
-      <c r="K83" s="42">
+      <c r="K83" s="31">
         <v>170980</v>
       </c>
-      <c r="L83" s="40">
+      <c r="L83" s="26">
         <v>6.23</v>
       </c>
     </row>
@@ -4362,13 +4358,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5408864.4339622641</v>
       </c>
-      <c r="J84" s="41">
+      <c r="J84" s="35">
         <v>23187.5</v>
       </c>
-      <c r="K84" s="41">
+      <c r="K84" s="35">
         <v>146645</v>
       </c>
-      <c r="L84" s="39">
+      <c r="L84" s="23">
         <v>6.23</v>
       </c>
     </row>
@@ -4395,13 +4391,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6520499.9999999991</v>
       </c>
-      <c r="J85" s="42">
+      <c r="J85" s="31">
         <v>4373.3</v>
       </c>
-      <c r="K85" s="42">
+      <c r="K85" s="31">
         <v>104340</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="26">
         <v>19.29</v>
       </c>
     </row>
@@ -4428,13 +4424,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2160606.0606060605</v>
       </c>
-      <c r="J86" s="41">
+      <c r="J86" s="35">
         <v>3270</v>
       </c>
-      <c r="K86" s="41">
+      <c r="K86" s="35">
         <v>168920</v>
       </c>
-      <c r="L86" s="39">
+      <c r="L86" s="23">
         <v>13.96</v>
       </c>
     </row>
@@ -4461,13 +4457,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>5807500</v>
       </c>
-      <c r="J87" s="42">
+      <c r="J87" s="31">
         <v>1734.3</v>
       </c>
-      <c r="K87" s="44">
+      <c r="K87" s="40">
         <v>136630</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="26">
         <v>8.6300000000000008</v>
       </c>
     </row>
@@ -4494,13 +4490,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>26489716.399999999</v>
       </c>
-      <c r="J88" s="41">
+      <c r="J88" s="35">
         <v>5050</v>
       </c>
-      <c r="K88" s="41">
+      <c r="K88" s="35">
         <v>130750</v>
       </c>
-      <c r="L88" s="39">
+      <c r="L88" s="23">
         <v>78.040000000000006</v>
       </c>
     </row>
@@ -4527,13 +4523,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2875000</v>
       </c>
-      <c r="J89" s="42">
+      <c r="J89" s="31">
         <v>19350</v>
       </c>
-      <c r="K89" s="42">
+      <c r="K89" s="31">
         <v>130750</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="26">
         <v>113.05</v>
       </c>
     </row>
@@ -4560,13 +4556,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4662405.8999999994</v>
       </c>
-      <c r="J90" s="41">
+      <c r="J90" s="35">
         <v>6900</v>
       </c>
-      <c r="K90" s="41">
+      <c r="K90" s="35">
         <v>130750</v>
       </c>
-      <c r="L90" s="39">
+      <c r="L90" s="23">
         <v>23.86</v>
       </c>
     </row>
@@ -4593,13 +4589,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>2242500</v>
       </c>
-      <c r="J91" s="42">
+      <c r="J91" s="31">
         <v>4054.2660000000001</v>
       </c>
-      <c r="K91" s="42">
+      <c r="K91" s="31">
         <v>180512</v>
       </c>
-      <c r="L91" s="40">
+      <c r="L91" s="26">
         <v>8.94</v>
       </c>
     </row>
@@ -4626,13 +4622,13 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>6637143.3499999996</v>
       </c>
-      <c r="J92" s="41">
+      <c r="J92" s="35">
         <v>1950</v>
       </c>
-      <c r="K92" s="41">
+      <c r="K92" s="35">
         <v>130750</v>
       </c>
-      <c r="L92" s="39">
+      <c r="L92" s="23">
         <v>29.55</v>
       </c>
     </row>
@@ -4659,24 +4655,24 @@
         <f>(Table1[[#This Row],[Investment cost '[USD2020/MWe']]]*Table1[[#This Row],[Gross Capacity (MWe)]])/Table1[[#This Row],[Net Capacity (Mwe)]]*1.15</f>
         <v>4784000</v>
       </c>
-      <c r="J93" s="42">
+      <c r="J93" s="31">
         <v>5771.4290000000001</v>
       </c>
-      <c r="K93" s="42">
+      <c r="K93" s="31">
         <v>130750</v>
       </c>
-      <c r="L93" s="40">
+      <c r="L93" s="26">
         <v>29.55</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J94" s="41">
+      <c r="J94" s="35">
         <v>4160</v>
       </c>
-      <c r="K94" s="41">
+      <c r="K94" s="35">
         <v>130750</v>
       </c>
-      <c r="L94" s="39">
+      <c r="L94" s="23">
         <v>29.55</v>
       </c>
     </row>
@@ -5297,19 +5293,19 @@
         <v>3270000</v>
       </c>
       <c r="J152" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K152" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K152" s="19" t="s">
+      <c r="L152" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L152" s="19" t="s">
+      <c r="M152" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="M152" s="19" t="s">
+      <c r="N152" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="N152" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5321,10 +5317,10 @@
         <v>5050000</v>
       </c>
       <c r="J153" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="K153" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="L153" s="12">
         <v>22</v>
@@ -5334,7 +5330,7 @@
         <v>0.5</v>
       </c>
       <c r="N153" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
@@ -5347,7 +5343,7 @@
       </c>
       <c r="J154" s="12"/>
       <c r="K154" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L154" s="12">
         <v>17</v>
@@ -5357,7 +5353,7 @@
         <v>0.38636363636363635</v>
       </c>
       <c r="N154" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
@@ -5370,7 +5366,7 @@
       </c>
       <c r="J155" s="12"/>
       <c r="K155" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L155" s="12">
         <v>5</v>
@@ -5380,7 +5376,7 @@
         <v>0.11363636363636363</v>
       </c>
       <c r="N155" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5392,10 +5388,10 @@
         <v>4054266</v>
       </c>
       <c r="J156" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="K156" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="L156" s="12">
         <v>27</v>
@@ -5405,7 +5401,7 @@
         <v>0.61363636363636365</v>
       </c>
       <c r="N156" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
@@ -5418,7 +5414,7 @@
       </c>
       <c r="J157" s="12"/>
       <c r="K157" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L157" s="12">
         <v>5</v>
@@ -5428,7 +5424,7 @@
         <v>0.11363636363636363</v>
       </c>
       <c r="N157" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
@@ -5441,7 +5437,7 @@
       </c>
       <c r="J158" s="12"/>
       <c r="K158" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L158" s="12">
         <v>4</v>
@@ -5451,7 +5447,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="N158" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
@@ -5464,7 +5460,7 @@
       </c>
       <c r="J159" s="12"/>
       <c r="K159" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L159" s="12">
         <v>2</v>
@@ -5474,13 +5470,13 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="N159" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
       <c r="J160" s="12"/>
       <c r="K160" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L160" s="12">
         <v>1</v>
@@ -5490,13 +5486,13 @@
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="N160" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J161" s="12"/>
       <c r="K161" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L161" s="12">
         <v>1</v>
@@ -5506,15 +5502,15 @@
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="N161" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="4:23" ht="45" x14ac:dyDescent="0.25">
       <c r="J162" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="K162" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="L162" s="12">
         <v>25</v>
@@ -5524,13 +5520,13 @@
         <v>0.56818181818181823</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="4:23" ht="60" x14ac:dyDescent="0.25">
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L163" s="12">
         <v>19</v>
@@ -5540,7 +5536,7 @@
         <v>0.43181818181818182</v>
       </c>
       <c r="N163" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="4:23" ht="30" x14ac:dyDescent="0.25">
@@ -7008,7 +7004,7 @@
         <v>92</v>
       </c>
       <c r="E194" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F194" s="29" t="s">
         <v>37</v>
@@ -7132,7 +7128,7 @@
         <v>92</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F196" s="26" t="s">
         <v>13</v>
@@ -7169,7 +7165,7 @@
         <v>92</v>
       </c>
       <c r="E197" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F197" s="23" t="s">
         <v>13</v>
@@ -7206,7 +7202,7 @@
         <v>155</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F198" s="26" t="s">
         <v>13</v>
@@ -7243,7 +7239,7 @@
         <v>155</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F199" s="23" t="s">
         <v>13</v>
@@ -7469,11 +7465,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>7.7406423242385086E-2</v>
+        <v>0.14833719125159589</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.89964324168334731</v>
+        <v>0.77462421035591522</v>
       </c>
     </row>
   </sheetData>
@@ -7482,23 +7478,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009EF5DFF61A5A2E4186425FEA105E497F" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5889d7251965a5bf886eedff40393a9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="022a34b1-9d82-4dd2-8ef7-65dd835f832c" xmlns:ns4="e404e11a-1b7c-46a4-be41-f958fe29f57e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc3e933e69588f52c8578e0e3109839" ns3:_="" ns4:_="">
     <xsd:import namespace="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
@@ -7707,32 +7686,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D3CD77-C489-4EE9-BFD2-ED0E2707FBF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7749,4 +7720,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="506" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD9C644-6491-4C96-BB11-809F97DC3382}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Datasheet" sheetId="1" r:id="rId1"/>
@@ -1615,40 +1615,40 @@
       <selection activeCell="B3" sqref="B3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" customWidth="1"/>
+    <col min="9" max="9" width="30.26953125" customWidth="1"/>
     <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>45</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>155</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>93</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>156</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>157</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>196</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>91</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>158</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>92</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>45</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>45</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>45</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>45</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>45</v>
       </c>
@@ -3454,32 +3454,32 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F34" s="12"/>
       <c r="J34" s="13"/>
       <c r="K34" s="12"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F35" s="12"/>
       <c r="J35" s="13"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F36" s="12"/>
       <c r="J36" s="13"/>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F37" s="12"/>
       <c r="J37" s="13"/>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
       <c r="F38" s="12"/>
       <c r="J38" s="13"/>
       <c r="K38" s="12"/>
@@ -3487,7 +3487,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3508,7 +3508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3526,7 +3526,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -3544,7 +3544,7 @@
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -3562,7 +3562,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3580,7 +3580,7 @@
       <c r="T43" s="12"/>
       <c r="U43" s="12"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -3598,7 +3598,7 @@
       <c r="T44" s="12"/>
       <c r="U44" s="12"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -3616,7 +3616,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="12"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -3634,7 +3634,7 @@
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -3652,7 +3652,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -3670,7 +3670,7 @@
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -3688,7 +3688,7 @@
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -3706,7 +3706,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -3724,7 +3724,7 @@
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -3742,7 +3742,7 @@
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -3760,7 +3760,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -3778,7 +3778,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -3796,7 +3796,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -3814,7 +3814,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -3832,7 +3832,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -3850,7 +3850,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="12"/>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -3868,7 +3868,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="12"/>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -3886,7 +3886,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -3904,7 +3904,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="12"/>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -3922,7 +3922,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -3940,7 +3940,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="12"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -3958,47 +3958,47 @@
       <c r="T64" s="12"/>
       <c r="U64" s="12"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F65" s="12"/>
       <c r="J65" s="16"/>
       <c r="K65" s="12"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F66" s="12"/>
       <c r="J66" s="16"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F67" s="12"/>
       <c r="J67" s="16"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F68" s="12"/>
       <c r="J68" s="16"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F69" s="12"/>
       <c r="J69" s="16"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F70" s="12"/>
       <c r="J70" s="16"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I72" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D73" s="1" t="s">
         <v>42</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="7" t="s">
         <v>4</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>12</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>2587500</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>54</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>45</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>86</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="2:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:13" ht="23" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>45</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.85719999999999996</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>70</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>85</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>70</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>45</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>85</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>19.29</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>89</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>90</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>93</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>88</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>113.05</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>91</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>54</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>45</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>92</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="J94" s="35">
         <v>4160</v>
       </c>
@@ -4676,13 +4676,13 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>4</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>45</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>45</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>45</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>49</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>49</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>52</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
         <v>54</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>8549</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
         <v>54</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
         <v>45</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
         <v>45</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>45</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>45</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>61</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
         <v>61</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>65</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" t="s">
         <v>65</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
         <v>65</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
         <v>65</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
         <v>70</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
         <v>70</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
         <v>45</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
         <v>45</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
         <v>45</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
         <v>70</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" t="s">
         <v>52</v>
       </c>
@@ -5189,12 +5189,12 @@
         <v>27747</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.35">
       <c r="G141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F142">
         <v>2250</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F143">
         <v>5215.9369999999999</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>5215937</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F144">
         <v>6312.5</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>6312500</v>
       </c>
     </row>
-    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F145">
         <v>8000</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F146">
         <v>3600</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F147">
         <v>4212</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>4212000</v>
       </c>
     </row>
-    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F148">
         <v>8532</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>8532000</v>
       </c>
     </row>
-    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F149">
         <v>13531.429</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>13531429</v>
       </c>
     </row>
-    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F150">
         <v>23187.5</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>23187500</v>
       </c>
     </row>
-    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F151">
         <v>4373.3</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>4373300</v>
       </c>
     </row>
-    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.35">
       <c r="F152">
         <v>3270</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F153">
         <v>5050</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:14" ht="58" x14ac:dyDescent="0.35">
       <c r="F154">
         <v>19350</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="6:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:14" ht="58" x14ac:dyDescent="0.35">
       <c r="F155">
         <v>6900</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F156">
         <v>4054.2660000000001</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F157">
         <v>1950</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="158" spans="6:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F158">
         <v>5771.4290000000001</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="F159">
         <v>4160</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="6:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:14" ht="29" x14ac:dyDescent="0.35">
       <c r="J160" s="12"/>
       <c r="K160" s="12" t="s">
         <v>187</v>
@@ -5489,7 +5489,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="161" spans="4:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="J161" s="12"/>
       <c r="K161" s="12" t="s">
         <v>189</v>
@@ -5505,7 +5505,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="4:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="J162" s="20" t="s">
         <v>191</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="4:23" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
         <v>194</v>
@@ -5539,7 +5539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="170" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D170" s="28" t="s">
         <v>45</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="171" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D171" s="33" t="s">
         <v>45</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="172" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D172" s="28" t="s">
         <v>45</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="173" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D173" s="33" t="s">
         <v>159</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="174" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D174" s="28" t="s">
         <v>159</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="175" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D175" s="33" t="s">
         <v>160</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="176" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D176" s="28" t="s">
         <v>160</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D177" s="33" t="s">
         <v>54</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="178" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D178" s="28" t="s">
         <v>54</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="179" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D179" s="33" t="s">
         <v>45</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="180" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D180" s="28" t="s">
         <v>45</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="181" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D181" s="33" t="s">
         <v>45</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="182" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D182" s="28" t="s">
         <v>45</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="183" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D183" s="33" t="s">
         <v>155</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="184" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D184" s="28" t="s">
         <v>155</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D185" s="33" t="s">
         <v>93</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="186" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D186" s="28" t="s">
         <v>93</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="187" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D187" s="33" t="s">
         <v>93</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="188" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D188" s="28" t="s">
         <v>93</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="189" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D189" s="33" t="s">
         <v>92</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="190" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D190" s="28" t="s">
         <v>92</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="191" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D191" s="33" t="s">
         <v>45</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="192" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D192" s="28" t="s">
         <v>45</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="193" spans="4:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:23" ht="29" x14ac:dyDescent="0.35">
       <c r="D193" s="33" t="s">
         <v>45</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="194" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D194" s="28" t="s">
         <v>92</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="195" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D195" s="33" t="s">
         <v>160</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="196" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D196" s="25" t="s">
         <v>92</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="V196" s="26"/>
       <c r="W196" s="27"/>
     </row>
-    <row r="197" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D197" s="22" t="s">
         <v>92</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="V197" s="23"/>
       <c r="W197" s="24"/>
     </row>
-    <row r="198" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D198" s="25" t="s">
         <v>155</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="V198" s="26"/>
       <c r="W198" s="27"/>
     </row>
-    <row r="199" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D199" s="22" t="s">
         <v>155</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="V199" s="23"/>
       <c r="W199" s="24"/>
     </row>
-    <row r="200" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D200" s="25"/>
       <c r="E200" s="26"/>
       <c r="F200" s="26"/>
@@ -7293,7 +7293,7 @@
       <c r="V200" s="26"/>
       <c r="W200" s="27"/>
     </row>
-    <row r="201" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:23" x14ac:dyDescent="0.35">
       <c r="D201" s="22"/>
       <c r="E201" s="23"/>
       <c r="F201" s="23"/>
@@ -7342,13 +7342,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>107</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>110</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>111</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>112</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>113</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -7438,14 +7438,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -7459,17 +7459,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>0.14833719125159589</v>
+        <v>0.14559154419010023</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.77462421035591522</v>
+        <v>0.84125789024431052</v>
       </c>
     </row>
   </sheetData>

--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c3325f57cbbe622/SKOLEARBEID/Master/MasterOPPGAVE/julialange kode til masteroppgave/_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD9C644-6491-4C96-BB11-809F97DC3382}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{7696E0A4-7455-4CF4-88F8-3006FA44D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419187A1-ACC3-46A3-8395-713835205896}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{7180C01F-BAB0-43C4-8B6A-D12813804A36}"/>
   </bookViews>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3215,7 +3215,7 @@
         <v>30</v>
       </c>
       <c r="I28">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="J28" s="13">
         <v>3</v>
@@ -3267,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="I29">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="J29" s="13">
         <v>3</v>
@@ -3319,7 +3319,7 @@
         <v>30</v>
       </c>
       <c r="I30">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="J30" s="13">
         <v>3</v>
@@ -3371,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="I31">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="J31" s="13">
         <v>3</v>
@@ -3423,7 +3423,7 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="J32" s="13">
         <v>3</v>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>0.14559154419010023</v>
+        <v>0.13504524327679057</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.84125789024431052</v>
+        <v>0.84499978727738145</v>
       </c>
     </row>
   </sheetData>
@@ -7478,6 +7478,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101009EF5DFF61A5A2E4186425FEA105E497F" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5889d7251965a5bf886eedff40393a9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="022a34b1-9d82-4dd2-8ef7-65dd835f832c" xmlns:ns4="e404e11a-1b7c-46a4-be41-f958fe29f57e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc3e933e69588f52c8578e0e3109839" ns3:_="" ns4:_="">
     <xsd:import namespace="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
@@ -7686,24 +7703,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e404e11a-1b7c-46a4-be41-f958fe29f57e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D3CD77-C489-4EE9-BFD2-ED0E2707FBF6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7720,29 +7745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7E6B785-65A1-4A39-A7DA-3AAC95355A33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9096D1-AE55-4C5A-977F-80A54D8830AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e404e11a-1b7c-46a4-be41-f958fe29f57e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="022a34b1-9d82-4dd2-8ef7-65dd835f832c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/_input/reactor_data_raw.xlsx
+++ b/_input/reactor_data_raw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8DE10-412D-496D-8B2B-02AB797BE9C4}">
   <dimension ref="B1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="B3">
         <f ca="1">RAND()*(0.15-0.04)+0.04</f>
-        <v>0.13504524327679057</v>
+        <v>5.8628469899782064E-2</v>
       </c>
       <c r="C3">
         <f ca="1">IF(RAND()&lt;(0.9-0.75)/(0.95-0.75),0.75+SQRT(RAND()*(0.9-0.75)*(0.95-0.75)),0.95-SQRT((1-RAND())*(0.95-0.9)*(0.95-0.75)))</f>
-        <v>0.84499978727738145</v>
+        <v>0.76937115347787921</v>
       </c>
     </row>
   </sheetData>
